--- a/M3-P1/assets/TBCI-Cascades-Nov-2024.xlsx
+++ b/M3-P1/assets/TBCI-Cascades-Nov-2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\E-Learning_M&amp;E_TB-C-203\Cascades and Illustrative Indicator Maps\Cascades-Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MargieJoyce\Downloads\TB Indicator Mapping\Cascades-Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D90528-2B8E-4549-A212-4E06A8D91BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A537CDF1-0726-4AC0-92C7-9040B865ED0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="531" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" tabRatio="531" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TBCI - Negative Example" sheetId="1" r:id="rId1"/>
@@ -423,6 +423,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,9 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,12 +867,13 @@
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
+          <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.0741972307212444E-2"/>
-          <c:y val="2.6393188974365725E-2"/>
-          <c:w val="0.933467074789888"/>
-          <c:h val="0.85119854288409191"/>
+          <c:x val="2.9773998457446721E-3"/>
+          <c:y val="1.9659234514877562E-2"/>
+          <c:w val="0.95967012060000423"/>
+          <c:h val="0.77667559231863692"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1058,7 +1059,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'TBCI - Positive Example'!$M$3:$M$11</c:f>
+              <c:f>'TBCI - Positive Example'!$M$2:$M$10</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -1102,7 +1103,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'TBCI - Positive Example'!$O$3:$O$11</c:f>
+              <c:f>'TBCI - Positive Example'!$O$2:$O$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1989,8 +1990,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10077450" y="447675"/>
-          <a:ext cx="1419225" cy="1476375"/>
+          <a:off x="10058400" y="447675"/>
+          <a:ext cx="1414463" cy="1471613"/>
           <a:chOff x="154709" y="7609935"/>
           <a:chExt cx="1454380" cy="1474247"/>
         </a:xfrm>
@@ -3077,11 +3078,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="12601575" cy="5657850"/>
+    <xdr:ext cx="12868275" cy="5657850"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="410072113" name="Chart 2" title="Chart">
@@ -3107,16 +3108,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1390650</xdr:rowOff>
+      <xdr:rowOff>1362075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1219199</xdr:colOff>
+      <xdr:colOff>1085849</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2038350</xdr:rowOff>
+      <xdr:rowOff>2009775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3131,7 +3132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="5572125"/>
+          <a:off x="200025" y="5543550"/>
           <a:ext cx="1171574" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3181,15 +3182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
+      <xdr:rowOff>1295400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1076324</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2305050</xdr:rowOff>
+      <xdr:rowOff>2266950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3204,7 +3205,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1733550" y="5514975"/>
+          <a:off x="1581150" y="5476875"/>
           <a:ext cx="1038224" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3254,13 +3255,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1381125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2238375</xdr:rowOff>
     </xdr:to>
@@ -3277,7 +3278,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000375" y="5562600"/>
+          <a:off x="2952750" y="5562600"/>
           <a:ext cx="1085849" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3327,13 +3328,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1381125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:colOff>581024</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2219325</xdr:rowOff>
     </xdr:to>
@@ -3350,7 +3351,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="5562600"/>
+          <a:off x="4243388" y="5562600"/>
           <a:ext cx="1142999" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3400,13 +3401,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
+      <xdr:colOff>847724</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1400175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
+      <xdr:colOff>652461</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2171700</xdr:rowOff>
     </xdr:to>
@@ -3423,8 +3424,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5657850" y="5581650"/>
-          <a:ext cx="952500" cy="771525"/>
+          <a:off x="5653087" y="5581650"/>
+          <a:ext cx="1062037" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,15 +3474,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>842962</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1428750</xdr:rowOff>
+      <xdr:rowOff>1419225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1162051</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2105025</xdr:rowOff>
+      <xdr:rowOff>2286000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3496,8 +3497,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6829425" y="5610225"/>
-          <a:ext cx="1390651" cy="676275"/>
+          <a:off x="6905625" y="5600700"/>
+          <a:ext cx="1385888" cy="866775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3545,16 +3546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1152526</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1419225</xdr:rowOff>
+      <xdr:rowOff>1400175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1181101</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2238375</xdr:rowOff>
+      <xdr:rowOff>2219325</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3569,8 +3570,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8210551" y="5600700"/>
-          <a:ext cx="1257300" cy="819150"/>
+          <a:off x="8372476" y="5581650"/>
+          <a:ext cx="1252538" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3604,13 +3605,49 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" kern="1200">
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t># of contacts to people with pulmonary TB identified</a:t>
+            <a:t># of contacts</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>diagnosed with</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>active TB disease</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3618,14 +3655,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>1419225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:colOff>219076</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>2095500</xdr:rowOff>
     </xdr:to>
@@ -3642,7 +3679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9353550" y="5600700"/>
+          <a:off x="9544050" y="5600700"/>
           <a:ext cx="1390651" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3692,15 +3729,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>376238</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1438275</xdr:rowOff>
+      <xdr:rowOff>1404938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>819151</xdr:colOff>
+      <xdr:colOff>1157289</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2343150</xdr:rowOff>
+      <xdr:rowOff>2185988</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3715,8 +3752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10753725" y="5619750"/>
-          <a:ext cx="1390651" cy="904875"/>
+          <a:off x="11072813" y="5586413"/>
+          <a:ext cx="1390651" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3789,8 +3826,8 @@
       </cdr:nvGrpSpPr>
       <cdr:grpSpPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="10375885" y="50807"/>
-          <a:ext cx="1454348" cy="1474266"/>
+          <a:off x="10595480" y="50807"/>
+          <a:ext cx="1485128" cy="1474266"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1490406" cy="1472122"/>
         </a:xfrm>
@@ -5239,7 +5276,7 @@
   </sheetPr>
   <dimension ref="A1:X985"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -5263,18 +5300,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="2"/>
@@ -5526,7 +5563,7 @@
         <f t="shared" si="0"/>
         <v>10206</v>
       </c>
-      <c r="O9" s="32"/>
+      <c r="O9" s="27"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -30940,8 +30977,8 @@
   </sheetPr>
   <dimension ref="A1:AB999"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -30965,23 +31002,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="32.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="1"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>3</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -31005,15 +31048,15 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="5" t="s">
-        <v>1</v>
+      <c r="L2" s="32"/>
+      <c r="M2" s="24" t="s">
+        <v>19</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>2</v>
+      <c r="N2" s="13" t="s">
+        <v>6</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>3</v>
+      <c r="O2" s="9">
+        <v>12000</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -31038,15 +31081,15 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="31"/>
+      <c r="L3" s="32"/>
       <c r="M3" s="24" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
-      <c r="N3" s="13" t="s">
-        <v>6</v>
+      <c r="N3" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="O3" s="9">
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -31071,15 +31114,16 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="31"/>
+      <c r="L4" s="32"/>
       <c r="M4" s="24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>8</v>
+      <c r="N4" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="O4" s="9">
-        <v>10500</v>
+        <f>O3*3</f>
+        <v>31500</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -31104,16 +31148,16 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="31"/>
+      <c r="L5" s="32"/>
       <c r="M5" s="24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>10</v>
+      <c r="N5" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="O5" s="9">
-        <f>O4*3</f>
-        <v>31500</v>
+        <f>O4*80%</f>
+        <v>25200</v>
       </c>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -31138,16 +31182,16 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="31"/>
+      <c r="L6" s="32"/>
       <c r="M6" s="24" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
-      <c r="N6" s="14" t="s">
-        <v>12</v>
+      <c r="N6" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="O6" s="9">
-        <f>O5*80%</f>
-        <v>25200</v>
+        <f>O5*50%</f>
+        <v>12600</v>
       </c>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -31172,16 +31216,16 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="31"/>
+      <c r="L7" s="32"/>
       <c r="M7" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
-      <c r="N7" s="12" t="s">
-        <v>21</v>
+      <c r="N7" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="O7" s="9">
-        <f>O6*50%</f>
-        <v>12600</v>
+        <f>O6*95%</f>
+        <v>11970</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -31206,16 +31250,16 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="31"/>
+      <c r="L8" s="32"/>
       <c r="M8" s="24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O8" s="9">
-        <f>O7*95%</f>
-        <v>11970</v>
+        <f>O7*80%</f>
+        <v>9576</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -31240,16 +31284,16 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="31"/>
+      <c r="L9" s="32"/>
       <c r="M9" s="24" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>25</v>
+      <c r="N9" s="13" t="s">
+        <v>27</v>
       </c>
-      <c r="O9" s="9">
-        <f>O8*80%</f>
-        <v>9576</v>
+      <c r="O9" s="16">
+        <f t="shared" ref="O9:O10" si="0">O8*95%</f>
+        <v>9097.1999999999989</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -31274,16 +31318,16 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="24" t="s">
-        <v>26</v>
+      <c r="L10" s="32"/>
+      <c r="M10" s="25" t="s">
+        <v>28</v>
       </c>
-      <c r="N10" s="13" t="s">
-        <v>27</v>
+      <c r="N10" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="O10" s="16">
-        <f t="shared" ref="O10:O11" si="0">O9*95%</f>
-        <v>9097.1999999999989</v>
+        <f t="shared" si="0"/>
+        <v>8642.3399999999983</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -31308,17 +31352,10 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="16">
-        <f t="shared" si="0"/>
-        <v>8642.3399999999983</v>
-      </c>
+      <c r="L11" s="32"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -31342,7 +31379,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="31"/>
+      <c r="L12" s="32"/>
       <c r="M12" s="18"/>
       <c r="N12" s="21"/>
       <c r="O12" s="1"/>
@@ -31369,7 +31406,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="31"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="11"/>
       <c r="N13" s="21"/>
       <c r="O13" s="1"/>
@@ -31396,7 +31433,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="31"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="11"/>
       <c r="N14" s="21"/>
       <c r="O14" s="1"/>
@@ -31423,7 +31460,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="31"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="11"/>
       <c r="N15" s="21"/>
       <c r="O15" s="1"/>
@@ -31450,7 +31487,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="31"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="11"/>
       <c r="N16" s="21"/>
       <c r="O16" s="1"/>
@@ -31477,7 +31514,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="31"/>
+      <c r="L17" s="32"/>
       <c r="M17" s="11"/>
       <c r="N17" s="21"/>
       <c r="O17" s="1"/>
@@ -31504,7 +31541,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="31"/>
+      <c r="L18" s="32"/>
       <c r="M18" s="11"/>
       <c r="N18" s="21"/>
       <c r="O18" s="1"/>
@@ -31531,7 +31568,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="31"/>
+      <c r="L19" s="32"/>
       <c r="M19" s="11"/>
       <c r="N19" s="21"/>
       <c r="O19" s="1"/>
@@ -31558,7 +31595,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="31"/>
+      <c r="L20" s="32"/>
       <c r="M20" s="11"/>
       <c r="N20" s="21"/>
       <c r="O20" s="1"/>
@@ -31585,7 +31622,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="31"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="11"/>
       <c r="N21" s="21"/>
       <c r="O21" s="1"/>
@@ -31612,7 +31649,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="31"/>
+      <c r="L22" s="32"/>
       <c r="M22" s="11"/>
       <c r="N22" s="21"/>
       <c r="O22" s="1"/>
@@ -31639,7 +31676,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="31"/>
+      <c r="L23" s="32"/>
       <c r="M23" s="11"/>
       <c r="N23" s="21"/>
       <c r="O23" s="1"/>
@@ -31666,7 +31703,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="31"/>
+      <c r="L24" s="32"/>
       <c r="M24" s="11"/>
       <c r="N24" s="21"/>
       <c r="O24" s="1"/>
@@ -31693,7 +31730,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="31"/>
+      <c r="L25" s="32"/>
       <c r="M25" s="11"/>
       <c r="N25" s="21"/>
       <c r="O25" s="1"/>
@@ -31720,7 +31757,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="31"/>
+      <c r="L26" s="32"/>
       <c r="M26" s="11"/>
       <c r="N26" s="21"/>
       <c r="O26" s="1"/>
@@ -31747,7 +31784,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="31"/>
+      <c r="L27" s="32"/>
       <c r="M27" s="11"/>
       <c r="N27" s="21"/>
       <c r="O27" s="1"/>
@@ -31774,7 +31811,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="31"/>
+      <c r="L28" s="32"/>
       <c r="M28" s="11"/>
       <c r="N28" s="21"/>
       <c r="O28" s="1"/>
@@ -31801,7 +31838,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="31"/>
+      <c r="L29" s="32"/>
       <c r="M29" s="11"/>
       <c r="N29" s="21"/>
       <c r="O29" s="1"/>
@@ -31828,7 +31865,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="31"/>
+      <c r="L30" s="32"/>
       <c r="M30" s="11"/>
       <c r="N30" s="21"/>
       <c r="O30" s="1"/>
@@ -31855,7 +31892,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="31"/>
+      <c r="L31" s="32"/>
       <c r="M31" s="11"/>
       <c r="N31" s="21"/>
       <c r="O31" s="1"/>
@@ -31882,7 +31919,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="31"/>
+      <c r="L32" s="32"/>
       <c r="M32" s="11"/>
       <c r="N32" s="21"/>
       <c r="O32" s="1"/>
@@ -31909,7 +31946,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="31"/>
+      <c r="L33" s="32"/>
       <c r="M33" s="11"/>
       <c r="N33" s="21"/>
       <c r="O33" s="1"/>
@@ -31936,7 +31973,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="31"/>
+      <c r="L34" s="32"/>
       <c r="M34" s="11"/>
       <c r="N34" s="21"/>
       <c r="O34" s="1"/>
@@ -31963,7 +32000,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="31"/>
+      <c r="L35" s="32"/>
       <c r="M35" s="11"/>
       <c r="N35" s="21"/>
       <c r="O35" s="1"/>
@@ -31990,7 +32027,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="31"/>
+      <c r="L36" s="32"/>
       <c r="M36" s="11"/>
       <c r="N36" s="21"/>
       <c r="O36" s="1"/>
@@ -32017,7 +32054,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="31"/>
+      <c r="L37" s="32"/>
       <c r="M37" s="11"/>
       <c r="N37" s="21"/>
       <c r="O37" s="1"/>
@@ -32044,7 +32081,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="31"/>
+      <c r="L38" s="32"/>
       <c r="M38" s="11"/>
       <c r="N38" s="21"/>
       <c r="O38" s="1"/>
@@ -32071,7 +32108,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="31"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="11"/>
       <c r="N39" s="21"/>
       <c r="O39" s="1"/>
@@ -32098,7 +32135,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="31"/>
+      <c r="L40" s="32"/>
       <c r="M40" s="11"/>
       <c r="N40" s="21"/>
       <c r="O40" s="1"/>
@@ -32125,7 +32162,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="31"/>
+      <c r="L41" s="32"/>
       <c r="M41" s="11"/>
       <c r="N41" s="21"/>
       <c r="O41" s="1"/>
@@ -32152,7 +32189,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="31"/>
+      <c r="L42" s="32"/>
       <c r="M42" s="11"/>
       <c r="N42" s="21"/>
       <c r="O42" s="1"/>
@@ -32179,7 +32216,7 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="31"/>
+      <c r="L43" s="32"/>
       <c r="M43" s="11"/>
       <c r="N43" s="21"/>
       <c r="O43" s="1"/>
@@ -32206,7 +32243,7 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="31"/>
+      <c r="L44" s="32"/>
       <c r="M44" s="11"/>
       <c r="N44" s="21"/>
       <c r="O44" s="1"/>
@@ -32233,7 +32270,7 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="31"/>
+      <c r="L45" s="32"/>
       <c r="M45" s="11"/>
       <c r="N45" s="21"/>
       <c r="O45" s="1"/>
@@ -32260,7 +32297,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="31"/>
+      <c r="L46" s="32"/>
       <c r="M46" s="11"/>
       <c r="N46" s="21"/>
       <c r="O46" s="1"/>
@@ -32287,7 +32324,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="31"/>
+      <c r="L47" s="32"/>
       <c r="M47" s="11"/>
       <c r="N47" s="21"/>
       <c r="O47" s="1"/>
@@ -32314,7 +32351,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="31"/>
+      <c r="L48" s="32"/>
       <c r="M48" s="11"/>
       <c r="N48" s="21"/>
       <c r="O48" s="1"/>
@@ -32341,7 +32378,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="31"/>
+      <c r="L49" s="32"/>
       <c r="M49" s="11"/>
       <c r="N49" s="21"/>
       <c r="O49" s="1"/>
@@ -32368,7 +32405,7 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="31"/>
+      <c r="L50" s="32"/>
       <c r="M50" s="11"/>
       <c r="N50" s="21"/>
       <c r="O50" s="1"/>
@@ -32395,7 +32432,7 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="31"/>
+      <c r="L51" s="32"/>
       <c r="M51" s="11"/>
       <c r="N51" s="21"/>
       <c r="O51" s="1"/>
@@ -32422,7 +32459,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="31"/>
+      <c r="L52" s="32"/>
       <c r="M52" s="11"/>
       <c r="N52" s="21"/>
       <c r="O52" s="1"/>
@@ -32449,7 +32486,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="31"/>
+      <c r="L53" s="32"/>
       <c r="M53" s="11"/>
       <c r="N53" s="21"/>
       <c r="O53" s="1"/>
@@ -32476,7 +32513,7 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="31"/>
+      <c r="L54" s="32"/>
       <c r="M54" s="11"/>
       <c r="N54" s="21"/>
       <c r="O54" s="1"/>
@@ -32503,7 +32540,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="31"/>
+      <c r="L55" s="32"/>
       <c r="M55" s="11"/>
       <c r="N55" s="21"/>
       <c r="O55" s="1"/>
@@ -32530,7 +32567,7 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="31"/>
+      <c r="L56" s="32"/>
       <c r="M56" s="11"/>
       <c r="N56" s="21"/>
       <c r="O56" s="1"/>
@@ -32557,7 +32594,7 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="31"/>
+      <c r="L57" s="32"/>
       <c r="M57" s="11"/>
       <c r="N57" s="21"/>
       <c r="O57" s="1"/>
@@ -32584,7 +32621,7 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="31"/>
+      <c r="L58" s="32"/>
       <c r="M58" s="11"/>
       <c r="N58" s="21"/>
       <c r="O58" s="1"/>
@@ -32611,7 +32648,7 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
-      <c r="L59" s="31"/>
+      <c r="L59" s="32"/>
       <c r="M59" s="11"/>
       <c r="N59" s="21"/>
       <c r="O59" s="1"/>
@@ -32638,7 +32675,7 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
-      <c r="L60" s="31"/>
+      <c r="L60" s="32"/>
       <c r="M60" s="11"/>
       <c r="N60" s="21"/>
       <c r="O60" s="1"/>
@@ -32665,7 +32702,7 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
-      <c r="L61" s="31"/>
+      <c r="L61" s="32"/>
       <c r="M61" s="11"/>
       <c r="N61" s="21"/>
       <c r="O61" s="1"/>
@@ -32692,7 +32729,7 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
-      <c r="L62" s="31"/>
+      <c r="L62" s="32"/>
       <c r="M62" s="11"/>
       <c r="N62" s="21"/>
       <c r="O62" s="1"/>
@@ -32719,7 +32756,7 @@
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="31"/>
+      <c r="L63" s="32"/>
       <c r="M63" s="11"/>
       <c r="N63" s="21"/>
       <c r="O63" s="1"/>
@@ -32746,7 +32783,7 @@
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="31"/>
+      <c r="L64" s="32"/>
       <c r="M64" s="11"/>
       <c r="N64" s="21"/>
       <c r="O64" s="1"/>
@@ -32773,7 +32810,7 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
-      <c r="L65" s="31"/>
+      <c r="L65" s="32"/>
       <c r="M65" s="11"/>
       <c r="N65" s="21"/>
       <c r="O65" s="1"/>
@@ -32800,7 +32837,7 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="31"/>
+      <c r="L66" s="32"/>
       <c r="M66" s="11"/>
       <c r="N66" s="21"/>
       <c r="O66" s="1"/>
@@ -32827,7 +32864,7 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="31"/>
+      <c r="L67" s="32"/>
       <c r="M67" s="11"/>
       <c r="N67" s="21"/>
       <c r="O67" s="1"/>
@@ -32854,7 +32891,7 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="31"/>
+      <c r="L68" s="32"/>
       <c r="M68" s="11"/>
       <c r="N68" s="21"/>
       <c r="O68" s="1"/>
@@ -32881,7 +32918,7 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
-      <c r="L69" s="31"/>
+      <c r="L69" s="32"/>
       <c r="M69" s="11"/>
       <c r="N69" s="21"/>
       <c r="O69" s="1"/>
@@ -32908,7 +32945,7 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
-      <c r="L70" s="31"/>
+      <c r="L70" s="32"/>
       <c r="M70" s="11"/>
       <c r="N70" s="21"/>
       <c r="O70" s="1"/>
@@ -32935,7 +32972,7 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
-      <c r="L71" s="31"/>
+      <c r="L71" s="32"/>
       <c r="M71" s="11"/>
       <c r="N71" s="21"/>
       <c r="O71" s="1"/>
@@ -32962,7 +32999,7 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
-      <c r="L72" s="31"/>
+      <c r="L72" s="32"/>
       <c r="M72" s="11"/>
       <c r="N72" s="21"/>
       <c r="O72" s="1"/>
@@ -32989,7 +33026,7 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
-      <c r="L73" s="31"/>
+      <c r="L73" s="32"/>
       <c r="M73" s="11"/>
       <c r="N73" s="21"/>
       <c r="O73" s="1"/>
@@ -33016,7 +33053,7 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
-      <c r="L74" s="31"/>
+      <c r="L74" s="32"/>
       <c r="M74" s="11"/>
       <c r="N74" s="21"/>
       <c r="O74" s="1"/>
@@ -33043,7 +33080,7 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-      <c r="L75" s="31"/>
+      <c r="L75" s="32"/>
       <c r="M75" s="11"/>
       <c r="N75" s="21"/>
       <c r="O75" s="1"/>
@@ -33070,7 +33107,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-      <c r="L76" s="31"/>
+      <c r="L76" s="32"/>
       <c r="M76" s="11"/>
       <c r="N76" s="21"/>
       <c r="O76" s="1"/>
@@ -33097,7 +33134,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-      <c r="L77" s="31"/>
+      <c r="L77" s="32"/>
       <c r="M77" s="11"/>
       <c r="N77" s="21"/>
       <c r="O77" s="1"/>
@@ -33124,7 +33161,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-      <c r="L78" s="31"/>
+      <c r="L78" s="32"/>
       <c r="M78" s="11"/>
       <c r="N78" s="21"/>
       <c r="O78" s="1"/>
@@ -33151,7 +33188,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-      <c r="L79" s="31"/>
+      <c r="L79" s="32"/>
       <c r="M79" s="11"/>
       <c r="N79" s="21"/>
       <c r="O79" s="1"/>
@@ -33178,7 +33215,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
-      <c r="L80" s="31"/>
+      <c r="L80" s="32"/>
       <c r="M80" s="11"/>
       <c r="N80" s="21"/>
       <c r="O80" s="1"/>
@@ -33205,7 +33242,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
-      <c r="L81" s="31"/>
+      <c r="L81" s="32"/>
       <c r="M81" s="11"/>
       <c r="N81" s="21"/>
       <c r="O81" s="1"/>
@@ -33232,7 +33269,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
-      <c r="L82" s="31"/>
+      <c r="L82" s="32"/>
       <c r="M82" s="11"/>
       <c r="N82" s="21"/>
       <c r="O82" s="1"/>
@@ -33259,7 +33296,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
-      <c r="L83" s="31"/>
+      <c r="L83" s="32"/>
       <c r="M83" s="11"/>
       <c r="N83" s="21"/>
       <c r="O83" s="1"/>
@@ -33286,7 +33323,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
-      <c r="L84" s="31"/>
+      <c r="L84" s="32"/>
       <c r="M84" s="11"/>
       <c r="N84" s="21"/>
       <c r="O84" s="1"/>
@@ -33313,7 +33350,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="31"/>
+      <c r="L85" s="32"/>
       <c r="M85" s="11"/>
       <c r="N85" s="21"/>
       <c r="O85" s="1"/>
@@ -33340,7 +33377,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
-      <c r="L86" s="31"/>
+      <c r="L86" s="32"/>
       <c r="M86" s="11"/>
       <c r="N86" s="21"/>
       <c r="O86" s="1"/>
@@ -33367,7 +33404,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
-      <c r="L87" s="31"/>
+      <c r="L87" s="32"/>
       <c r="M87" s="11"/>
       <c r="N87" s="21"/>
       <c r="O87" s="1"/>
@@ -33394,7 +33431,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
-      <c r="L88" s="31"/>
+      <c r="L88" s="32"/>
       <c r="M88" s="11"/>
       <c r="N88" s="21"/>
       <c r="O88" s="1"/>
@@ -33421,7 +33458,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
-      <c r="L89" s="31"/>
+      <c r="L89" s="32"/>
       <c r="M89" s="11"/>
       <c r="N89" s="21"/>
       <c r="O89" s="1"/>
@@ -33448,7 +33485,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
-      <c r="L90" s="31"/>
+      <c r="L90" s="32"/>
       <c r="M90" s="11"/>
       <c r="N90" s="21"/>
       <c r="O90" s="1"/>
@@ -33475,7 +33512,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
-      <c r="L91" s="31"/>
+      <c r="L91" s="32"/>
       <c r="M91" s="11"/>
       <c r="N91" s="21"/>
       <c r="O91" s="1"/>
@@ -33502,7 +33539,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
-      <c r="L92" s="31"/>
+      <c r="L92" s="32"/>
       <c r="M92" s="11"/>
       <c r="N92" s="21"/>
       <c r="O92" s="1"/>
@@ -33529,7 +33566,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
-      <c r="L93" s="31"/>
+      <c r="L93" s="32"/>
       <c r="M93" s="11"/>
       <c r="N93" s="21"/>
       <c r="O93" s="1"/>
@@ -33556,7 +33593,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="31"/>
+      <c r="L94" s="32"/>
       <c r="M94" s="11"/>
       <c r="N94" s="21"/>
       <c r="O94" s="1"/>
@@ -33583,7 +33620,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="31"/>
+      <c r="L95" s="32"/>
       <c r="M95" s="11"/>
       <c r="N95" s="21"/>
       <c r="O95" s="1"/>
@@ -33610,7 +33647,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="31"/>
+      <c r="L96" s="32"/>
       <c r="M96" s="11"/>
       <c r="N96" s="21"/>
       <c r="O96" s="1"/>
@@ -33637,7 +33674,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="31"/>
+      <c r="L97" s="32"/>
       <c r="M97" s="11"/>
       <c r="N97" s="21"/>
       <c r="O97" s="1"/>
@@ -33664,7 +33701,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="31"/>
+      <c r="L98" s="32"/>
       <c r="M98" s="11"/>
       <c r="N98" s="21"/>
       <c r="O98" s="1"/>
@@ -33691,7 +33728,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
-      <c r="L99" s="31"/>
+      <c r="L99" s="32"/>
       <c r="M99" s="11"/>
       <c r="N99" s="21"/>
       <c r="O99" s="1"/>
@@ -33718,7 +33755,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
-      <c r="L100" s="31"/>
+      <c r="L100" s="32"/>
       <c r="M100" s="11"/>
       <c r="N100" s="21"/>
       <c r="O100" s="1"/>
@@ -33745,7 +33782,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
-      <c r="L101" s="31"/>
+      <c r="L101" s="32"/>
       <c r="M101" s="11"/>
       <c r="N101" s="21"/>
       <c r="O101" s="1"/>
@@ -33772,7 +33809,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
-      <c r="L102" s="31"/>
+      <c r="L102" s="32"/>
       <c r="M102" s="11"/>
       <c r="N102" s="21"/>
       <c r="O102" s="1"/>
@@ -33799,7 +33836,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
-      <c r="L103" s="31"/>
+      <c r="L103" s="32"/>
       <c r="M103" s="11"/>
       <c r="N103" s="21"/>
       <c r="O103" s="1"/>
@@ -33826,7 +33863,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
-      <c r="L104" s="31"/>
+      <c r="L104" s="32"/>
       <c r="M104" s="11"/>
       <c r="N104" s="21"/>
       <c r="O104" s="1"/>
@@ -33853,7 +33890,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
-      <c r="L105" s="31"/>
+      <c r="L105" s="32"/>
       <c r="M105" s="11"/>
       <c r="N105" s="21"/>
       <c r="O105" s="1"/>
@@ -33880,7 +33917,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
-      <c r="L106" s="31"/>
+      <c r="L106" s="32"/>
       <c r="M106" s="11"/>
       <c r="N106" s="21"/>
       <c r="O106" s="1"/>
@@ -33907,7 +33944,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
-      <c r="L107" s="31"/>
+      <c r="L107" s="32"/>
       <c r="M107" s="11"/>
       <c r="N107" s="21"/>
       <c r="O107" s="1"/>
@@ -33934,7 +33971,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
-      <c r="L108" s="31"/>
+      <c r="L108" s="32"/>
       <c r="M108" s="11"/>
       <c r="N108" s="21"/>
       <c r="O108" s="1"/>
@@ -33961,7 +33998,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
-      <c r="L109" s="31"/>
+      <c r="L109" s="32"/>
       <c r="M109" s="11"/>
       <c r="N109" s="21"/>
       <c r="O109" s="1"/>
@@ -33988,7 +34025,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
-      <c r="L110" s="31"/>
+      <c r="L110" s="32"/>
       <c r="M110" s="11"/>
       <c r="N110" s="21"/>
       <c r="O110" s="1"/>
@@ -34015,7 +34052,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
-      <c r="L111" s="31"/>
+      <c r="L111" s="32"/>
       <c r="M111" s="11"/>
       <c r="N111" s="21"/>
       <c r="O111" s="1"/>
@@ -34042,7 +34079,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
-      <c r="L112" s="31"/>
+      <c r="L112" s="32"/>
       <c r="M112" s="11"/>
       <c r="N112" s="21"/>
       <c r="O112" s="1"/>
@@ -34069,7 +34106,7 @@
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
-      <c r="L113" s="31"/>
+      <c r="L113" s="32"/>
       <c r="M113" s="11"/>
       <c r="N113" s="21"/>
       <c r="O113" s="1"/>
@@ -34096,7 +34133,7 @@
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
-      <c r="L114" s="31"/>
+      <c r="L114" s="32"/>
       <c r="M114" s="11"/>
       <c r="N114" s="21"/>
       <c r="O114" s="1"/>
@@ -34123,7 +34160,7 @@
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
-      <c r="L115" s="31"/>
+      <c r="L115" s="32"/>
       <c r="M115" s="11"/>
       <c r="N115" s="21"/>
       <c r="O115" s="1"/>
@@ -34150,7 +34187,7 @@
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
-      <c r="L116" s="31"/>
+      <c r="L116" s="32"/>
       <c r="M116" s="11"/>
       <c r="N116" s="21"/>
       <c r="O116" s="1"/>
@@ -34177,7 +34214,7 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
-      <c r="L117" s="31"/>
+      <c r="L117" s="32"/>
       <c r="M117" s="11"/>
       <c r="N117" s="21"/>
       <c r="O117" s="1"/>
@@ -34204,7 +34241,7 @@
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
-      <c r="L118" s="31"/>
+      <c r="L118" s="32"/>
       <c r="M118" s="11"/>
       <c r="N118" s="21"/>
       <c r="O118" s="1"/>
@@ -34231,7 +34268,7 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
-      <c r="L119" s="31"/>
+      <c r="L119" s="32"/>
       <c r="M119" s="11"/>
       <c r="N119" s="21"/>
       <c r="O119" s="1"/>
@@ -34258,7 +34295,7 @@
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
-      <c r="L120" s="31"/>
+      <c r="L120" s="32"/>
       <c r="M120" s="11"/>
       <c r="N120" s="21"/>
       <c r="O120" s="1"/>
@@ -34285,7 +34322,7 @@
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
-      <c r="L121" s="31"/>
+      <c r="L121" s="32"/>
       <c r="M121" s="11"/>
       <c r="N121" s="21"/>
       <c r="O121" s="1"/>
@@ -34312,7 +34349,7 @@
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
-      <c r="L122" s="31"/>
+      <c r="L122" s="32"/>
       <c r="M122" s="11"/>
       <c r="N122" s="21"/>
       <c r="O122" s="1"/>
@@ -34339,7 +34376,7 @@
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
-      <c r="L123" s="31"/>
+      <c r="L123" s="32"/>
       <c r="M123" s="11"/>
       <c r="N123" s="21"/>
       <c r="O123" s="1"/>
@@ -34366,7 +34403,7 @@
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
-      <c r="L124" s="31"/>
+      <c r="L124" s="32"/>
       <c r="M124" s="11"/>
       <c r="N124" s="21"/>
       <c r="O124" s="1"/>
@@ -34393,7 +34430,7 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
-      <c r="L125" s="31"/>
+      <c r="L125" s="32"/>
       <c r="M125" s="11"/>
       <c r="N125" s="21"/>
       <c r="O125" s="1"/>
@@ -34420,7 +34457,7 @@
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
-      <c r="L126" s="31"/>
+      <c r="L126" s="32"/>
       <c r="M126" s="11"/>
       <c r="N126" s="21"/>
       <c r="O126" s="1"/>
@@ -34447,7 +34484,7 @@
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
-      <c r="L127" s="31"/>
+      <c r="L127" s="32"/>
       <c r="M127" s="11"/>
       <c r="N127" s="21"/>
       <c r="O127" s="1"/>
@@ -34474,7 +34511,7 @@
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
-      <c r="L128" s="31"/>
+      <c r="L128" s="32"/>
       <c r="M128" s="11"/>
       <c r="N128" s="21"/>
       <c r="O128" s="1"/>
@@ -34501,7 +34538,7 @@
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
-      <c r="L129" s="31"/>
+      <c r="L129" s="32"/>
       <c r="M129" s="11"/>
       <c r="N129" s="21"/>
       <c r="O129" s="1"/>
@@ -34528,7 +34565,7 @@
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
-      <c r="L130" s="31"/>
+      <c r="L130" s="32"/>
       <c r="M130" s="11"/>
       <c r="N130" s="21"/>
       <c r="O130" s="1"/>
@@ -34555,7 +34592,7 @@
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
-      <c r="L131" s="31"/>
+      <c r="L131" s="32"/>
       <c r="M131" s="11"/>
       <c r="N131" s="21"/>
       <c r="O131" s="1"/>
@@ -34582,7 +34619,7 @@
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
-      <c r="L132" s="31"/>
+      <c r="L132" s="32"/>
       <c r="M132" s="11"/>
       <c r="N132" s="21"/>
       <c r="O132" s="1"/>
@@ -34609,7 +34646,7 @@
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
-      <c r="L133" s="31"/>
+      <c r="L133" s="32"/>
       <c r="M133" s="11"/>
       <c r="N133" s="21"/>
       <c r="O133" s="1"/>
@@ -34636,7 +34673,7 @@
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
-      <c r="L134" s="31"/>
+      <c r="L134" s="32"/>
       <c r="M134" s="11"/>
       <c r="N134" s="21"/>
       <c r="O134" s="1"/>
@@ -34663,7 +34700,7 @@
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
-      <c r="L135" s="31"/>
+      <c r="L135" s="32"/>
       <c r="M135" s="11"/>
       <c r="N135" s="21"/>
       <c r="O135" s="1"/>
@@ -34690,7 +34727,7 @@
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
-      <c r="L136" s="31"/>
+      <c r="L136" s="32"/>
       <c r="M136" s="11"/>
       <c r="N136" s="21"/>
       <c r="O136" s="1"/>
@@ -34717,7 +34754,7 @@
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
-      <c r="L137" s="31"/>
+      <c r="L137" s="32"/>
       <c r="M137" s="11"/>
       <c r="N137" s="21"/>
       <c r="O137" s="1"/>
@@ -34744,7 +34781,7 @@
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
-      <c r="L138" s="31"/>
+      <c r="L138" s="32"/>
       <c r="M138" s="11"/>
       <c r="N138" s="21"/>
       <c r="O138" s="1"/>
@@ -34771,7 +34808,7 @@
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
-      <c r="L139" s="31"/>
+      <c r="L139" s="32"/>
       <c r="M139" s="11"/>
       <c r="N139" s="21"/>
       <c r="O139" s="1"/>
@@ -34798,7 +34835,7 @@
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="31"/>
+      <c r="L140" s="32"/>
       <c r="M140" s="11"/>
       <c r="N140" s="21"/>
       <c r="O140" s="1"/>
@@ -34825,7 +34862,7 @@
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
-      <c r="L141" s="31"/>
+      <c r="L141" s="32"/>
       <c r="M141" s="11"/>
       <c r="N141" s="21"/>
       <c r="O141" s="1"/>
@@ -34852,7 +34889,7 @@
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
-      <c r="L142" s="31"/>
+      <c r="L142" s="32"/>
       <c r="M142" s="11"/>
       <c r="N142" s="21"/>
       <c r="O142" s="1"/>
@@ -34879,7 +34916,7 @@
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
-      <c r="L143" s="31"/>
+      <c r="L143" s="32"/>
       <c r="M143" s="11"/>
       <c r="N143" s="21"/>
       <c r="O143" s="1"/>
@@ -34906,7 +34943,7 @@
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
-      <c r="L144" s="31"/>
+      <c r="L144" s="32"/>
       <c r="M144" s="11"/>
       <c r="N144" s="21"/>
       <c r="O144" s="1"/>
@@ -34933,7 +34970,7 @@
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
-      <c r="L145" s="31"/>
+      <c r="L145" s="32"/>
       <c r="M145" s="11"/>
       <c r="N145" s="21"/>
       <c r="O145" s="1"/>
@@ -34960,7 +34997,7 @@
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
-      <c r="L146" s="31"/>
+      <c r="L146" s="32"/>
       <c r="M146" s="11"/>
       <c r="N146" s="21"/>
       <c r="O146" s="1"/>
@@ -34987,7 +35024,7 @@
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
-      <c r="L147" s="31"/>
+      <c r="L147" s="32"/>
       <c r="M147" s="11"/>
       <c r="N147" s="21"/>
       <c r="O147" s="1"/>
@@ -35014,7 +35051,7 @@
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
-      <c r="L148" s="31"/>
+      <c r="L148" s="32"/>
       <c r="M148" s="11"/>
       <c r="N148" s="21"/>
       <c r="O148" s="1"/>
@@ -35041,7 +35078,7 @@
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
-      <c r="L149" s="31"/>
+      <c r="L149" s="32"/>
       <c r="M149" s="11"/>
       <c r="N149" s="21"/>
       <c r="O149" s="1"/>
@@ -35068,7 +35105,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
-      <c r="L150" s="31"/>
+      <c r="L150" s="32"/>
       <c r="M150" s="11"/>
       <c r="N150" s="21"/>
       <c r="O150" s="1"/>
@@ -35095,7 +35132,7 @@
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
-      <c r="L151" s="31"/>
+      <c r="L151" s="32"/>
       <c r="M151" s="11"/>
       <c r="N151" s="21"/>
       <c r="O151" s="1"/>
@@ -35122,7 +35159,7 @@
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="31"/>
+      <c r="L152" s="32"/>
       <c r="M152" s="11"/>
       <c r="N152" s="21"/>
       <c r="O152" s="1"/>
@@ -35149,7 +35186,7 @@
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
-      <c r="L153" s="31"/>
+      <c r="L153" s="32"/>
       <c r="M153" s="11"/>
       <c r="N153" s="21"/>
       <c r="O153" s="1"/>
@@ -35176,7 +35213,7 @@
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
-      <c r="L154" s="31"/>
+      <c r="L154" s="32"/>
       <c r="M154" s="11"/>
       <c r="N154" s="21"/>
       <c r="O154" s="1"/>
@@ -35203,7 +35240,7 @@
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
-      <c r="L155" s="31"/>
+      <c r="L155" s="32"/>
       <c r="M155" s="11"/>
       <c r="N155" s="21"/>
       <c r="O155" s="1"/>
@@ -35230,7 +35267,7 @@
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
-      <c r="L156" s="31"/>
+      <c r="L156" s="32"/>
       <c r="M156" s="11"/>
       <c r="N156" s="21"/>
       <c r="O156" s="1"/>
@@ -35257,7 +35294,7 @@
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
-      <c r="L157" s="31"/>
+      <c r="L157" s="32"/>
       <c r="M157" s="11"/>
       <c r="N157" s="21"/>
       <c r="O157" s="1"/>
@@ -35284,7 +35321,7 @@
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
-      <c r="L158" s="31"/>
+      <c r="L158" s="32"/>
       <c r="M158" s="11"/>
       <c r="N158" s="21"/>
       <c r="O158" s="1"/>
@@ -35311,7 +35348,7 @@
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
-      <c r="L159" s="31"/>
+      <c r="L159" s="32"/>
       <c r="M159" s="11"/>
       <c r="N159" s="21"/>
       <c r="O159" s="1"/>
@@ -35338,7 +35375,7 @@
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
-      <c r="L160" s="31"/>
+      <c r="L160" s="32"/>
       <c r="M160" s="11"/>
       <c r="N160" s="21"/>
       <c r="O160" s="1"/>
@@ -35365,7 +35402,7 @@
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
-      <c r="L161" s="31"/>
+      <c r="L161" s="32"/>
       <c r="M161" s="11"/>
       <c r="N161" s="21"/>
       <c r="O161" s="1"/>
@@ -35392,7 +35429,7 @@
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
-      <c r="L162" s="31"/>
+      <c r="L162" s="32"/>
       <c r="M162" s="11"/>
       <c r="N162" s="21"/>
       <c r="O162" s="1"/>
@@ -35419,7 +35456,7 @@
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
-      <c r="L163" s="31"/>
+      <c r="L163" s="32"/>
       <c r="M163" s="11"/>
       <c r="N163" s="21"/>
       <c r="O163" s="1"/>
@@ -35446,7 +35483,7 @@
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
-      <c r="L164" s="31"/>
+      <c r="L164" s="32"/>
       <c r="M164" s="11"/>
       <c r="N164" s="21"/>
       <c r="O164" s="1"/>
@@ -35473,7 +35510,7 @@
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
-      <c r="L165" s="31"/>
+      <c r="L165" s="32"/>
       <c r="M165" s="11"/>
       <c r="N165" s="21"/>
       <c r="O165" s="1"/>
@@ -35500,7 +35537,7 @@
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
-      <c r="L166" s="31"/>
+      <c r="L166" s="32"/>
       <c r="M166" s="11"/>
       <c r="N166" s="21"/>
       <c r="O166" s="1"/>
@@ -35527,7 +35564,7 @@
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
-      <c r="L167" s="31"/>
+      <c r="L167" s="32"/>
       <c r="M167" s="11"/>
       <c r="N167" s="21"/>
       <c r="O167" s="1"/>
@@ -35554,7 +35591,7 @@
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
-      <c r="L168" s="31"/>
+      <c r="L168" s="32"/>
       <c r="M168" s="11"/>
       <c r="N168" s="21"/>
       <c r="O168" s="1"/>
@@ -35581,7 +35618,7 @@
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
-      <c r="L169" s="31"/>
+      <c r="L169" s="32"/>
       <c r="M169" s="11"/>
       <c r="N169" s="21"/>
       <c r="O169" s="1"/>
@@ -35608,7 +35645,7 @@
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
-      <c r="L170" s="31"/>
+      <c r="L170" s="32"/>
       <c r="M170" s="11"/>
       <c r="N170" s="21"/>
       <c r="O170" s="1"/>
@@ -35635,7 +35672,7 @@
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
-      <c r="L171" s="31"/>
+      <c r="L171" s="32"/>
       <c r="M171" s="11"/>
       <c r="N171" s="21"/>
       <c r="O171" s="1"/>
@@ -35662,7 +35699,7 @@
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
-      <c r="L172" s="31"/>
+      <c r="L172" s="32"/>
       <c r="M172" s="11"/>
       <c r="N172" s="21"/>
       <c r="O172" s="1"/>
@@ -35689,7 +35726,7 @@
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
-      <c r="L173" s="31"/>
+      <c r="L173" s="32"/>
       <c r="M173" s="11"/>
       <c r="N173" s="21"/>
       <c r="O173" s="1"/>
@@ -35716,7 +35753,7 @@
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
-      <c r="L174" s="31"/>
+      <c r="L174" s="32"/>
       <c r="M174" s="11"/>
       <c r="N174" s="21"/>
       <c r="O174" s="1"/>
@@ -35743,7 +35780,7 @@
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
-      <c r="L175" s="31"/>
+      <c r="L175" s="32"/>
       <c r="M175" s="11"/>
       <c r="N175" s="21"/>
       <c r="O175" s="1"/>
@@ -35770,7 +35807,7 @@
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
-      <c r="L176" s="31"/>
+      <c r="L176" s="32"/>
       <c r="M176" s="11"/>
       <c r="N176" s="21"/>
       <c r="O176" s="1"/>
@@ -35797,7 +35834,7 @@
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
-      <c r="L177" s="31"/>
+      <c r="L177" s="32"/>
       <c r="M177" s="11"/>
       <c r="N177" s="21"/>
       <c r="O177" s="1"/>
@@ -35824,7 +35861,7 @@
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
-      <c r="L178" s="31"/>
+      <c r="L178" s="32"/>
       <c r="M178" s="11"/>
       <c r="N178" s="21"/>
       <c r="O178" s="1"/>
@@ -35851,7 +35888,7 @@
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
-      <c r="L179" s="31"/>
+      <c r="L179" s="32"/>
       <c r="M179" s="11"/>
       <c r="N179" s="21"/>
       <c r="O179" s="1"/>
@@ -35878,7 +35915,7 @@
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
-      <c r="L180" s="31"/>
+      <c r="L180" s="32"/>
       <c r="M180" s="11"/>
       <c r="N180" s="21"/>
       <c r="O180" s="1"/>
@@ -35905,7 +35942,7 @@
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
-      <c r="L181" s="31"/>
+      <c r="L181" s="32"/>
       <c r="M181" s="11"/>
       <c r="N181" s="21"/>
       <c r="O181" s="1"/>
@@ -35932,7 +35969,7 @@
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
-      <c r="L182" s="31"/>
+      <c r="L182" s="32"/>
       <c r="M182" s="11"/>
       <c r="N182" s="21"/>
       <c r="O182" s="1"/>
@@ -35959,7 +35996,7 @@
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
-      <c r="L183" s="31"/>
+      <c r="L183" s="32"/>
       <c r="M183" s="11"/>
       <c r="N183" s="21"/>
       <c r="O183" s="1"/>
@@ -35986,7 +36023,7 @@
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
-      <c r="L184" s="31"/>
+      <c r="L184" s="32"/>
       <c r="M184" s="11"/>
       <c r="N184" s="21"/>
       <c r="O184" s="1"/>
@@ -36013,7 +36050,7 @@
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
-      <c r="L185" s="31"/>
+      <c r="L185" s="32"/>
       <c r="M185" s="11"/>
       <c r="N185" s="21"/>
       <c r="O185" s="1"/>
@@ -36040,7 +36077,7 @@
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
-      <c r="L186" s="31"/>
+      <c r="L186" s="32"/>
       <c r="M186" s="11"/>
       <c r="N186" s="21"/>
       <c r="O186" s="1"/>
@@ -36067,7 +36104,7 @@
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
-      <c r="L187" s="31"/>
+      <c r="L187" s="32"/>
       <c r="M187" s="11"/>
       <c r="N187" s="21"/>
       <c r="O187" s="1"/>
@@ -36094,7 +36131,7 @@
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
-      <c r="L188" s="31"/>
+      <c r="L188" s="32"/>
       <c r="M188" s="11"/>
       <c r="N188" s="21"/>
       <c r="O188" s="1"/>
@@ -36121,7 +36158,7 @@
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
-      <c r="L189" s="31"/>
+      <c r="L189" s="32"/>
       <c r="M189" s="11"/>
       <c r="N189" s="21"/>
       <c r="O189" s="1"/>
@@ -36148,7 +36185,7 @@
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
-      <c r="L190" s="31"/>
+      <c r="L190" s="32"/>
       <c r="M190" s="11"/>
       <c r="N190" s="21"/>
       <c r="O190" s="1"/>
@@ -36175,7 +36212,7 @@
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
-      <c r="L191" s="31"/>
+      <c r="L191" s="32"/>
       <c r="M191" s="11"/>
       <c r="N191" s="21"/>
       <c r="O191" s="1"/>
@@ -36202,7 +36239,7 @@
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
-      <c r="L192" s="31"/>
+      <c r="L192" s="32"/>
       <c r="M192" s="11"/>
       <c r="N192" s="21"/>
       <c r="O192" s="1"/>
@@ -36229,7 +36266,7 @@
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
-      <c r="L193" s="31"/>
+      <c r="L193" s="32"/>
       <c r="M193" s="11"/>
       <c r="N193" s="21"/>
       <c r="O193" s="1"/>
@@ -36256,7 +36293,7 @@
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
-      <c r="L194" s="31"/>
+      <c r="L194" s="32"/>
       <c r="M194" s="11"/>
       <c r="N194" s="21"/>
       <c r="O194" s="1"/>
@@ -36283,7 +36320,7 @@
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
-      <c r="L195" s="31"/>
+      <c r="L195" s="32"/>
       <c r="M195" s="11"/>
       <c r="N195" s="21"/>
       <c r="O195" s="1"/>
@@ -36310,7 +36347,7 @@
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
-      <c r="L196" s="31"/>
+      <c r="L196" s="32"/>
       <c r="M196" s="11"/>
       <c r="N196" s="21"/>
       <c r="O196" s="1"/>
@@ -36337,7 +36374,7 @@
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
-      <c r="L197" s="31"/>
+      <c r="L197" s="32"/>
       <c r="M197" s="11"/>
       <c r="N197" s="21"/>
       <c r="O197" s="1"/>
@@ -36364,7 +36401,7 @@
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
-      <c r="L198" s="31"/>
+      <c r="L198" s="32"/>
       <c r="M198" s="11"/>
       <c r="N198" s="21"/>
       <c r="O198" s="1"/>
@@ -36391,7 +36428,7 @@
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
-      <c r="L199" s="31"/>
+      <c r="L199" s="32"/>
       <c r="M199" s="11"/>
       <c r="N199" s="21"/>
       <c r="O199" s="1"/>
@@ -36418,7 +36455,7 @@
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
-      <c r="L200" s="31"/>
+      <c r="L200" s="32"/>
       <c r="M200" s="11"/>
       <c r="N200" s="21"/>
       <c r="O200" s="1"/>
@@ -36445,7 +36482,7 @@
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
-      <c r="L201" s="31"/>
+      <c r="L201" s="32"/>
       <c r="M201" s="11"/>
       <c r="N201" s="21"/>
       <c r="O201" s="1"/>
@@ -36472,7 +36509,7 @@
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
-      <c r="L202" s="31"/>
+      <c r="L202" s="32"/>
       <c r="M202" s="11"/>
       <c r="N202" s="21"/>
       <c r="O202" s="1"/>
@@ -36499,7 +36536,7 @@
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
-      <c r="L203" s="31"/>
+      <c r="L203" s="32"/>
       <c r="M203" s="11"/>
       <c r="N203" s="21"/>
       <c r="O203" s="1"/>
@@ -36526,7 +36563,7 @@
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
-      <c r="L204" s="31"/>
+      <c r="L204" s="32"/>
       <c r="M204" s="11"/>
       <c r="N204" s="21"/>
       <c r="O204" s="1"/>
@@ -36553,7 +36590,7 @@
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
-      <c r="L205" s="31"/>
+      <c r="L205" s="32"/>
       <c r="M205" s="11"/>
       <c r="N205" s="21"/>
       <c r="O205" s="1"/>
@@ -36580,7 +36617,7 @@
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
-      <c r="L206" s="31"/>
+      <c r="L206" s="32"/>
       <c r="M206" s="11"/>
       <c r="N206" s="21"/>
       <c r="O206" s="1"/>
@@ -36607,7 +36644,7 @@
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
-      <c r="L207" s="31"/>
+      <c r="L207" s="32"/>
       <c r="M207" s="11"/>
       <c r="N207" s="21"/>
       <c r="O207" s="1"/>
@@ -36634,7 +36671,7 @@
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
-      <c r="L208" s="31"/>
+      <c r="L208" s="32"/>
       <c r="M208" s="11"/>
       <c r="N208" s="21"/>
       <c r="O208" s="1"/>
@@ -36661,7 +36698,7 @@
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
-      <c r="L209" s="31"/>
+      <c r="L209" s="32"/>
       <c r="M209" s="11"/>
       <c r="N209" s="21"/>
       <c r="O209" s="1"/>
@@ -36688,7 +36725,7 @@
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
-      <c r="L210" s="31"/>
+      <c r="L210" s="32"/>
       <c r="M210" s="11"/>
       <c r="N210" s="21"/>
       <c r="O210" s="1"/>
@@ -36715,7 +36752,7 @@
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
-      <c r="L211" s="31"/>
+      <c r="L211" s="32"/>
       <c r="M211" s="11"/>
       <c r="N211" s="21"/>
       <c r="O211" s="1"/>
@@ -36742,7 +36779,7 @@
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
-      <c r="L212" s="31"/>
+      <c r="L212" s="32"/>
       <c r="M212" s="11"/>
       <c r="N212" s="21"/>
       <c r="O212" s="1"/>
@@ -36769,7 +36806,7 @@
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
-      <c r="L213" s="31"/>
+      <c r="L213" s="32"/>
       <c r="M213" s="11"/>
       <c r="N213" s="21"/>
       <c r="O213" s="1"/>
@@ -36796,7 +36833,7 @@
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
-      <c r="L214" s="31"/>
+      <c r="L214" s="32"/>
       <c r="M214" s="11"/>
       <c r="N214" s="21"/>
       <c r="O214" s="1"/>
@@ -36823,7 +36860,7 @@
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
-      <c r="L215" s="31"/>
+      <c r="L215" s="32"/>
       <c r="M215" s="11"/>
       <c r="N215" s="21"/>
       <c r="O215" s="1"/>
@@ -36850,7 +36887,7 @@
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
-      <c r="L216" s="31"/>
+      <c r="L216" s="32"/>
       <c r="M216" s="11"/>
       <c r="N216" s="21"/>
       <c r="O216" s="1"/>
@@ -36877,7 +36914,7 @@
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
-      <c r="L217" s="31"/>
+      <c r="L217" s="32"/>
       <c r="M217" s="11"/>
       <c r="N217" s="21"/>
       <c r="O217" s="1"/>
@@ -36904,7 +36941,7 @@
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
-      <c r="L218" s="31"/>
+      <c r="L218" s="32"/>
       <c r="M218" s="11"/>
       <c r="N218" s="21"/>
       <c r="O218" s="1"/>
@@ -36931,7 +36968,7 @@
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
-      <c r="L219" s="31"/>
+      <c r="L219" s="32"/>
       <c r="M219" s="11"/>
       <c r="N219" s="21"/>
       <c r="O219" s="1"/>
@@ -36958,7 +36995,7 @@
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
-      <c r="L220" s="31"/>
+      <c r="L220" s="32"/>
       <c r="M220" s="11"/>
       <c r="N220" s="21"/>
       <c r="O220" s="1"/>
@@ -36985,7 +37022,7 @@
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
-      <c r="L221" s="31"/>
+      <c r="L221" s="32"/>
       <c r="M221" s="11"/>
       <c r="N221" s="21"/>
       <c r="O221" s="1"/>
@@ -37012,7 +37049,7 @@
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
-      <c r="L222" s="31"/>
+      <c r="L222" s="32"/>
       <c r="M222" s="11"/>
       <c r="N222" s="21"/>
       <c r="O222" s="1"/>
@@ -37039,7 +37076,7 @@
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
-      <c r="L223" s="31"/>
+      <c r="L223" s="32"/>
       <c r="M223" s="11"/>
       <c r="N223" s="21"/>
       <c r="O223" s="1"/>
@@ -37066,7 +37103,7 @@
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
-      <c r="L224" s="31"/>
+      <c r="L224" s="32"/>
       <c r="M224" s="11"/>
       <c r="N224" s="21"/>
       <c r="O224" s="1"/>
@@ -37093,7 +37130,7 @@
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
-      <c r="L225" s="31"/>
+      <c r="L225" s="32"/>
       <c r="M225" s="11"/>
       <c r="N225" s="21"/>
       <c r="O225" s="1"/>
@@ -37120,7 +37157,7 @@
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
-      <c r="L226" s="31"/>
+      <c r="L226" s="32"/>
       <c r="M226" s="11"/>
       <c r="N226" s="21"/>
       <c r="O226" s="1"/>
@@ -37147,7 +37184,7 @@
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
-      <c r="L227" s="31"/>
+      <c r="L227" s="32"/>
       <c r="M227" s="11"/>
       <c r="N227" s="21"/>
       <c r="O227" s="1"/>
@@ -37174,7 +37211,7 @@
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
-      <c r="L228" s="31"/>
+      <c r="L228" s="32"/>
       <c r="M228" s="11"/>
       <c r="N228" s="21"/>
       <c r="O228" s="1"/>
@@ -37201,7 +37238,7 @@
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
-      <c r="L229" s="31"/>
+      <c r="L229" s="32"/>
       <c r="M229" s="11"/>
       <c r="N229" s="21"/>
       <c r="O229" s="1"/>
@@ -37228,7 +37265,7 @@
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
-      <c r="L230" s="31"/>
+      <c r="L230" s="32"/>
       <c r="M230" s="11"/>
       <c r="N230" s="21"/>
       <c r="O230" s="1"/>
@@ -37255,7 +37292,7 @@
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
-      <c r="L231" s="31"/>
+      <c r="L231" s="32"/>
       <c r="M231" s="11"/>
       <c r="N231" s="21"/>
       <c r="O231" s="1"/>
@@ -37282,7 +37319,7 @@
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
-      <c r="L232" s="31"/>
+      <c r="L232" s="32"/>
       <c r="M232" s="11"/>
       <c r="N232" s="21"/>
       <c r="O232" s="1"/>
@@ -37309,7 +37346,7 @@
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
-      <c r="L233" s="31"/>
+      <c r="L233" s="32"/>
       <c r="M233" s="11"/>
       <c r="N233" s="21"/>
       <c r="O233" s="1"/>
@@ -37336,7 +37373,7 @@
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
-      <c r="L234" s="31"/>
+      <c r="L234" s="32"/>
       <c r="M234" s="11"/>
       <c r="N234" s="21"/>
       <c r="O234" s="1"/>
@@ -37363,7 +37400,7 @@
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
-      <c r="L235" s="31"/>
+      <c r="L235" s="32"/>
       <c r="M235" s="11"/>
       <c r="N235" s="21"/>
       <c r="O235" s="1"/>
@@ -37390,7 +37427,7 @@
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
-      <c r="L236" s="31"/>
+      <c r="L236" s="32"/>
       <c r="M236" s="11"/>
       <c r="N236" s="21"/>
       <c r="O236" s="1"/>
@@ -37417,7 +37454,7 @@
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
-      <c r="L237" s="31"/>
+      <c r="L237" s="32"/>
       <c r="M237" s="11"/>
       <c r="N237" s="21"/>
       <c r="O237" s="1"/>
@@ -37444,7 +37481,7 @@
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
-      <c r="L238" s="31"/>
+      <c r="L238" s="32"/>
       <c r="M238" s="11"/>
       <c r="N238" s="21"/>
       <c r="O238" s="1"/>
@@ -37471,7 +37508,7 @@
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
-      <c r="L239" s="31"/>
+      <c r="L239" s="32"/>
       <c r="M239" s="11"/>
       <c r="N239" s="21"/>
       <c r="O239" s="1"/>
@@ -37498,7 +37535,7 @@
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
-      <c r="L240" s="31"/>
+      <c r="L240" s="32"/>
       <c r="M240" s="11"/>
       <c r="N240" s="21"/>
       <c r="O240" s="1"/>
@@ -37525,7 +37562,7 @@
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
-      <c r="L241" s="31"/>
+      <c r="L241" s="32"/>
       <c r="M241" s="11"/>
       <c r="N241" s="21"/>
       <c r="O241" s="1"/>
@@ -37552,7 +37589,7 @@
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
-      <c r="L242" s="31"/>
+      <c r="L242" s="32"/>
       <c r="M242" s="11"/>
       <c r="N242" s="21"/>
       <c r="O242" s="1"/>
@@ -37579,7 +37616,7 @@
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
-      <c r="L243" s="31"/>
+      <c r="L243" s="32"/>
       <c r="M243" s="11"/>
       <c r="N243" s="21"/>
       <c r="O243" s="1"/>
@@ -37606,7 +37643,7 @@
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
-      <c r="L244" s="31"/>
+      <c r="L244" s="32"/>
       <c r="M244" s="11"/>
       <c r="N244" s="21"/>
       <c r="O244" s="1"/>
@@ -37633,7 +37670,7 @@
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
-      <c r="L245" s="31"/>
+      <c r="L245" s="32"/>
       <c r="M245" s="11"/>
       <c r="N245" s="21"/>
       <c r="O245" s="1"/>
@@ -37660,7 +37697,7 @@
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
-      <c r="L246" s="31"/>
+      <c r="L246" s="32"/>
       <c r="M246" s="11"/>
       <c r="N246" s="21"/>
       <c r="O246" s="1"/>
@@ -37687,7 +37724,7 @@
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
-      <c r="L247" s="31"/>
+      <c r="L247" s="32"/>
       <c r="M247" s="11"/>
       <c r="N247" s="21"/>
       <c r="O247" s="1"/>
@@ -37714,7 +37751,7 @@
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
-      <c r="L248" s="31"/>
+      <c r="L248" s="32"/>
       <c r="M248" s="11"/>
       <c r="N248" s="21"/>
       <c r="O248" s="1"/>
@@ -37741,7 +37778,7 @@
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
-      <c r="L249" s="31"/>
+      <c r="L249" s="32"/>
       <c r="M249" s="11"/>
       <c r="N249" s="21"/>
       <c r="O249" s="1"/>
@@ -37768,7 +37805,7 @@
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
-      <c r="L250" s="31"/>
+      <c r="L250" s="32"/>
       <c r="M250" s="11"/>
       <c r="N250" s="21"/>
       <c r="O250" s="1"/>
@@ -37795,7 +37832,7 @@
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
-      <c r="L251" s="31"/>
+      <c r="L251" s="32"/>
       <c r="M251" s="11"/>
       <c r="N251" s="21"/>
       <c r="O251" s="1"/>
@@ -37822,7 +37859,7 @@
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
-      <c r="L252" s="31"/>
+      <c r="L252" s="32"/>
       <c r="M252" s="11"/>
       <c r="N252" s="21"/>
       <c r="O252" s="1"/>
@@ -37849,7 +37886,7 @@
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
-      <c r="L253" s="31"/>
+      <c r="L253" s="32"/>
       <c r="M253" s="11"/>
       <c r="N253" s="21"/>
       <c r="O253" s="1"/>
@@ -37876,7 +37913,7 @@
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
-      <c r="L254" s="31"/>
+      <c r="L254" s="32"/>
       <c r="M254" s="11"/>
       <c r="N254" s="21"/>
       <c r="O254" s="1"/>
@@ -37903,7 +37940,7 @@
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
-      <c r="L255" s="31"/>
+      <c r="L255" s="32"/>
       <c r="M255" s="11"/>
       <c r="N255" s="21"/>
       <c r="O255" s="1"/>
@@ -37930,7 +37967,7 @@
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
-      <c r="L256" s="31"/>
+      <c r="L256" s="32"/>
       <c r="M256" s="11"/>
       <c r="N256" s="21"/>
       <c r="O256" s="1"/>
@@ -37957,7 +37994,7 @@
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
-      <c r="L257" s="31"/>
+      <c r="L257" s="32"/>
       <c r="M257" s="11"/>
       <c r="N257" s="21"/>
       <c r="O257" s="1"/>
@@ -37984,7 +38021,7 @@
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
-      <c r="L258" s="31"/>
+      <c r="L258" s="32"/>
       <c r="M258" s="11"/>
       <c r="N258" s="21"/>
       <c r="O258" s="1"/>
@@ -38011,7 +38048,7 @@
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
-      <c r="L259" s="31"/>
+      <c r="L259" s="32"/>
       <c r="M259" s="11"/>
       <c r="N259" s="21"/>
       <c r="O259" s="1"/>
@@ -38038,7 +38075,7 @@
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
-      <c r="L260" s="31"/>
+      <c r="L260" s="32"/>
       <c r="M260" s="11"/>
       <c r="N260" s="21"/>
       <c r="O260" s="1"/>
@@ -38065,7 +38102,7 @@
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
-      <c r="L261" s="31"/>
+      <c r="L261" s="32"/>
       <c r="M261" s="11"/>
       <c r="N261" s="21"/>
       <c r="O261" s="1"/>
@@ -38092,7 +38129,7 @@
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
-      <c r="L262" s="31"/>
+      <c r="L262" s="32"/>
       <c r="M262" s="11"/>
       <c r="N262" s="21"/>
       <c r="O262" s="1"/>
@@ -38119,7 +38156,7 @@
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
-      <c r="L263" s="31"/>
+      <c r="L263" s="32"/>
       <c r="M263" s="11"/>
       <c r="N263" s="21"/>
       <c r="O263" s="1"/>
@@ -38146,7 +38183,7 @@
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
       <c r="K264" s="1"/>
-      <c r="L264" s="31"/>
+      <c r="L264" s="32"/>
       <c r="M264" s="11"/>
       <c r="N264" s="21"/>
       <c r="O264" s="1"/>
@@ -38173,7 +38210,7 @@
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
       <c r="K265" s="1"/>
-      <c r="L265" s="31"/>
+      <c r="L265" s="32"/>
       <c r="M265" s="11"/>
       <c r="N265" s="21"/>
       <c r="O265" s="1"/>
@@ -38200,7 +38237,7 @@
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
       <c r="K266" s="1"/>
-      <c r="L266" s="31"/>
+      <c r="L266" s="32"/>
       <c r="M266" s="11"/>
       <c r="N266" s="21"/>
       <c r="O266" s="1"/>
@@ -38227,7 +38264,7 @@
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
       <c r="K267" s="1"/>
-      <c r="L267" s="31"/>
+      <c r="L267" s="32"/>
       <c r="M267" s="11"/>
       <c r="N267" s="21"/>
       <c r="O267" s="1"/>
@@ -38254,7 +38291,7 @@
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
       <c r="K268" s="1"/>
-      <c r="L268" s="31"/>
+      <c r="L268" s="32"/>
       <c r="M268" s="11"/>
       <c r="N268" s="21"/>
       <c r="O268" s="1"/>
@@ -38281,7 +38318,7 @@
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
       <c r="K269" s="1"/>
-      <c r="L269" s="31"/>
+      <c r="L269" s="32"/>
       <c r="M269" s="11"/>
       <c r="N269" s="21"/>
       <c r="O269" s="1"/>
@@ -38308,7 +38345,7 @@
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
       <c r="K270" s="1"/>
-      <c r="L270" s="31"/>
+      <c r="L270" s="32"/>
       <c r="M270" s="11"/>
       <c r="N270" s="21"/>
       <c r="O270" s="1"/>
@@ -38335,7 +38372,7 @@
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
       <c r="K271" s="1"/>
-      <c r="L271" s="31"/>
+      <c r="L271" s="32"/>
       <c r="M271" s="11"/>
       <c r="N271" s="21"/>
       <c r="O271" s="1"/>
@@ -38362,7 +38399,7 @@
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
-      <c r="L272" s="31"/>
+      <c r="L272" s="32"/>
       <c r="M272" s="11"/>
       <c r="N272" s="21"/>
       <c r="O272" s="1"/>
@@ -38389,7 +38426,7 @@
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
-      <c r="L273" s="31"/>
+      <c r="L273" s="32"/>
       <c r="M273" s="11"/>
       <c r="N273" s="21"/>
       <c r="O273" s="1"/>
@@ -38416,7 +38453,7 @@
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
       <c r="K274" s="1"/>
-      <c r="L274" s="31"/>
+      <c r="L274" s="32"/>
       <c r="M274" s="11"/>
       <c r="N274" s="21"/>
       <c r="O274" s="1"/>
@@ -38443,7 +38480,7 @@
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
-      <c r="L275" s="31"/>
+      <c r="L275" s="32"/>
       <c r="M275" s="11"/>
       <c r="N275" s="21"/>
       <c r="O275" s="1"/>
@@ -38470,7 +38507,7 @@
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
       <c r="K276" s="1"/>
-      <c r="L276" s="31"/>
+      <c r="L276" s="32"/>
       <c r="M276" s="11"/>
       <c r="N276" s="21"/>
       <c r="O276" s="1"/>
@@ -38497,7 +38534,7 @@
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
       <c r="K277" s="1"/>
-      <c r="L277" s="31"/>
+      <c r="L277" s="32"/>
       <c r="M277" s="11"/>
       <c r="N277" s="21"/>
       <c r="O277" s="1"/>
@@ -38524,7 +38561,7 @@
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
       <c r="K278" s="1"/>
-      <c r="L278" s="31"/>
+      <c r="L278" s="32"/>
       <c r="M278" s="11"/>
       <c r="N278" s="21"/>
       <c r="O278" s="1"/>
@@ -38551,7 +38588,7 @@
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
       <c r="K279" s="1"/>
-      <c r="L279" s="31"/>
+      <c r="L279" s="32"/>
       <c r="M279" s="11"/>
       <c r="N279" s="21"/>
       <c r="O279" s="1"/>
@@ -38578,7 +38615,7 @@
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
       <c r="K280" s="1"/>
-      <c r="L280" s="31"/>
+      <c r="L280" s="32"/>
       <c r="M280" s="11"/>
       <c r="N280" s="21"/>
       <c r="O280" s="1"/>
@@ -38605,7 +38642,7 @@
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
       <c r="K281" s="1"/>
-      <c r="L281" s="31"/>
+      <c r="L281" s="32"/>
       <c r="M281" s="11"/>
       <c r="N281" s="21"/>
       <c r="O281" s="1"/>
@@ -38632,7 +38669,7 @@
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
       <c r="K282" s="1"/>
-      <c r="L282" s="31"/>
+      <c r="L282" s="32"/>
       <c r="M282" s="11"/>
       <c r="N282" s="21"/>
       <c r="O282" s="1"/>
@@ -38659,7 +38696,7 @@
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
       <c r="K283" s="1"/>
-      <c r="L283" s="31"/>
+      <c r="L283" s="32"/>
       <c r="M283" s="11"/>
       <c r="N283" s="21"/>
       <c r="O283" s="1"/>
@@ -38686,7 +38723,7 @@
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
       <c r="K284" s="1"/>
-      <c r="L284" s="31"/>
+      <c r="L284" s="32"/>
       <c r="M284" s="11"/>
       <c r="N284" s="21"/>
       <c r="O284" s="1"/>
@@ -38713,7 +38750,7 @@
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
-      <c r="L285" s="31"/>
+      <c r="L285" s="32"/>
       <c r="M285" s="11"/>
       <c r="N285" s="21"/>
       <c r="O285" s="1"/>
@@ -38740,7 +38777,7 @@
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
       <c r="K286" s="1"/>
-      <c r="L286" s="31"/>
+      <c r="L286" s="32"/>
       <c r="M286" s="11"/>
       <c r="N286" s="21"/>
       <c r="O286" s="1"/>
@@ -38767,7 +38804,7 @@
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
       <c r="K287" s="1"/>
-      <c r="L287" s="31"/>
+      <c r="L287" s="32"/>
       <c r="M287" s="11"/>
       <c r="N287" s="21"/>
       <c r="O287" s="1"/>
@@ -38794,7 +38831,7 @@
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
       <c r="K288" s="1"/>
-      <c r="L288" s="31"/>
+      <c r="L288" s="32"/>
       <c r="M288" s="11"/>
       <c r="N288" s="21"/>
       <c r="O288" s="1"/>
@@ -38821,7 +38858,7 @@
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
       <c r="K289" s="1"/>
-      <c r="L289" s="31"/>
+      <c r="L289" s="32"/>
       <c r="M289" s="11"/>
       <c r="N289" s="21"/>
       <c r="O289" s="1"/>
@@ -38848,7 +38885,7 @@
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
       <c r="K290" s="1"/>
-      <c r="L290" s="31"/>
+      <c r="L290" s="32"/>
       <c r="M290" s="11"/>
       <c r="N290" s="21"/>
       <c r="O290" s="1"/>
@@ -38875,7 +38912,7 @@
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
       <c r="K291" s="1"/>
-      <c r="L291" s="31"/>
+      <c r="L291" s="32"/>
       <c r="M291" s="11"/>
       <c r="N291" s="21"/>
       <c r="O291" s="1"/>
@@ -38902,7 +38939,7 @@
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
       <c r="K292" s="1"/>
-      <c r="L292" s="31"/>
+      <c r="L292" s="32"/>
       <c r="M292" s="11"/>
       <c r="N292" s="21"/>
       <c r="O292" s="1"/>
@@ -38929,7 +38966,7 @@
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
       <c r="K293" s="1"/>
-      <c r="L293" s="31"/>
+      <c r="L293" s="32"/>
       <c r="M293" s="11"/>
       <c r="N293" s="21"/>
       <c r="O293" s="1"/>
@@ -38956,7 +38993,7 @@
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
       <c r="K294" s="1"/>
-      <c r="L294" s="31"/>
+      <c r="L294" s="32"/>
       <c r="M294" s="11"/>
       <c r="N294" s="21"/>
       <c r="O294" s="1"/>
@@ -38983,7 +39020,7 @@
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
-      <c r="L295" s="31"/>
+      <c r="L295" s="32"/>
       <c r="M295" s="11"/>
       <c r="N295" s="21"/>
       <c r="O295" s="1"/>
@@ -39010,7 +39047,7 @@
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
       <c r="K296" s="1"/>
-      <c r="L296" s="31"/>
+      <c r="L296" s="32"/>
       <c r="M296" s="11"/>
       <c r="N296" s="21"/>
       <c r="O296" s="1"/>
@@ -39037,7 +39074,7 @@
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
-      <c r="L297" s="31"/>
+      <c r="L297" s="32"/>
       <c r="M297" s="11"/>
       <c r="N297" s="21"/>
       <c r="O297" s="1"/>
@@ -39064,7 +39101,7 @@
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
-      <c r="L298" s="31"/>
+      <c r="L298" s="32"/>
       <c r="M298" s="11"/>
       <c r="N298" s="21"/>
       <c r="O298" s="1"/>
@@ -39091,7 +39128,7 @@
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
       <c r="K299" s="1"/>
-      <c r="L299" s="31"/>
+      <c r="L299" s="32"/>
       <c r="M299" s="11"/>
       <c r="N299" s="21"/>
       <c r="O299" s="1"/>
@@ -39118,7 +39155,7 @@
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
       <c r="K300" s="1"/>
-      <c r="L300" s="31"/>
+      <c r="L300" s="32"/>
       <c r="M300" s="11"/>
       <c r="N300" s="21"/>
       <c r="O300" s="1"/>
@@ -39145,7 +39182,7 @@
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
       <c r="K301" s="1"/>
-      <c r="L301" s="31"/>
+      <c r="L301" s="32"/>
       <c r="M301" s="11"/>
       <c r="N301" s="21"/>
       <c r="O301" s="1"/>
@@ -39172,7 +39209,7 @@
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
       <c r="K302" s="1"/>
-      <c r="L302" s="31"/>
+      <c r="L302" s="32"/>
       <c r="M302" s="11"/>
       <c r="N302" s="21"/>
       <c r="O302" s="1"/>
@@ -39199,7 +39236,7 @@
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
       <c r="K303" s="1"/>
-      <c r="L303" s="31"/>
+      <c r="L303" s="32"/>
       <c r="M303" s="11"/>
       <c r="N303" s="21"/>
       <c r="O303" s="1"/>
@@ -39226,7 +39263,7 @@
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
       <c r="K304" s="1"/>
-      <c r="L304" s="31"/>
+      <c r="L304" s="32"/>
       <c r="M304" s="11"/>
       <c r="N304" s="21"/>
       <c r="O304" s="1"/>
@@ -39253,7 +39290,7 @@
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
       <c r="K305" s="1"/>
-      <c r="L305" s="31"/>
+      <c r="L305" s="32"/>
       <c r="M305" s="11"/>
       <c r="N305" s="21"/>
       <c r="O305" s="1"/>
@@ -39280,7 +39317,7 @@
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
-      <c r="L306" s="31"/>
+      <c r="L306" s="32"/>
       <c r="M306" s="11"/>
       <c r="N306" s="21"/>
       <c r="O306" s="1"/>
@@ -39307,7 +39344,7 @@
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
       <c r="K307" s="1"/>
-      <c r="L307" s="31"/>
+      <c r="L307" s="32"/>
       <c r="M307" s="11"/>
       <c r="N307" s="21"/>
       <c r="O307" s="1"/>
@@ -39334,7 +39371,7 @@
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
-      <c r="L308" s="31"/>
+      <c r="L308" s="32"/>
       <c r="M308" s="11"/>
       <c r="N308" s="21"/>
       <c r="O308" s="1"/>
@@ -39361,7 +39398,7 @@
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
       <c r="K309" s="1"/>
-      <c r="L309" s="31"/>
+      <c r="L309" s="32"/>
       <c r="M309" s="11"/>
       <c r="N309" s="21"/>
       <c r="O309" s="1"/>
@@ -39388,7 +39425,7 @@
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
       <c r="K310" s="1"/>
-      <c r="L310" s="31"/>
+      <c r="L310" s="32"/>
       <c r="M310" s="11"/>
       <c r="N310" s="21"/>
       <c r="O310" s="1"/>
@@ -39415,7 +39452,7 @@
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
       <c r="K311" s="1"/>
-      <c r="L311" s="31"/>
+      <c r="L311" s="32"/>
       <c r="M311" s="11"/>
       <c r="N311" s="21"/>
       <c r="O311" s="1"/>
@@ -39442,7 +39479,7 @@
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
       <c r="K312" s="1"/>
-      <c r="L312" s="31"/>
+      <c r="L312" s="32"/>
       <c r="M312" s="11"/>
       <c r="N312" s="21"/>
       <c r="O312" s="1"/>
@@ -39469,7 +39506,7 @@
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
       <c r="K313" s="1"/>
-      <c r="L313" s="31"/>
+      <c r="L313" s="32"/>
       <c r="M313" s="11"/>
       <c r="N313" s="21"/>
       <c r="O313" s="1"/>
@@ -39496,7 +39533,7 @@
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
       <c r="K314" s="1"/>
-      <c r="L314" s="31"/>
+      <c r="L314" s="32"/>
       <c r="M314" s="11"/>
       <c r="N314" s="21"/>
       <c r="O314" s="1"/>
@@ -39523,7 +39560,7 @@
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
       <c r="K315" s="1"/>
-      <c r="L315" s="31"/>
+      <c r="L315" s="32"/>
       <c r="M315" s="11"/>
       <c r="N315" s="21"/>
       <c r="O315" s="1"/>
@@ -39550,7 +39587,7 @@
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
       <c r="K316" s="1"/>
-      <c r="L316" s="31"/>
+      <c r="L316" s="32"/>
       <c r="M316" s="11"/>
       <c r="N316" s="21"/>
       <c r="O316" s="1"/>
@@ -39577,7 +39614,7 @@
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
       <c r="K317" s="1"/>
-      <c r="L317" s="31"/>
+      <c r="L317" s="32"/>
       <c r="M317" s="11"/>
       <c r="N317" s="21"/>
       <c r="O317" s="1"/>
@@ -39604,7 +39641,7 @@
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
       <c r="K318" s="1"/>
-      <c r="L318" s="31"/>
+      <c r="L318" s="32"/>
       <c r="M318" s="11"/>
       <c r="N318" s="21"/>
       <c r="O318" s="1"/>
@@ -39631,7 +39668,7 @@
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
       <c r="K319" s="1"/>
-      <c r="L319" s="31"/>
+      <c r="L319" s="32"/>
       <c r="M319" s="11"/>
       <c r="N319" s="21"/>
       <c r="O319" s="1"/>
@@ -39658,7 +39695,7 @@
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
       <c r="K320" s="1"/>
-      <c r="L320" s="31"/>
+      <c r="L320" s="32"/>
       <c r="M320" s="11"/>
       <c r="N320" s="21"/>
       <c r="O320" s="1"/>
@@ -39685,7 +39722,7 @@
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
-      <c r="L321" s="31"/>
+      <c r="L321" s="32"/>
       <c r="M321" s="11"/>
       <c r="N321" s="21"/>
       <c r="O321" s="1"/>
@@ -39712,7 +39749,7 @@
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
       <c r="K322" s="1"/>
-      <c r="L322" s="31"/>
+      <c r="L322" s="32"/>
       <c r="M322" s="11"/>
       <c r="N322" s="21"/>
       <c r="O322" s="1"/>
@@ -39739,7 +39776,7 @@
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
-      <c r="L323" s="31"/>
+      <c r="L323" s="32"/>
       <c r="M323" s="11"/>
       <c r="N323" s="21"/>
       <c r="O323" s="1"/>
@@ -39766,7 +39803,7 @@
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
-      <c r="L324" s="31"/>
+      <c r="L324" s="32"/>
       <c r="M324" s="11"/>
       <c r="N324" s="21"/>
       <c r="O324" s="1"/>
@@ -39793,7 +39830,7 @@
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
-      <c r="L325" s="31"/>
+      <c r="L325" s="32"/>
       <c r="M325" s="11"/>
       <c r="N325" s="21"/>
       <c r="O325" s="1"/>
@@ -39820,7 +39857,7 @@
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
       <c r="K326" s="1"/>
-      <c r="L326" s="31"/>
+      <c r="L326" s="32"/>
       <c r="M326" s="11"/>
       <c r="N326" s="21"/>
       <c r="O326" s="1"/>
@@ -39847,7 +39884,7 @@
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
-      <c r="L327" s="31"/>
+      <c r="L327" s="32"/>
       <c r="M327" s="11"/>
       <c r="N327" s="21"/>
       <c r="O327" s="1"/>
@@ -39874,7 +39911,7 @@
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
       <c r="K328" s="1"/>
-      <c r="L328" s="31"/>
+      <c r="L328" s="32"/>
       <c r="M328" s="11"/>
       <c r="N328" s="21"/>
       <c r="O328" s="1"/>
@@ -39901,7 +39938,7 @@
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
-      <c r="L329" s="31"/>
+      <c r="L329" s="32"/>
       <c r="M329" s="11"/>
       <c r="N329" s="21"/>
       <c r="O329" s="1"/>
@@ -39928,7 +39965,7 @@
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
       <c r="K330" s="1"/>
-      <c r="L330" s="31"/>
+      <c r="L330" s="32"/>
       <c r="M330" s="11"/>
       <c r="N330" s="21"/>
       <c r="O330" s="1"/>
@@ -39955,7 +39992,7 @@
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
-      <c r="L331" s="31"/>
+      <c r="L331" s="32"/>
       <c r="M331" s="11"/>
       <c r="N331" s="21"/>
       <c r="O331" s="1"/>
@@ -39982,7 +40019,7 @@
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
       <c r="K332" s="1"/>
-      <c r="L332" s="31"/>
+      <c r="L332" s="32"/>
       <c r="M332" s="11"/>
       <c r="N332" s="21"/>
       <c r="O332" s="1"/>
@@ -40009,7 +40046,7 @@
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
       <c r="K333" s="1"/>
-      <c r="L333" s="31"/>
+      <c r="L333" s="32"/>
       <c r="M333" s="11"/>
       <c r="N333" s="21"/>
       <c r="O333" s="1"/>
@@ -40036,7 +40073,7 @@
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
       <c r="K334" s="1"/>
-      <c r="L334" s="31"/>
+      <c r="L334" s="32"/>
       <c r="M334" s="11"/>
       <c r="N334" s="21"/>
       <c r="O334" s="1"/>
@@ -40063,7 +40100,7 @@
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
       <c r="K335" s="1"/>
-      <c r="L335" s="31"/>
+      <c r="L335" s="32"/>
       <c r="M335" s="11"/>
       <c r="N335" s="21"/>
       <c r="O335" s="1"/>
@@ -40090,7 +40127,7 @@
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
       <c r="K336" s="1"/>
-      <c r="L336" s="31"/>
+      <c r="L336" s="32"/>
       <c r="M336" s="11"/>
       <c r="N336" s="21"/>
       <c r="O336" s="1"/>
@@ -40117,7 +40154,7 @@
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
-      <c r="L337" s="31"/>
+      <c r="L337" s="32"/>
       <c r="M337" s="11"/>
       <c r="N337" s="21"/>
       <c r="O337" s="1"/>
@@ -40144,7 +40181,7 @@
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
       <c r="K338" s="1"/>
-      <c r="L338" s="31"/>
+      <c r="L338" s="32"/>
       <c r="M338" s="11"/>
       <c r="N338" s="21"/>
       <c r="O338" s="1"/>
@@ -40171,7 +40208,7 @@
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
-      <c r="L339" s="31"/>
+      <c r="L339" s="32"/>
       <c r="M339" s="11"/>
       <c r="N339" s="21"/>
       <c r="O339" s="1"/>
@@ -40198,7 +40235,7 @@
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
-      <c r="L340" s="31"/>
+      <c r="L340" s="32"/>
       <c r="M340" s="11"/>
       <c r="N340" s="21"/>
       <c r="O340" s="1"/>
@@ -40225,7 +40262,7 @@
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
-      <c r="L341" s="31"/>
+      <c r="L341" s="32"/>
       <c r="M341" s="11"/>
       <c r="N341" s="21"/>
       <c r="O341" s="1"/>
@@ -40252,7 +40289,7 @@
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
-      <c r="L342" s="31"/>
+      <c r="L342" s="32"/>
       <c r="M342" s="11"/>
       <c r="N342" s="21"/>
       <c r="O342" s="1"/>
@@ -40279,7 +40316,7 @@
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
-      <c r="L343" s="31"/>
+      <c r="L343" s="32"/>
       <c r="M343" s="11"/>
       <c r="N343" s="21"/>
       <c r="O343" s="1"/>
@@ -40306,7 +40343,7 @@
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
-      <c r="L344" s="31"/>
+      <c r="L344" s="32"/>
       <c r="M344" s="11"/>
       <c r="N344" s="21"/>
       <c r="O344" s="1"/>
@@ -40333,7 +40370,7 @@
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
-      <c r="L345" s="31"/>
+      <c r="L345" s="32"/>
       <c r="M345" s="11"/>
       <c r="N345" s="21"/>
       <c r="O345" s="1"/>
@@ -40360,7 +40397,7 @@
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
-      <c r="L346" s="31"/>
+      <c r="L346" s="32"/>
       <c r="M346" s="11"/>
       <c r="N346" s="21"/>
       <c r="O346" s="1"/>
@@ -40387,7 +40424,7 @@
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
-      <c r="L347" s="31"/>
+      <c r="L347" s="32"/>
       <c r="M347" s="11"/>
       <c r="N347" s="21"/>
       <c r="O347" s="1"/>
@@ -40414,7 +40451,7 @@
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
-      <c r="L348" s="31"/>
+      <c r="L348" s="32"/>
       <c r="M348" s="11"/>
       <c r="N348" s="21"/>
       <c r="O348" s="1"/>
@@ -40441,7 +40478,7 @@
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
       <c r="K349" s="1"/>
-      <c r="L349" s="31"/>
+      <c r="L349" s="32"/>
       <c r="M349" s="11"/>
       <c r="N349" s="21"/>
       <c r="O349" s="1"/>
@@ -40468,7 +40505,7 @@
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
       <c r="K350" s="1"/>
-      <c r="L350" s="31"/>
+      <c r="L350" s="32"/>
       <c r="M350" s="11"/>
       <c r="N350" s="21"/>
       <c r="O350" s="1"/>
@@ -40495,7 +40532,7 @@
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
       <c r="K351" s="1"/>
-      <c r="L351" s="31"/>
+      <c r="L351" s="32"/>
       <c r="M351" s="11"/>
       <c r="N351" s="21"/>
       <c r="O351" s="1"/>
@@ -40522,7 +40559,7 @@
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
       <c r="K352" s="1"/>
-      <c r="L352" s="31"/>
+      <c r="L352" s="32"/>
       <c r="M352" s="11"/>
       <c r="N352" s="21"/>
       <c r="O352" s="1"/>
@@ -40549,7 +40586,7 @@
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
       <c r="K353" s="1"/>
-      <c r="L353" s="31"/>
+      <c r="L353" s="32"/>
       <c r="M353" s="11"/>
       <c r="N353" s="21"/>
       <c r="O353" s="1"/>
@@ -40576,7 +40613,7 @@
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
       <c r="K354" s="1"/>
-      <c r="L354" s="31"/>
+      <c r="L354" s="32"/>
       <c r="M354" s="11"/>
       <c r="N354" s="21"/>
       <c r="O354" s="1"/>
@@ -40603,7 +40640,7 @@
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
       <c r="K355" s="1"/>
-      <c r="L355" s="31"/>
+      <c r="L355" s="32"/>
       <c r="M355" s="11"/>
       <c r="N355" s="21"/>
       <c r="O355" s="1"/>
@@ -40630,7 +40667,7 @@
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
       <c r="K356" s="1"/>
-      <c r="L356" s="31"/>
+      <c r="L356" s="32"/>
       <c r="M356" s="11"/>
       <c r="N356" s="21"/>
       <c r="O356" s="1"/>
@@ -40657,7 +40694,7 @@
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
       <c r="K357" s="1"/>
-      <c r="L357" s="31"/>
+      <c r="L357" s="32"/>
       <c r="M357" s="11"/>
       <c r="N357" s="21"/>
       <c r="O357" s="1"/>
@@ -40684,7 +40721,7 @@
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
       <c r="K358" s="1"/>
-      <c r="L358" s="31"/>
+      <c r="L358" s="32"/>
       <c r="M358" s="11"/>
       <c r="N358" s="21"/>
       <c r="O358" s="1"/>
@@ -40711,7 +40748,7 @@
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
       <c r="K359" s="1"/>
-      <c r="L359" s="31"/>
+      <c r="L359" s="32"/>
       <c r="M359" s="11"/>
       <c r="N359" s="21"/>
       <c r="O359" s="1"/>
@@ -40738,7 +40775,7 @@
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
       <c r="K360" s="1"/>
-      <c r="L360" s="31"/>
+      <c r="L360" s="32"/>
       <c r="M360" s="11"/>
       <c r="N360" s="21"/>
       <c r="O360" s="1"/>
@@ -40765,7 +40802,7 @@
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
       <c r="K361" s="1"/>
-      <c r="L361" s="31"/>
+      <c r="L361" s="32"/>
       <c r="M361" s="11"/>
       <c r="N361" s="21"/>
       <c r="O361" s="1"/>
@@ -40792,7 +40829,7 @@
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
       <c r="K362" s="1"/>
-      <c r="L362" s="31"/>
+      <c r="L362" s="32"/>
       <c r="M362" s="11"/>
       <c r="N362" s="21"/>
       <c r="O362" s="1"/>
@@ -40819,7 +40856,7 @@
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
       <c r="K363" s="1"/>
-      <c r="L363" s="31"/>
+      <c r="L363" s="32"/>
       <c r="M363" s="11"/>
       <c r="N363" s="21"/>
       <c r="O363" s="1"/>
@@ -40846,7 +40883,7 @@
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
       <c r="K364" s="1"/>
-      <c r="L364" s="31"/>
+      <c r="L364" s="32"/>
       <c r="M364" s="11"/>
       <c r="N364" s="21"/>
       <c r="O364" s="1"/>
@@ -40873,7 +40910,7 @@
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
       <c r="K365" s="1"/>
-      <c r="L365" s="31"/>
+      <c r="L365" s="32"/>
       <c r="M365" s="11"/>
       <c r="N365" s="21"/>
       <c r="O365" s="1"/>
@@ -40900,7 +40937,7 @@
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
       <c r="K366" s="1"/>
-      <c r="L366" s="31"/>
+      <c r="L366" s="32"/>
       <c r="M366" s="11"/>
       <c r="N366" s="21"/>
       <c r="O366" s="1"/>
@@ -40927,7 +40964,7 @@
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
       <c r="K367" s="1"/>
-      <c r="L367" s="31"/>
+      <c r="L367" s="32"/>
       <c r="M367" s="11"/>
       <c r="N367" s="21"/>
       <c r="O367" s="1"/>
@@ -40954,7 +40991,7 @@
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
       <c r="K368" s="1"/>
-      <c r="L368" s="31"/>
+      <c r="L368" s="32"/>
       <c r="M368" s="11"/>
       <c r="N368" s="21"/>
       <c r="O368" s="1"/>
@@ -40981,7 +41018,7 @@
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
       <c r="K369" s="1"/>
-      <c r="L369" s="31"/>
+      <c r="L369" s="32"/>
       <c r="M369" s="11"/>
       <c r="N369" s="21"/>
       <c r="O369" s="1"/>
@@ -41008,7 +41045,7 @@
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
       <c r="K370" s="1"/>
-      <c r="L370" s="31"/>
+      <c r="L370" s="32"/>
       <c r="M370" s="11"/>
       <c r="N370" s="21"/>
       <c r="O370" s="1"/>
@@ -41035,7 +41072,7 @@
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
       <c r="K371" s="1"/>
-      <c r="L371" s="31"/>
+      <c r="L371" s="32"/>
       <c r="M371" s="11"/>
       <c r="N371" s="21"/>
       <c r="O371" s="1"/>
@@ -41062,7 +41099,7 @@
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
       <c r="K372" s="1"/>
-      <c r="L372" s="31"/>
+      <c r="L372" s="32"/>
       <c r="M372" s="11"/>
       <c r="N372" s="21"/>
       <c r="O372" s="1"/>
@@ -41089,7 +41126,7 @@
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
       <c r="K373" s="1"/>
-      <c r="L373" s="31"/>
+      <c r="L373" s="32"/>
       <c r="M373" s="11"/>
       <c r="N373" s="21"/>
       <c r="O373" s="1"/>
@@ -41116,7 +41153,7 @@
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
       <c r="K374" s="1"/>
-      <c r="L374" s="31"/>
+      <c r="L374" s="32"/>
       <c r="M374" s="11"/>
       <c r="N374" s="21"/>
       <c r="O374" s="1"/>
@@ -41143,7 +41180,7 @@
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
       <c r="K375" s="1"/>
-      <c r="L375" s="31"/>
+      <c r="L375" s="32"/>
       <c r="M375" s="11"/>
       <c r="N375" s="21"/>
       <c r="O375" s="1"/>
@@ -41170,7 +41207,7 @@
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
       <c r="K376" s="1"/>
-      <c r="L376" s="31"/>
+      <c r="L376" s="32"/>
       <c r="M376" s="11"/>
       <c r="N376" s="21"/>
       <c r="O376" s="1"/>
@@ -41197,7 +41234,7 @@
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
       <c r="K377" s="1"/>
-      <c r="L377" s="31"/>
+      <c r="L377" s="32"/>
       <c r="M377" s="11"/>
       <c r="N377" s="21"/>
       <c r="O377" s="1"/>
@@ -41224,7 +41261,7 @@
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
       <c r="K378" s="1"/>
-      <c r="L378" s="31"/>
+      <c r="L378" s="32"/>
       <c r="M378" s="11"/>
       <c r="N378" s="21"/>
       <c r="O378" s="1"/>
@@ -41251,7 +41288,7 @@
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
       <c r="K379" s="1"/>
-      <c r="L379" s="31"/>
+      <c r="L379" s="32"/>
       <c r="M379" s="11"/>
       <c r="N379" s="21"/>
       <c r="O379" s="1"/>
@@ -41278,7 +41315,7 @@
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
       <c r="K380" s="1"/>
-      <c r="L380" s="31"/>
+      <c r="L380" s="32"/>
       <c r="M380" s="11"/>
       <c r="N380" s="21"/>
       <c r="O380" s="1"/>
@@ -41305,7 +41342,7 @@
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
       <c r="K381" s="1"/>
-      <c r="L381" s="31"/>
+      <c r="L381" s="32"/>
       <c r="M381" s="11"/>
       <c r="N381" s="21"/>
       <c r="O381" s="1"/>
@@ -41332,7 +41369,7 @@
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
       <c r="K382" s="1"/>
-      <c r="L382" s="31"/>
+      <c r="L382" s="32"/>
       <c r="M382" s="11"/>
       <c r="N382" s="21"/>
       <c r="O382" s="1"/>
@@ -41359,7 +41396,7 @@
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
       <c r="K383" s="1"/>
-      <c r="L383" s="31"/>
+      <c r="L383" s="32"/>
       <c r="M383" s="11"/>
       <c r="N383" s="21"/>
       <c r="O383" s="1"/>
@@ -41386,7 +41423,7 @@
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
       <c r="K384" s="1"/>
-      <c r="L384" s="31"/>
+      <c r="L384" s="32"/>
       <c r="M384" s="11"/>
       <c r="N384" s="21"/>
       <c r="O384" s="1"/>
@@ -41413,7 +41450,7 @@
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
       <c r="K385" s="1"/>
-      <c r="L385" s="31"/>
+      <c r="L385" s="32"/>
       <c r="M385" s="11"/>
       <c r="N385" s="21"/>
       <c r="O385" s="1"/>
@@ -41440,7 +41477,7 @@
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
       <c r="K386" s="1"/>
-      <c r="L386" s="31"/>
+      <c r="L386" s="32"/>
       <c r="M386" s="11"/>
       <c r="N386" s="21"/>
       <c r="O386" s="1"/>
@@ -41467,7 +41504,7 @@
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
       <c r="K387" s="1"/>
-      <c r="L387" s="31"/>
+      <c r="L387" s="32"/>
       <c r="M387" s="11"/>
       <c r="N387" s="21"/>
       <c r="O387" s="1"/>
@@ -41494,7 +41531,7 @@
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
       <c r="K388" s="1"/>
-      <c r="L388" s="31"/>
+      <c r="L388" s="32"/>
       <c r="M388" s="11"/>
       <c r="N388" s="21"/>
       <c r="O388" s="1"/>
@@ -41521,7 +41558,7 @@
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
       <c r="K389" s="1"/>
-      <c r="L389" s="31"/>
+      <c r="L389" s="32"/>
       <c r="M389" s="11"/>
       <c r="N389" s="21"/>
       <c r="O389" s="1"/>
@@ -41548,7 +41585,7 @@
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
       <c r="K390" s="1"/>
-      <c r="L390" s="31"/>
+      <c r="L390" s="32"/>
       <c r="M390" s="11"/>
       <c r="N390" s="21"/>
       <c r="O390" s="1"/>
@@ -41575,7 +41612,7 @@
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
       <c r="K391" s="1"/>
-      <c r="L391" s="31"/>
+      <c r="L391" s="32"/>
       <c r="M391" s="11"/>
       <c r="N391" s="21"/>
       <c r="O391" s="1"/>
@@ -41602,7 +41639,7 @@
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
       <c r="K392" s="1"/>
-      <c r="L392" s="31"/>
+      <c r="L392" s="32"/>
       <c r="M392" s="11"/>
       <c r="N392" s="21"/>
       <c r="O392" s="1"/>
@@ -41629,7 +41666,7 @@
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
       <c r="K393" s="1"/>
-      <c r="L393" s="31"/>
+      <c r="L393" s="32"/>
       <c r="M393" s="11"/>
       <c r="N393" s="21"/>
       <c r="O393" s="1"/>
@@ -41656,7 +41693,7 @@
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
       <c r="K394" s="1"/>
-      <c r="L394" s="31"/>
+      <c r="L394" s="32"/>
       <c r="M394" s="11"/>
       <c r="N394" s="21"/>
       <c r="O394" s="1"/>
@@ -41683,7 +41720,7 @@
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
       <c r="K395" s="1"/>
-      <c r="L395" s="31"/>
+      <c r="L395" s="32"/>
       <c r="M395" s="11"/>
       <c r="N395" s="21"/>
       <c r="O395" s="1"/>
@@ -41710,7 +41747,7 @@
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
       <c r="K396" s="1"/>
-      <c r="L396" s="31"/>
+      <c r="L396" s="32"/>
       <c r="M396" s="11"/>
       <c r="N396" s="21"/>
       <c r="O396" s="1"/>
@@ -41737,7 +41774,7 @@
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
       <c r="K397" s="1"/>
-      <c r="L397" s="31"/>
+      <c r="L397" s="32"/>
       <c r="M397" s="11"/>
       <c r="N397" s="21"/>
       <c r="O397" s="1"/>
@@ -41764,7 +41801,7 @@
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
       <c r="K398" s="1"/>
-      <c r="L398" s="31"/>
+      <c r="L398" s="32"/>
       <c r="M398" s="11"/>
       <c r="N398" s="21"/>
       <c r="O398" s="1"/>
@@ -41791,7 +41828,7 @@
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
       <c r="K399" s="1"/>
-      <c r="L399" s="31"/>
+      <c r="L399" s="32"/>
       <c r="M399" s="11"/>
       <c r="N399" s="21"/>
       <c r="O399" s="1"/>
@@ -41818,7 +41855,7 @@
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
       <c r="K400" s="1"/>
-      <c r="L400" s="31"/>
+      <c r="L400" s="32"/>
       <c r="M400" s="11"/>
       <c r="N400" s="21"/>
       <c r="O400" s="1"/>
@@ -41845,7 +41882,7 @@
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
       <c r="K401" s="1"/>
-      <c r="L401" s="31"/>
+      <c r="L401" s="32"/>
       <c r="M401" s="11"/>
       <c r="N401" s="21"/>
       <c r="O401" s="1"/>
@@ -41872,7 +41909,7 @@
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
       <c r="K402" s="1"/>
-      <c r="L402" s="31"/>
+      <c r="L402" s="32"/>
       <c r="M402" s="11"/>
       <c r="N402" s="21"/>
       <c r="O402" s="1"/>
@@ -41899,7 +41936,7 @@
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
       <c r="K403" s="1"/>
-      <c r="L403" s="31"/>
+      <c r="L403" s="32"/>
       <c r="M403" s="11"/>
       <c r="N403" s="21"/>
       <c r="O403" s="1"/>
@@ -41926,7 +41963,7 @@
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
       <c r="K404" s="1"/>
-      <c r="L404" s="31"/>
+      <c r="L404" s="32"/>
       <c r="M404" s="11"/>
       <c r="N404" s="21"/>
       <c r="O404" s="1"/>
@@ -41953,7 +41990,7 @@
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
       <c r="K405" s="1"/>
-      <c r="L405" s="31"/>
+      <c r="L405" s="32"/>
       <c r="M405" s="11"/>
       <c r="N405" s="21"/>
       <c r="O405" s="1"/>
@@ -41980,7 +42017,7 @@
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
       <c r="K406" s="1"/>
-      <c r="L406" s="31"/>
+      <c r="L406" s="32"/>
       <c r="M406" s="11"/>
       <c r="N406" s="21"/>
       <c r="O406" s="1"/>
@@ -42007,7 +42044,7 @@
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
       <c r="K407" s="1"/>
-      <c r="L407" s="31"/>
+      <c r="L407" s="32"/>
       <c r="M407" s="11"/>
       <c r="N407" s="21"/>
       <c r="O407" s="1"/>
@@ -42034,7 +42071,7 @@
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
       <c r="K408" s="1"/>
-      <c r="L408" s="31"/>
+      <c r="L408" s="32"/>
       <c r="M408" s="11"/>
       <c r="N408" s="21"/>
       <c r="O408" s="1"/>
@@ -42061,7 +42098,7 @@
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
       <c r="K409" s="1"/>
-      <c r="L409" s="31"/>
+      <c r="L409" s="32"/>
       <c r="M409" s="11"/>
       <c r="N409" s="21"/>
       <c r="O409" s="1"/>
@@ -42088,7 +42125,7 @@
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
       <c r="K410" s="1"/>
-      <c r="L410" s="31"/>
+      <c r="L410" s="32"/>
       <c r="M410" s="11"/>
       <c r="N410" s="21"/>
       <c r="O410" s="1"/>
@@ -42115,7 +42152,7 @@
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
       <c r="K411" s="1"/>
-      <c r="L411" s="31"/>
+      <c r="L411" s="32"/>
       <c r="M411" s="11"/>
       <c r="N411" s="21"/>
       <c r="O411" s="1"/>
@@ -42142,7 +42179,7 @@
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
       <c r="K412" s="1"/>
-      <c r="L412" s="31"/>
+      <c r="L412" s="32"/>
       <c r="M412" s="11"/>
       <c r="N412" s="21"/>
       <c r="O412" s="1"/>
@@ -42169,7 +42206,7 @@
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
       <c r="K413" s="1"/>
-      <c r="L413" s="31"/>
+      <c r="L413" s="32"/>
       <c r="M413" s="11"/>
       <c r="N413" s="21"/>
       <c r="O413" s="1"/>
@@ -42196,7 +42233,7 @@
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
       <c r="K414" s="1"/>
-      <c r="L414" s="31"/>
+      <c r="L414" s="32"/>
       <c r="M414" s="11"/>
       <c r="N414" s="21"/>
       <c r="O414" s="1"/>
@@ -42223,7 +42260,7 @@
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
       <c r="K415" s="1"/>
-      <c r="L415" s="31"/>
+      <c r="L415" s="32"/>
       <c r="M415" s="11"/>
       <c r="N415" s="21"/>
       <c r="O415" s="1"/>
@@ -42250,7 +42287,7 @@
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
       <c r="K416" s="1"/>
-      <c r="L416" s="31"/>
+      <c r="L416" s="32"/>
       <c r="M416" s="11"/>
       <c r="N416" s="21"/>
       <c r="O416" s="1"/>
@@ -42277,7 +42314,7 @@
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
       <c r="K417" s="1"/>
-      <c r="L417" s="31"/>
+      <c r="L417" s="32"/>
       <c r="M417" s="11"/>
       <c r="N417" s="21"/>
       <c r="O417" s="1"/>
@@ -42304,7 +42341,7 @@
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
       <c r="K418" s="1"/>
-      <c r="L418" s="31"/>
+      <c r="L418" s="32"/>
       <c r="M418" s="11"/>
       <c r="N418" s="21"/>
       <c r="O418" s="1"/>
@@ -42331,7 +42368,7 @@
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
       <c r="K419" s="1"/>
-      <c r="L419" s="31"/>
+      <c r="L419" s="32"/>
       <c r="M419" s="11"/>
       <c r="N419" s="21"/>
       <c r="O419" s="1"/>
@@ -42358,7 +42395,7 @@
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
       <c r="K420" s="1"/>
-      <c r="L420" s="31"/>
+      <c r="L420" s="32"/>
       <c r="M420" s="11"/>
       <c r="N420" s="21"/>
       <c r="O420" s="1"/>
@@ -42385,7 +42422,7 @@
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
       <c r="K421" s="1"/>
-      <c r="L421" s="31"/>
+      <c r="L421" s="32"/>
       <c r="M421" s="11"/>
       <c r="N421" s="21"/>
       <c r="O421" s="1"/>
@@ -42412,7 +42449,7 @@
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
       <c r="K422" s="1"/>
-      <c r="L422" s="31"/>
+      <c r="L422" s="32"/>
       <c r="M422" s="11"/>
       <c r="N422" s="21"/>
       <c r="O422" s="1"/>
@@ -42439,7 +42476,7 @@
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
       <c r="K423" s="1"/>
-      <c r="L423" s="31"/>
+      <c r="L423" s="32"/>
       <c r="M423" s="11"/>
       <c r="N423" s="21"/>
       <c r="O423" s="1"/>
@@ -42466,7 +42503,7 @@
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
       <c r="K424" s="1"/>
-      <c r="L424" s="31"/>
+      <c r="L424" s="32"/>
       <c r="M424" s="11"/>
       <c r="N424" s="21"/>
       <c r="O424" s="1"/>
@@ -42493,7 +42530,7 @@
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
       <c r="K425" s="1"/>
-      <c r="L425" s="31"/>
+      <c r="L425" s="32"/>
       <c r="M425" s="11"/>
       <c r="N425" s="21"/>
       <c r="O425" s="1"/>
@@ -42520,7 +42557,7 @@
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
       <c r="K426" s="1"/>
-      <c r="L426" s="31"/>
+      <c r="L426" s="32"/>
       <c r="M426" s="11"/>
       <c r="N426" s="21"/>
       <c r="O426" s="1"/>
@@ -42547,7 +42584,7 @@
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
       <c r="K427" s="1"/>
-      <c r="L427" s="31"/>
+      <c r="L427" s="32"/>
       <c r="M427" s="11"/>
       <c r="N427" s="21"/>
       <c r="O427" s="1"/>
@@ -42574,7 +42611,7 @@
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
       <c r="K428" s="1"/>
-      <c r="L428" s="31"/>
+      <c r="L428" s="32"/>
       <c r="M428" s="11"/>
       <c r="N428" s="21"/>
       <c r="O428" s="1"/>
@@ -42601,7 +42638,7 @@
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
       <c r="K429" s="1"/>
-      <c r="L429" s="31"/>
+      <c r="L429" s="32"/>
       <c r="M429" s="11"/>
       <c r="N429" s="21"/>
       <c r="O429" s="1"/>
@@ -42628,7 +42665,7 @@
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
-      <c r="L430" s="31"/>
+      <c r="L430" s="32"/>
       <c r="M430" s="11"/>
       <c r="N430" s="21"/>
       <c r="O430" s="1"/>
@@ -42655,7 +42692,7 @@
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
       <c r="K431" s="1"/>
-      <c r="L431" s="31"/>
+      <c r="L431" s="32"/>
       <c r="M431" s="11"/>
       <c r="N431" s="21"/>
       <c r="O431" s="1"/>
@@ -42682,7 +42719,7 @@
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
       <c r="K432" s="1"/>
-      <c r="L432" s="31"/>
+      <c r="L432" s="32"/>
       <c r="M432" s="11"/>
       <c r="N432" s="21"/>
       <c r="O432" s="1"/>
@@ -42709,7 +42746,7 @@
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
-      <c r="L433" s="31"/>
+      <c r="L433" s="32"/>
       <c r="M433" s="11"/>
       <c r="N433" s="21"/>
       <c r="O433" s="1"/>
@@ -42736,7 +42773,7 @@
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
-      <c r="L434" s="31"/>
+      <c r="L434" s="32"/>
       <c r="M434" s="11"/>
       <c r="N434" s="21"/>
       <c r="O434" s="1"/>
@@ -42763,7 +42800,7 @@
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
-      <c r="L435" s="31"/>
+      <c r="L435" s="32"/>
       <c r="M435" s="11"/>
       <c r="N435" s="21"/>
       <c r="O435" s="1"/>
@@ -42790,7 +42827,7 @@
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
-      <c r="L436" s="31"/>
+      <c r="L436" s="32"/>
       <c r="M436" s="11"/>
       <c r="N436" s="21"/>
       <c r="O436" s="1"/>
@@ -42817,7 +42854,7 @@
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
-      <c r="L437" s="31"/>
+      <c r="L437" s="32"/>
       <c r="M437" s="11"/>
       <c r="N437" s="21"/>
       <c r="O437" s="1"/>
@@ -42844,7 +42881,7 @@
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
-      <c r="L438" s="31"/>
+      <c r="L438" s="32"/>
       <c r="M438" s="11"/>
       <c r="N438" s="21"/>
       <c r="O438" s="1"/>
@@ -42871,7 +42908,7 @@
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
       <c r="K439" s="1"/>
-      <c r="L439" s="31"/>
+      <c r="L439" s="32"/>
       <c r="M439" s="11"/>
       <c r="N439" s="21"/>
       <c r="O439" s="1"/>
@@ -42898,7 +42935,7 @@
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
       <c r="K440" s="1"/>
-      <c r="L440" s="31"/>
+      <c r="L440" s="32"/>
       <c r="M440" s="11"/>
       <c r="N440" s="21"/>
       <c r="O440" s="1"/>
@@ -42925,7 +42962,7 @@
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
       <c r="K441" s="1"/>
-      <c r="L441" s="31"/>
+      <c r="L441" s="32"/>
       <c r="M441" s="11"/>
       <c r="N441" s="21"/>
       <c r="O441" s="1"/>
@@ -42952,7 +42989,7 @@
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
       <c r="K442" s="1"/>
-      <c r="L442" s="31"/>
+      <c r="L442" s="32"/>
       <c r="M442" s="11"/>
       <c r="N442" s="21"/>
       <c r="O442" s="1"/>
@@ -42979,7 +43016,7 @@
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
       <c r="K443" s="1"/>
-      <c r="L443" s="31"/>
+      <c r="L443" s="32"/>
       <c r="M443" s="11"/>
       <c r="N443" s="21"/>
       <c r="O443" s="1"/>
@@ -43006,7 +43043,7 @@
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
-      <c r="L444" s="31"/>
+      <c r="L444" s="32"/>
       <c r="M444" s="11"/>
       <c r="N444" s="21"/>
       <c r="O444" s="1"/>
@@ -43033,7 +43070,7 @@
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
-      <c r="L445" s="31"/>
+      <c r="L445" s="32"/>
       <c r="M445" s="11"/>
       <c r="N445" s="21"/>
       <c r="O445" s="1"/>
@@ -43060,7 +43097,7 @@
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
-      <c r="L446" s="31"/>
+      <c r="L446" s="32"/>
       <c r="M446" s="11"/>
       <c r="N446" s="21"/>
       <c r="O446" s="1"/>
@@ -43087,7 +43124,7 @@
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
       <c r="K447" s="1"/>
-      <c r="L447" s="31"/>
+      <c r="L447" s="32"/>
       <c r="M447" s="11"/>
       <c r="N447" s="21"/>
       <c r="O447" s="1"/>
@@ -43114,7 +43151,7 @@
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
       <c r="K448" s="1"/>
-      <c r="L448" s="31"/>
+      <c r="L448" s="32"/>
       <c r="M448" s="11"/>
       <c r="N448" s="21"/>
       <c r="O448" s="1"/>
@@ -43141,7 +43178,7 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
-      <c r="L449" s="31"/>
+      <c r="L449" s="32"/>
       <c r="M449" s="11"/>
       <c r="N449" s="21"/>
       <c r="O449" s="1"/>
@@ -43168,7 +43205,7 @@
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
-      <c r="L450" s="31"/>
+      <c r="L450" s="32"/>
       <c r="M450" s="11"/>
       <c r="N450" s="21"/>
       <c r="O450" s="1"/>
@@ -43195,7 +43232,7 @@
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
-      <c r="L451" s="31"/>
+      <c r="L451" s="32"/>
       <c r="M451" s="11"/>
       <c r="N451" s="21"/>
       <c r="O451" s="1"/>
@@ -43222,7 +43259,7 @@
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
-      <c r="L452" s="31"/>
+      <c r="L452" s="32"/>
       <c r="M452" s="11"/>
       <c r="N452" s="21"/>
       <c r="O452" s="1"/>
@@ -43249,7 +43286,7 @@
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
-      <c r="L453" s="31"/>
+      <c r="L453" s="32"/>
       <c r="M453" s="11"/>
       <c r="N453" s="21"/>
       <c r="O453" s="1"/>
@@ -43276,7 +43313,7 @@
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
       <c r="K454" s="1"/>
-      <c r="L454" s="31"/>
+      <c r="L454" s="32"/>
       <c r="M454" s="11"/>
       <c r="N454" s="21"/>
       <c r="O454" s="1"/>
@@ -43303,7 +43340,7 @@
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
       <c r="K455" s="1"/>
-      <c r="L455" s="31"/>
+      <c r="L455" s="32"/>
       <c r="M455" s="11"/>
       <c r="N455" s="21"/>
       <c r="O455" s="1"/>
@@ -43330,7 +43367,7 @@
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
       <c r="K456" s="1"/>
-      <c r="L456" s="31"/>
+      <c r="L456" s="32"/>
       <c r="M456" s="11"/>
       <c r="N456" s="21"/>
       <c r="O456" s="1"/>
@@ -43357,7 +43394,7 @@
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
       <c r="K457" s="1"/>
-      <c r="L457" s="31"/>
+      <c r="L457" s="32"/>
       <c r="M457" s="11"/>
       <c r="N457" s="21"/>
       <c r="O457" s="1"/>
@@ -43384,7 +43421,7 @@
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
       <c r="K458" s="1"/>
-      <c r="L458" s="31"/>
+      <c r="L458" s="32"/>
       <c r="M458" s="11"/>
       <c r="N458" s="21"/>
       <c r="O458" s="1"/>
@@ -43411,7 +43448,7 @@
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
       <c r="K459" s="1"/>
-      <c r="L459" s="31"/>
+      <c r="L459" s="32"/>
       <c r="M459" s="11"/>
       <c r="N459" s="21"/>
       <c r="O459" s="1"/>
@@ -43438,7 +43475,7 @@
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
       <c r="K460" s="1"/>
-      <c r="L460" s="31"/>
+      <c r="L460" s="32"/>
       <c r="M460" s="11"/>
       <c r="N460" s="21"/>
       <c r="O460" s="1"/>
@@ -43465,7 +43502,7 @@
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
       <c r="K461" s="1"/>
-      <c r="L461" s="31"/>
+      <c r="L461" s="32"/>
       <c r="M461" s="11"/>
       <c r="N461" s="21"/>
       <c r="O461" s="1"/>
@@ -43492,7 +43529,7 @@
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
       <c r="K462" s="1"/>
-      <c r="L462" s="31"/>
+      <c r="L462" s="32"/>
       <c r="M462" s="11"/>
       <c r="N462" s="21"/>
       <c r="O462" s="1"/>
@@ -43519,7 +43556,7 @@
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
       <c r="K463" s="1"/>
-      <c r="L463" s="31"/>
+      <c r="L463" s="32"/>
       <c r="M463" s="11"/>
       <c r="N463" s="21"/>
       <c r="O463" s="1"/>
@@ -43546,7 +43583,7 @@
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
       <c r="K464" s="1"/>
-      <c r="L464" s="31"/>
+      <c r="L464" s="32"/>
       <c r="M464" s="11"/>
       <c r="N464" s="21"/>
       <c r="O464" s="1"/>
@@ -43573,7 +43610,7 @@
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
       <c r="K465" s="1"/>
-      <c r="L465" s="31"/>
+      <c r="L465" s="32"/>
       <c r="M465" s="11"/>
       <c r="N465" s="21"/>
       <c r="O465" s="1"/>
@@ -43600,7 +43637,7 @@
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
       <c r="K466" s="1"/>
-      <c r="L466" s="31"/>
+      <c r="L466" s="32"/>
       <c r="M466" s="11"/>
       <c r="N466" s="21"/>
       <c r="O466" s="1"/>
@@ -43627,7 +43664,7 @@
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
       <c r="K467" s="1"/>
-      <c r="L467" s="31"/>
+      <c r="L467" s="32"/>
       <c r="M467" s="11"/>
       <c r="N467" s="21"/>
       <c r="O467" s="1"/>
@@ -43654,7 +43691,7 @@
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
       <c r="K468" s="1"/>
-      <c r="L468" s="31"/>
+      <c r="L468" s="32"/>
       <c r="M468" s="11"/>
       <c r="N468" s="21"/>
       <c r="O468" s="1"/>
@@ -43681,7 +43718,7 @@
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
       <c r="K469" s="1"/>
-      <c r="L469" s="31"/>
+      <c r="L469" s="32"/>
       <c r="M469" s="11"/>
       <c r="N469" s="21"/>
       <c r="O469" s="1"/>
@@ -43708,7 +43745,7 @@
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
       <c r="K470" s="1"/>
-      <c r="L470" s="31"/>
+      <c r="L470" s="32"/>
       <c r="M470" s="11"/>
       <c r="N470" s="21"/>
       <c r="O470" s="1"/>
@@ -43735,7 +43772,7 @@
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
       <c r="K471" s="1"/>
-      <c r="L471" s="31"/>
+      <c r="L471" s="32"/>
       <c r="M471" s="11"/>
       <c r="N471" s="21"/>
       <c r="O471" s="1"/>
@@ -43762,7 +43799,7 @@
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
       <c r="K472" s="1"/>
-      <c r="L472" s="31"/>
+      <c r="L472" s="32"/>
       <c r="M472" s="11"/>
       <c r="N472" s="21"/>
       <c r="O472" s="1"/>
@@ -43789,7 +43826,7 @@
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
       <c r="K473" s="1"/>
-      <c r="L473" s="31"/>
+      <c r="L473" s="32"/>
       <c r="M473" s="11"/>
       <c r="N473" s="21"/>
       <c r="O473" s="1"/>
@@ -43816,7 +43853,7 @@
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
       <c r="K474" s="1"/>
-      <c r="L474" s="31"/>
+      <c r="L474" s="32"/>
       <c r="M474" s="11"/>
       <c r="N474" s="21"/>
       <c r="O474" s="1"/>
@@ -43843,7 +43880,7 @@
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
       <c r="K475" s="1"/>
-      <c r="L475" s="31"/>
+      <c r="L475" s="32"/>
       <c r="M475" s="11"/>
       <c r="N475" s="21"/>
       <c r="O475" s="1"/>
@@ -43870,7 +43907,7 @@
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
       <c r="K476" s="1"/>
-      <c r="L476" s="31"/>
+      <c r="L476" s="32"/>
       <c r="M476" s="11"/>
       <c r="N476" s="21"/>
       <c r="O476" s="1"/>
@@ -43897,7 +43934,7 @@
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
       <c r="K477" s="1"/>
-      <c r="L477" s="31"/>
+      <c r="L477" s="32"/>
       <c r="M477" s="11"/>
       <c r="N477" s="21"/>
       <c r="O477" s="1"/>
@@ -43924,7 +43961,7 @@
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
       <c r="K478" s="1"/>
-      <c r="L478" s="31"/>
+      <c r="L478" s="32"/>
       <c r="M478" s="11"/>
       <c r="N478" s="21"/>
       <c r="O478" s="1"/>
@@ -43951,7 +43988,7 @@
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
       <c r="K479" s="1"/>
-      <c r="L479" s="31"/>
+      <c r="L479" s="32"/>
       <c r="M479" s="11"/>
       <c r="N479" s="21"/>
       <c r="O479" s="1"/>
@@ -43978,7 +44015,7 @@
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
       <c r="K480" s="1"/>
-      <c r="L480" s="31"/>
+      <c r="L480" s="32"/>
       <c r="M480" s="11"/>
       <c r="N480" s="21"/>
       <c r="O480" s="1"/>
@@ -44005,7 +44042,7 @@
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
       <c r="K481" s="1"/>
-      <c r="L481" s="31"/>
+      <c r="L481" s="32"/>
       <c r="M481" s="11"/>
       <c r="N481" s="21"/>
       <c r="O481" s="1"/>
@@ -44032,7 +44069,7 @@
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
       <c r="K482" s="1"/>
-      <c r="L482" s="31"/>
+      <c r="L482" s="32"/>
       <c r="M482" s="11"/>
       <c r="N482" s="21"/>
       <c r="O482" s="1"/>
@@ -44059,7 +44096,7 @@
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
       <c r="K483" s="1"/>
-      <c r="L483" s="31"/>
+      <c r="L483" s="32"/>
       <c r="M483" s="11"/>
       <c r="N483" s="21"/>
       <c r="O483" s="1"/>
@@ -44086,7 +44123,7 @@
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
       <c r="K484" s="1"/>
-      <c r="L484" s="31"/>
+      <c r="L484" s="32"/>
       <c r="M484" s="11"/>
       <c r="N484" s="21"/>
       <c r="O484" s="1"/>
@@ -44113,7 +44150,7 @@
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
       <c r="K485" s="1"/>
-      <c r="L485" s="31"/>
+      <c r="L485" s="32"/>
       <c r="M485" s="11"/>
       <c r="N485" s="21"/>
       <c r="O485" s="1"/>
@@ -44140,7 +44177,7 @@
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
       <c r="K486" s="1"/>
-      <c r="L486" s="31"/>
+      <c r="L486" s="32"/>
       <c r="M486" s="11"/>
       <c r="N486" s="21"/>
       <c r="O486" s="1"/>
@@ -44167,7 +44204,7 @@
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
       <c r="K487" s="1"/>
-      <c r="L487" s="31"/>
+      <c r="L487" s="32"/>
       <c r="M487" s="11"/>
       <c r="N487" s="21"/>
       <c r="O487" s="1"/>
@@ -44194,7 +44231,7 @@
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
       <c r="K488" s="1"/>
-      <c r="L488" s="31"/>
+      <c r="L488" s="32"/>
       <c r="M488" s="11"/>
       <c r="N488" s="21"/>
       <c r="O488" s="1"/>
@@ -44221,7 +44258,7 @@
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
       <c r="K489" s="1"/>
-      <c r="L489" s="31"/>
+      <c r="L489" s="32"/>
       <c r="M489" s="11"/>
       <c r="N489" s="21"/>
       <c r="O489" s="1"/>
@@ -44248,7 +44285,7 @@
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
       <c r="K490" s="1"/>
-      <c r="L490" s="31"/>
+      <c r="L490" s="32"/>
       <c r="M490" s="11"/>
       <c r="N490" s="21"/>
       <c r="O490" s="1"/>
@@ -44275,7 +44312,7 @@
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
       <c r="K491" s="1"/>
-      <c r="L491" s="31"/>
+      <c r="L491" s="32"/>
       <c r="M491" s="11"/>
       <c r="N491" s="21"/>
       <c r="O491" s="1"/>
@@ -44302,7 +44339,7 @@
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
       <c r="K492" s="1"/>
-      <c r="L492" s="31"/>
+      <c r="L492" s="32"/>
       <c r="M492" s="11"/>
       <c r="N492" s="21"/>
       <c r="O492" s="1"/>
@@ -44329,7 +44366,7 @@
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
       <c r="K493" s="1"/>
-      <c r="L493" s="31"/>
+      <c r="L493" s="32"/>
       <c r="M493" s="11"/>
       <c r="N493" s="21"/>
       <c r="O493" s="1"/>
@@ -44356,7 +44393,7 @@
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
       <c r="K494" s="1"/>
-      <c r="L494" s="31"/>
+      <c r="L494" s="32"/>
       <c r="M494" s="11"/>
       <c r="N494" s="21"/>
       <c r="O494" s="1"/>
@@ -44383,7 +44420,7 @@
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
       <c r="K495" s="1"/>
-      <c r="L495" s="31"/>
+      <c r="L495" s="32"/>
       <c r="M495" s="11"/>
       <c r="N495" s="21"/>
       <c r="O495" s="1"/>
@@ -44410,7 +44447,7 @@
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
       <c r="K496" s="1"/>
-      <c r="L496" s="31"/>
+      <c r="L496" s="32"/>
       <c r="M496" s="11"/>
       <c r="N496" s="21"/>
       <c r="O496" s="1"/>
@@ -44437,7 +44474,7 @@
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
       <c r="K497" s="1"/>
-      <c r="L497" s="31"/>
+      <c r="L497" s="32"/>
       <c r="M497" s="11"/>
       <c r="N497" s="21"/>
       <c r="O497" s="1"/>
@@ -44464,7 +44501,7 @@
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
       <c r="K498" s="1"/>
-      <c r="L498" s="31"/>
+      <c r="L498" s="32"/>
       <c r="M498" s="11"/>
       <c r="N498" s="21"/>
       <c r="O498" s="1"/>
@@ -44491,7 +44528,7 @@
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
       <c r="K499" s="1"/>
-      <c r="L499" s="31"/>
+      <c r="L499" s="32"/>
       <c r="M499" s="11"/>
       <c r="N499" s="21"/>
       <c r="O499" s="1"/>
@@ -44518,7 +44555,7 @@
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
       <c r="K500" s="1"/>
-      <c r="L500" s="31"/>
+      <c r="L500" s="32"/>
       <c r="M500" s="11"/>
       <c r="N500" s="21"/>
       <c r="O500" s="1"/>
@@ -44545,7 +44582,7 @@
       <c r="I501" s="1"/>
       <c r="J501" s="1"/>
       <c r="K501" s="1"/>
-      <c r="L501" s="31"/>
+      <c r="L501" s="32"/>
       <c r="M501" s="11"/>
       <c r="N501" s="21"/>
       <c r="O501" s="1"/>
@@ -44572,7 +44609,7 @@
       <c r="I502" s="1"/>
       <c r="J502" s="1"/>
       <c r="K502" s="1"/>
-      <c r="L502" s="31"/>
+      <c r="L502" s="32"/>
       <c r="M502" s="11"/>
       <c r="N502" s="21"/>
       <c r="O502" s="1"/>
@@ -44599,7 +44636,7 @@
       <c r="I503" s="1"/>
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
-      <c r="L503" s="31"/>
+      <c r="L503" s="32"/>
       <c r="M503" s="11"/>
       <c r="N503" s="21"/>
       <c r="O503" s="1"/>
@@ -44626,7 +44663,7 @@
       <c r="I504" s="1"/>
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
-      <c r="L504" s="31"/>
+      <c r="L504" s="32"/>
       <c r="M504" s="11"/>
       <c r="N504" s="21"/>
       <c r="O504" s="1"/>
@@ -44653,7 +44690,7 @@
       <c r="I505" s="1"/>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
-      <c r="L505" s="31"/>
+      <c r="L505" s="32"/>
       <c r="M505" s="11"/>
       <c r="N505" s="21"/>
       <c r="O505" s="1"/>
@@ -44680,7 +44717,7 @@
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
       <c r="K506" s="1"/>
-      <c r="L506" s="31"/>
+      <c r="L506" s="32"/>
       <c r="M506" s="11"/>
       <c r="N506" s="21"/>
       <c r="O506" s="1"/>
@@ -44707,7 +44744,7 @@
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
-      <c r="L507" s="31"/>
+      <c r="L507" s="32"/>
       <c r="M507" s="11"/>
       <c r="N507" s="21"/>
       <c r="O507" s="1"/>
@@ -44734,7 +44771,7 @@
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
-      <c r="L508" s="31"/>
+      <c r="L508" s="32"/>
       <c r="M508" s="11"/>
       <c r="N508" s="21"/>
       <c r="O508" s="1"/>
@@ -44761,7 +44798,7 @@
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
-      <c r="L509" s="31"/>
+      <c r="L509" s="32"/>
       <c r="M509" s="11"/>
       <c r="N509" s="21"/>
       <c r="O509" s="1"/>
@@ -44788,7 +44825,7 @@
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
       <c r="K510" s="1"/>
-      <c r="L510" s="31"/>
+      <c r="L510" s="32"/>
       <c r="M510" s="11"/>
       <c r="N510" s="21"/>
       <c r="O510" s="1"/>
@@ -44815,7 +44852,7 @@
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
-      <c r="L511" s="31"/>
+      <c r="L511" s="32"/>
       <c r="M511" s="11"/>
       <c r="N511" s="21"/>
       <c r="O511" s="1"/>
@@ -44842,7 +44879,7 @@
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
-      <c r="L512" s="31"/>
+      <c r="L512" s="32"/>
       <c r="M512" s="11"/>
       <c r="N512" s="21"/>
       <c r="O512" s="1"/>
@@ -44869,7 +44906,7 @@
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
       <c r="K513" s="1"/>
-      <c r="L513" s="31"/>
+      <c r="L513" s="32"/>
       <c r="M513" s="11"/>
       <c r="N513" s="21"/>
       <c r="O513" s="1"/>
@@ -44896,7 +44933,7 @@
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
-      <c r="L514" s="31"/>
+      <c r="L514" s="32"/>
       <c r="M514" s="11"/>
       <c r="N514" s="21"/>
       <c r="O514" s="1"/>
@@ -44923,7 +44960,7 @@
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
       <c r="K515" s="1"/>
-      <c r="L515" s="31"/>
+      <c r="L515" s="32"/>
       <c r="M515" s="11"/>
       <c r="N515" s="21"/>
       <c r="O515" s="1"/>
@@ -44950,7 +44987,7 @@
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
       <c r="K516" s="1"/>
-      <c r="L516" s="31"/>
+      <c r="L516" s="32"/>
       <c r="M516" s="11"/>
       <c r="N516" s="21"/>
       <c r="O516" s="1"/>
@@ -44977,7 +45014,7 @@
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
       <c r="K517" s="1"/>
-      <c r="L517" s="31"/>
+      <c r="L517" s="32"/>
       <c r="M517" s="11"/>
       <c r="N517" s="21"/>
       <c r="O517" s="1"/>
@@ -45004,7 +45041,7 @@
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
       <c r="K518" s="1"/>
-      <c r="L518" s="31"/>
+      <c r="L518" s="32"/>
       <c r="M518" s="11"/>
       <c r="N518" s="21"/>
       <c r="O518" s="1"/>
@@ -45031,7 +45068,7 @@
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
       <c r="K519" s="1"/>
-      <c r="L519" s="31"/>
+      <c r="L519" s="32"/>
       <c r="M519" s="11"/>
       <c r="N519" s="21"/>
       <c r="O519" s="1"/>
@@ -45058,7 +45095,7 @@
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
       <c r="K520" s="1"/>
-      <c r="L520" s="31"/>
+      <c r="L520" s="32"/>
       <c r="M520" s="11"/>
       <c r="N520" s="21"/>
       <c r="O520" s="1"/>
@@ -45085,7 +45122,7 @@
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
       <c r="K521" s="1"/>
-      <c r="L521" s="31"/>
+      <c r="L521" s="32"/>
       <c r="M521" s="11"/>
       <c r="N521" s="21"/>
       <c r="O521" s="1"/>
@@ -45112,7 +45149,7 @@
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
       <c r="K522" s="1"/>
-      <c r="L522" s="31"/>
+      <c r="L522" s="32"/>
       <c r="M522" s="11"/>
       <c r="N522" s="21"/>
       <c r="O522" s="1"/>
@@ -45139,7 +45176,7 @@
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
       <c r="K523" s="1"/>
-      <c r="L523" s="31"/>
+      <c r="L523" s="32"/>
       <c r="M523" s="11"/>
       <c r="N523" s="21"/>
       <c r="O523" s="1"/>
@@ -45166,7 +45203,7 @@
       <c r="I524" s="1"/>
       <c r="J524" s="1"/>
       <c r="K524" s="1"/>
-      <c r="L524" s="31"/>
+      <c r="L524" s="32"/>
       <c r="M524" s="11"/>
       <c r="N524" s="21"/>
       <c r="O524" s="1"/>
@@ -45193,7 +45230,7 @@
       <c r="I525" s="1"/>
       <c r="J525" s="1"/>
       <c r="K525" s="1"/>
-      <c r="L525" s="31"/>
+      <c r="L525" s="32"/>
       <c r="M525" s="11"/>
       <c r="N525" s="21"/>
       <c r="O525" s="1"/>
@@ -45220,7 +45257,7 @@
       <c r="I526" s="1"/>
       <c r="J526" s="1"/>
       <c r="K526" s="1"/>
-      <c r="L526" s="31"/>
+      <c r="L526" s="32"/>
       <c r="M526" s="11"/>
       <c r="N526" s="21"/>
       <c r="O526" s="1"/>
@@ -45247,7 +45284,7 @@
       <c r="I527" s="1"/>
       <c r="J527" s="1"/>
       <c r="K527" s="1"/>
-      <c r="L527" s="31"/>
+      <c r="L527" s="32"/>
       <c r="M527" s="11"/>
       <c r="N527" s="21"/>
       <c r="O527" s="1"/>
@@ -45274,7 +45311,7 @@
       <c r="I528" s="1"/>
       <c r="J528" s="1"/>
       <c r="K528" s="1"/>
-      <c r="L528" s="31"/>
+      <c r="L528" s="32"/>
       <c r="M528" s="11"/>
       <c r="N528" s="21"/>
       <c r="O528" s="1"/>
@@ -45301,7 +45338,7 @@
       <c r="I529" s="1"/>
       <c r="J529" s="1"/>
       <c r="K529" s="1"/>
-      <c r="L529" s="31"/>
+      <c r="L529" s="32"/>
       <c r="M529" s="11"/>
       <c r="N529" s="21"/>
       <c r="O529" s="1"/>
@@ -45328,7 +45365,7 @@
       <c r="I530" s="1"/>
       <c r="J530" s="1"/>
       <c r="K530" s="1"/>
-      <c r="L530" s="31"/>
+      <c r="L530" s="32"/>
       <c r="M530" s="11"/>
       <c r="N530" s="21"/>
       <c r="O530" s="1"/>
@@ -45355,7 +45392,7 @@
       <c r="I531" s="1"/>
       <c r="J531" s="1"/>
       <c r="K531" s="1"/>
-      <c r="L531" s="31"/>
+      <c r="L531" s="32"/>
       <c r="M531" s="11"/>
       <c r="N531" s="21"/>
       <c r="O531" s="1"/>
@@ -45382,7 +45419,7 @@
       <c r="I532" s="1"/>
       <c r="J532" s="1"/>
       <c r="K532" s="1"/>
-      <c r="L532" s="31"/>
+      <c r="L532" s="32"/>
       <c r="M532" s="11"/>
       <c r="N532" s="21"/>
       <c r="O532" s="1"/>
@@ -45409,7 +45446,7 @@
       <c r="I533" s="1"/>
       <c r="J533" s="1"/>
       <c r="K533" s="1"/>
-      <c r="L533" s="31"/>
+      <c r="L533" s="32"/>
       <c r="M533" s="11"/>
       <c r="N533" s="21"/>
       <c r="O533" s="1"/>
@@ -45436,7 +45473,7 @@
       <c r="I534" s="1"/>
       <c r="J534" s="1"/>
       <c r="K534" s="1"/>
-      <c r="L534" s="31"/>
+      <c r="L534" s="32"/>
       <c r="M534" s="11"/>
       <c r="N534" s="21"/>
       <c r="O534" s="1"/>
@@ -45463,7 +45500,7 @@
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
       <c r="K535" s="1"/>
-      <c r="L535" s="31"/>
+      <c r="L535" s="32"/>
       <c r="M535" s="11"/>
       <c r="N535" s="21"/>
       <c r="O535" s="1"/>
@@ -45490,7 +45527,7 @@
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
       <c r="K536" s="1"/>
-      <c r="L536" s="31"/>
+      <c r="L536" s="32"/>
       <c r="M536" s="11"/>
       <c r="N536" s="21"/>
       <c r="O536" s="1"/>
@@ -45517,7 +45554,7 @@
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
       <c r="K537" s="1"/>
-      <c r="L537" s="31"/>
+      <c r="L537" s="32"/>
       <c r="M537" s="11"/>
       <c r="N537" s="21"/>
       <c r="O537" s="1"/>
@@ -45544,7 +45581,7 @@
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
       <c r="K538" s="1"/>
-      <c r="L538" s="31"/>
+      <c r="L538" s="32"/>
       <c r="M538" s="11"/>
       <c r="N538" s="21"/>
       <c r="O538" s="1"/>
@@ -45571,7 +45608,7 @@
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
       <c r="K539" s="1"/>
-      <c r="L539" s="31"/>
+      <c r="L539" s="32"/>
       <c r="M539" s="11"/>
       <c r="N539" s="21"/>
       <c r="O539" s="1"/>
@@ -45598,7 +45635,7 @@
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
       <c r="K540" s="1"/>
-      <c r="L540" s="31"/>
+      <c r="L540" s="32"/>
       <c r="M540" s="11"/>
       <c r="N540" s="21"/>
       <c r="O540" s="1"/>
@@ -45625,7 +45662,7 @@
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
       <c r="K541" s="1"/>
-      <c r="L541" s="31"/>
+      <c r="L541" s="32"/>
       <c r="M541" s="11"/>
       <c r="N541" s="21"/>
       <c r="O541" s="1"/>
@@ -45652,7 +45689,7 @@
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
       <c r="K542" s="1"/>
-      <c r="L542" s="31"/>
+      <c r="L542" s="32"/>
       <c r="M542" s="11"/>
       <c r="N542" s="21"/>
       <c r="O542" s="1"/>
@@ -45679,7 +45716,7 @@
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
       <c r="K543" s="1"/>
-      <c r="L543" s="31"/>
+      <c r="L543" s="32"/>
       <c r="M543" s="11"/>
       <c r="N543" s="21"/>
       <c r="O543" s="1"/>
@@ -45706,7 +45743,7 @@
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
       <c r="K544" s="1"/>
-      <c r="L544" s="31"/>
+      <c r="L544" s="32"/>
       <c r="M544" s="11"/>
       <c r="N544" s="21"/>
       <c r="O544" s="1"/>
@@ -45733,7 +45770,7 @@
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
       <c r="K545" s="1"/>
-      <c r="L545" s="31"/>
+      <c r="L545" s="32"/>
       <c r="M545" s="11"/>
       <c r="N545" s="21"/>
       <c r="O545" s="1"/>
@@ -45760,7 +45797,7 @@
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
       <c r="K546" s="1"/>
-      <c r="L546" s="31"/>
+      <c r="L546" s="32"/>
       <c r="M546" s="11"/>
       <c r="N546" s="21"/>
       <c r="O546" s="1"/>
@@ -45787,7 +45824,7 @@
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
       <c r="K547" s="1"/>
-      <c r="L547" s="31"/>
+      <c r="L547" s="32"/>
       <c r="M547" s="11"/>
       <c r="N547" s="21"/>
       <c r="O547" s="1"/>
@@ -45814,7 +45851,7 @@
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
       <c r="K548" s="1"/>
-      <c r="L548" s="31"/>
+      <c r="L548" s="32"/>
       <c r="M548" s="11"/>
       <c r="N548" s="21"/>
       <c r="O548" s="1"/>
@@ -45841,7 +45878,7 @@
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
       <c r="K549" s="1"/>
-      <c r="L549" s="31"/>
+      <c r="L549" s="32"/>
       <c r="M549" s="11"/>
       <c r="N549" s="21"/>
       <c r="O549" s="1"/>
@@ -45868,7 +45905,7 @@
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
       <c r="K550" s="1"/>
-      <c r="L550" s="31"/>
+      <c r="L550" s="32"/>
       <c r="M550" s="11"/>
       <c r="N550" s="21"/>
       <c r="O550" s="1"/>
@@ -45895,7 +45932,7 @@
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
       <c r="K551" s="1"/>
-      <c r="L551" s="31"/>
+      <c r="L551" s="32"/>
       <c r="M551" s="11"/>
       <c r="N551" s="21"/>
       <c r="O551" s="1"/>
@@ -45922,7 +45959,7 @@
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
       <c r="K552" s="1"/>
-      <c r="L552" s="31"/>
+      <c r="L552" s="32"/>
       <c r="M552" s="11"/>
       <c r="N552" s="21"/>
       <c r="O552" s="1"/>
@@ -45949,7 +45986,7 @@
       <c r="I553" s="1"/>
       <c r="J553" s="1"/>
       <c r="K553" s="1"/>
-      <c r="L553" s="31"/>
+      <c r="L553" s="32"/>
       <c r="M553" s="11"/>
       <c r="N553" s="21"/>
       <c r="O553" s="1"/>
@@ -45976,7 +46013,7 @@
       <c r="I554" s="1"/>
       <c r="J554" s="1"/>
       <c r="K554" s="1"/>
-      <c r="L554" s="31"/>
+      <c r="L554" s="32"/>
       <c r="M554" s="11"/>
       <c r="N554" s="21"/>
       <c r="O554" s="1"/>
@@ -46003,7 +46040,7 @@
       <c r="I555" s="1"/>
       <c r="J555" s="1"/>
       <c r="K555" s="1"/>
-      <c r="L555" s="31"/>
+      <c r="L555" s="32"/>
       <c r="M555" s="11"/>
       <c r="N555" s="21"/>
       <c r="O555" s="1"/>
@@ -46030,7 +46067,7 @@
       <c r="I556" s="1"/>
       <c r="J556" s="1"/>
       <c r="K556" s="1"/>
-      <c r="L556" s="31"/>
+      <c r="L556" s="32"/>
       <c r="M556" s="11"/>
       <c r="N556" s="21"/>
       <c r="O556" s="1"/>
@@ -46057,7 +46094,7 @@
       <c r="I557" s="1"/>
       <c r="J557" s="1"/>
       <c r="K557" s="1"/>
-      <c r="L557" s="31"/>
+      <c r="L557" s="32"/>
       <c r="M557" s="11"/>
       <c r="N557" s="21"/>
       <c r="O557" s="1"/>
@@ -46084,7 +46121,7 @@
       <c r="I558" s="1"/>
       <c r="J558" s="1"/>
       <c r="K558" s="1"/>
-      <c r="L558" s="31"/>
+      <c r="L558" s="32"/>
       <c r="M558" s="11"/>
       <c r="N558" s="21"/>
       <c r="O558" s="1"/>
@@ -46111,7 +46148,7 @@
       <c r="I559" s="1"/>
       <c r="J559" s="1"/>
       <c r="K559" s="1"/>
-      <c r="L559" s="31"/>
+      <c r="L559" s="32"/>
       <c r="M559" s="11"/>
       <c r="N559" s="21"/>
       <c r="O559" s="1"/>
@@ -46138,7 +46175,7 @@
       <c r="I560" s="1"/>
       <c r="J560" s="1"/>
       <c r="K560" s="1"/>
-      <c r="L560" s="31"/>
+      <c r="L560" s="32"/>
       <c r="M560" s="11"/>
       <c r="N560" s="21"/>
       <c r="O560" s="1"/>
@@ -46165,7 +46202,7 @@
       <c r="I561" s="1"/>
       <c r="J561" s="1"/>
       <c r="K561" s="1"/>
-      <c r="L561" s="31"/>
+      <c r="L561" s="32"/>
       <c r="M561" s="11"/>
       <c r="N561" s="21"/>
       <c r="O561" s="1"/>
@@ -46192,7 +46229,7 @@
       <c r="I562" s="1"/>
       <c r="J562" s="1"/>
       <c r="K562" s="1"/>
-      <c r="L562" s="31"/>
+      <c r="L562" s="32"/>
       <c r="M562" s="11"/>
       <c r="N562" s="21"/>
       <c r="O562" s="1"/>
@@ -46219,7 +46256,7 @@
       <c r="I563" s="1"/>
       <c r="J563" s="1"/>
       <c r="K563" s="1"/>
-      <c r="L563" s="31"/>
+      <c r="L563" s="32"/>
       <c r="M563" s="11"/>
       <c r="N563" s="21"/>
       <c r="O563" s="1"/>
@@ -46246,7 +46283,7 @@
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
       <c r="K564" s="1"/>
-      <c r="L564" s="31"/>
+      <c r="L564" s="32"/>
       <c r="M564" s="11"/>
       <c r="N564" s="21"/>
       <c r="O564" s="1"/>
@@ -46273,7 +46310,7 @@
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
       <c r="K565" s="1"/>
-      <c r="L565" s="31"/>
+      <c r="L565" s="32"/>
       <c r="M565" s="11"/>
       <c r="N565" s="21"/>
       <c r="O565" s="1"/>
@@ -46300,7 +46337,7 @@
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
       <c r="K566" s="1"/>
-      <c r="L566" s="31"/>
+      <c r="L566" s="32"/>
       <c r="M566" s="11"/>
       <c r="N566" s="21"/>
       <c r="O566" s="1"/>
@@ -46327,7 +46364,7 @@
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
       <c r="K567" s="1"/>
-      <c r="L567" s="31"/>
+      <c r="L567" s="32"/>
       <c r="M567" s="11"/>
       <c r="N567" s="21"/>
       <c r="O567" s="1"/>
@@ -46354,7 +46391,7 @@
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
       <c r="K568" s="1"/>
-      <c r="L568" s="31"/>
+      <c r="L568" s="32"/>
       <c r="M568" s="11"/>
       <c r="N568" s="21"/>
       <c r="O568" s="1"/>
@@ -46381,7 +46418,7 @@
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
       <c r="K569" s="1"/>
-      <c r="L569" s="31"/>
+      <c r="L569" s="32"/>
       <c r="M569" s="11"/>
       <c r="N569" s="21"/>
       <c r="O569" s="1"/>
@@ -46408,7 +46445,7 @@
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
       <c r="K570" s="1"/>
-      <c r="L570" s="31"/>
+      <c r="L570" s="32"/>
       <c r="M570" s="11"/>
       <c r="N570" s="21"/>
       <c r="O570" s="1"/>
@@ -46435,7 +46472,7 @@
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
       <c r="K571" s="1"/>
-      <c r="L571" s="31"/>
+      <c r="L571" s="32"/>
       <c r="M571" s="11"/>
       <c r="N571" s="21"/>
       <c r="O571" s="1"/>
@@ -46462,7 +46499,7 @@
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
       <c r="K572" s="1"/>
-      <c r="L572" s="31"/>
+      <c r="L572" s="32"/>
       <c r="M572" s="11"/>
       <c r="N572" s="21"/>
       <c r="O572" s="1"/>
@@ -46489,7 +46526,7 @@
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
       <c r="K573" s="1"/>
-      <c r="L573" s="31"/>
+      <c r="L573" s="32"/>
       <c r="M573" s="11"/>
       <c r="N573" s="21"/>
       <c r="O573" s="1"/>
@@ -46516,7 +46553,7 @@
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
       <c r="K574" s="1"/>
-      <c r="L574" s="31"/>
+      <c r="L574" s="32"/>
       <c r="M574" s="11"/>
       <c r="N574" s="21"/>
       <c r="O574" s="1"/>
@@ -46543,7 +46580,7 @@
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
       <c r="K575" s="1"/>
-      <c r="L575" s="31"/>
+      <c r="L575" s="32"/>
       <c r="M575" s="11"/>
       <c r="N575" s="21"/>
       <c r="O575" s="1"/>
@@ -46570,7 +46607,7 @@
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
       <c r="K576" s="1"/>
-      <c r="L576" s="31"/>
+      <c r="L576" s="32"/>
       <c r="M576" s="11"/>
       <c r="N576" s="21"/>
       <c r="O576" s="1"/>
@@ -46597,7 +46634,7 @@
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
       <c r="K577" s="1"/>
-      <c r="L577" s="31"/>
+      <c r="L577" s="32"/>
       <c r="M577" s="11"/>
       <c r="N577" s="21"/>
       <c r="O577" s="1"/>
@@ -46624,7 +46661,7 @@
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
       <c r="K578" s="1"/>
-      <c r="L578" s="31"/>
+      <c r="L578" s="32"/>
       <c r="M578" s="11"/>
       <c r="N578" s="21"/>
       <c r="O578" s="1"/>
@@ -46651,7 +46688,7 @@
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
       <c r="K579" s="1"/>
-      <c r="L579" s="31"/>
+      <c r="L579" s="32"/>
       <c r="M579" s="11"/>
       <c r="N579" s="21"/>
       <c r="O579" s="1"/>
@@ -46678,7 +46715,7 @@
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
       <c r="K580" s="1"/>
-      <c r="L580" s="31"/>
+      <c r="L580" s="32"/>
       <c r="M580" s="11"/>
       <c r="N580" s="21"/>
       <c r="O580" s="1"/>
@@ -46705,7 +46742,7 @@
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
       <c r="K581" s="1"/>
-      <c r="L581" s="31"/>
+      <c r="L581" s="32"/>
       <c r="M581" s="11"/>
       <c r="N581" s="21"/>
       <c r="O581" s="1"/>
@@ -46732,7 +46769,7 @@
       <c r="I582" s="1"/>
       <c r="J582" s="1"/>
       <c r="K582" s="1"/>
-      <c r="L582" s="31"/>
+      <c r="L582" s="32"/>
       <c r="M582" s="11"/>
       <c r="N582" s="21"/>
       <c r="O582" s="1"/>
@@ -46759,7 +46796,7 @@
       <c r="I583" s="1"/>
       <c r="J583" s="1"/>
       <c r="K583" s="1"/>
-      <c r="L583" s="31"/>
+      <c r="L583" s="32"/>
       <c r="M583" s="11"/>
       <c r="N583" s="21"/>
       <c r="O583" s="1"/>
@@ -46786,7 +46823,7 @@
       <c r="I584" s="1"/>
       <c r="J584" s="1"/>
       <c r="K584" s="1"/>
-      <c r="L584" s="31"/>
+      <c r="L584" s="32"/>
       <c r="M584" s="11"/>
       <c r="N584" s="21"/>
       <c r="O584" s="1"/>
@@ -46813,7 +46850,7 @@
       <c r="I585" s="1"/>
       <c r="J585" s="1"/>
       <c r="K585" s="1"/>
-      <c r="L585" s="31"/>
+      <c r="L585" s="32"/>
       <c r="M585" s="11"/>
       <c r="N585" s="21"/>
       <c r="O585" s="1"/>
@@ -46840,7 +46877,7 @@
       <c r="I586" s="1"/>
       <c r="J586" s="1"/>
       <c r="K586" s="1"/>
-      <c r="L586" s="31"/>
+      <c r="L586" s="32"/>
       <c r="M586" s="11"/>
       <c r="N586" s="21"/>
       <c r="O586" s="1"/>
@@ -46867,7 +46904,7 @@
       <c r="I587" s="1"/>
       <c r="J587" s="1"/>
       <c r="K587" s="1"/>
-      <c r="L587" s="31"/>
+      <c r="L587" s="32"/>
       <c r="M587" s="11"/>
       <c r="N587" s="21"/>
       <c r="O587" s="1"/>
@@ -46894,7 +46931,7 @@
       <c r="I588" s="1"/>
       <c r="J588" s="1"/>
       <c r="K588" s="1"/>
-      <c r="L588" s="31"/>
+      <c r="L588" s="32"/>
       <c r="M588" s="11"/>
       <c r="N588" s="21"/>
       <c r="O588" s="1"/>
@@ -46921,7 +46958,7 @@
       <c r="I589" s="1"/>
       <c r="J589" s="1"/>
       <c r="K589" s="1"/>
-      <c r="L589" s="31"/>
+      <c r="L589" s="32"/>
       <c r="M589" s="11"/>
       <c r="N589" s="21"/>
       <c r="O589" s="1"/>
@@ -46948,7 +46985,7 @@
       <c r="I590" s="1"/>
       <c r="J590" s="1"/>
       <c r="K590" s="1"/>
-      <c r="L590" s="31"/>
+      <c r="L590" s="32"/>
       <c r="M590" s="11"/>
       <c r="N590" s="21"/>
       <c r="O590" s="1"/>
@@ -46975,7 +47012,7 @@
       <c r="I591" s="1"/>
       <c r="J591" s="1"/>
       <c r="K591" s="1"/>
-      <c r="L591" s="31"/>
+      <c r="L591" s="32"/>
       <c r="M591" s="11"/>
       <c r="N591" s="21"/>
       <c r="O591" s="1"/>
@@ -47002,7 +47039,7 @@
       <c r="I592" s="1"/>
       <c r="J592" s="1"/>
       <c r="K592" s="1"/>
-      <c r="L592" s="31"/>
+      <c r="L592" s="32"/>
       <c r="M592" s="11"/>
       <c r="N592" s="21"/>
       <c r="O592" s="1"/>
@@ -47029,7 +47066,7 @@
       <c r="I593" s="1"/>
       <c r="J593" s="1"/>
       <c r="K593" s="1"/>
-      <c r="L593" s="31"/>
+      <c r="L593" s="32"/>
       <c r="M593" s="11"/>
       <c r="N593" s="21"/>
       <c r="O593" s="1"/>
@@ -47056,7 +47093,7 @@
       <c r="I594" s="1"/>
       <c r="J594" s="1"/>
       <c r="K594" s="1"/>
-      <c r="L594" s="31"/>
+      <c r="L594" s="32"/>
       <c r="M594" s="11"/>
       <c r="N594" s="21"/>
       <c r="O594" s="1"/>
@@ -47083,7 +47120,7 @@
       <c r="I595" s="1"/>
       <c r="J595" s="1"/>
       <c r="K595" s="1"/>
-      <c r="L595" s="31"/>
+      <c r="L595" s="32"/>
       <c r="M595" s="11"/>
       <c r="N595" s="21"/>
       <c r="O595" s="1"/>
@@ -47110,7 +47147,7 @@
       <c r="I596" s="1"/>
       <c r="J596" s="1"/>
       <c r="K596" s="1"/>
-      <c r="L596" s="31"/>
+      <c r="L596" s="32"/>
       <c r="M596" s="11"/>
       <c r="N596" s="21"/>
       <c r="O596" s="1"/>
@@ -47137,7 +47174,7 @@
       <c r="I597" s="1"/>
       <c r="J597" s="1"/>
       <c r="K597" s="1"/>
-      <c r="L597" s="31"/>
+      <c r="L597" s="32"/>
       <c r="M597" s="11"/>
       <c r="N597" s="21"/>
       <c r="O597" s="1"/>
@@ -47164,7 +47201,7 @@
       <c r="I598" s="1"/>
       <c r="J598" s="1"/>
       <c r="K598" s="1"/>
-      <c r="L598" s="31"/>
+      <c r="L598" s="32"/>
       <c r="M598" s="11"/>
       <c r="N598" s="21"/>
       <c r="O598" s="1"/>
@@ -47191,7 +47228,7 @@
       <c r="I599" s="1"/>
       <c r="J599" s="1"/>
       <c r="K599" s="1"/>
-      <c r="L599" s="31"/>
+      <c r="L599" s="32"/>
       <c r="M599" s="11"/>
       <c r="N599" s="21"/>
       <c r="O599" s="1"/>
@@ -47218,7 +47255,7 @@
       <c r="I600" s="1"/>
       <c r="J600" s="1"/>
       <c r="K600" s="1"/>
-      <c r="L600" s="31"/>
+      <c r="L600" s="32"/>
       <c r="M600" s="11"/>
       <c r="N600" s="21"/>
       <c r="O600" s="1"/>
@@ -47245,7 +47282,7 @@
       <c r="I601" s="1"/>
       <c r="J601" s="1"/>
       <c r="K601" s="1"/>
-      <c r="L601" s="31"/>
+      <c r="L601" s="32"/>
       <c r="M601" s="11"/>
       <c r="N601" s="21"/>
       <c r="O601" s="1"/>
@@ -47272,7 +47309,7 @@
       <c r="I602" s="1"/>
       <c r="J602" s="1"/>
       <c r="K602" s="1"/>
-      <c r="L602" s="31"/>
+      <c r="L602" s="32"/>
       <c r="M602" s="11"/>
       <c r="N602" s="21"/>
       <c r="O602" s="1"/>
@@ -47299,7 +47336,7 @@
       <c r="I603" s="1"/>
       <c r="J603" s="1"/>
       <c r="K603" s="1"/>
-      <c r="L603" s="31"/>
+      <c r="L603" s="32"/>
       <c r="M603" s="11"/>
       <c r="N603" s="21"/>
       <c r="O603" s="1"/>
@@ -47326,7 +47363,7 @@
       <c r="I604" s="1"/>
       <c r="J604" s="1"/>
       <c r="K604" s="1"/>
-      <c r="L604" s="31"/>
+      <c r="L604" s="32"/>
       <c r="M604" s="11"/>
       <c r="N604" s="21"/>
       <c r="O604" s="1"/>
@@ -47353,7 +47390,7 @@
       <c r="I605" s="1"/>
       <c r="J605" s="1"/>
       <c r="K605" s="1"/>
-      <c r="L605" s="31"/>
+      <c r="L605" s="32"/>
       <c r="M605" s="11"/>
       <c r="N605" s="21"/>
       <c r="O605" s="1"/>
@@ -47380,7 +47417,7 @@
       <c r="I606" s="1"/>
       <c r="J606" s="1"/>
       <c r="K606" s="1"/>
-      <c r="L606" s="31"/>
+      <c r="L606" s="32"/>
       <c r="M606" s="11"/>
       <c r="N606" s="21"/>
       <c r="O606" s="1"/>
@@ -47407,7 +47444,7 @@
       <c r="I607" s="1"/>
       <c r="J607" s="1"/>
       <c r="K607" s="1"/>
-      <c r="L607" s="31"/>
+      <c r="L607" s="32"/>
       <c r="M607" s="11"/>
       <c r="N607" s="21"/>
       <c r="O607" s="1"/>
@@ -47434,7 +47471,7 @@
       <c r="I608" s="1"/>
       <c r="J608" s="1"/>
       <c r="K608" s="1"/>
-      <c r="L608" s="31"/>
+      <c r="L608" s="32"/>
       <c r="M608" s="11"/>
       <c r="N608" s="21"/>
       <c r="O608" s="1"/>
@@ -47461,7 +47498,7 @@
       <c r="I609" s="1"/>
       <c r="J609" s="1"/>
       <c r="K609" s="1"/>
-      <c r="L609" s="31"/>
+      <c r="L609" s="32"/>
       <c r="M609" s="11"/>
       <c r="N609" s="21"/>
       <c r="O609" s="1"/>
@@ -47488,7 +47525,7 @@
       <c r="I610" s="1"/>
       <c r="J610" s="1"/>
       <c r="K610" s="1"/>
-      <c r="L610" s="31"/>
+      <c r="L610" s="32"/>
       <c r="M610" s="11"/>
       <c r="N610" s="21"/>
       <c r="O610" s="1"/>
@@ -47515,7 +47552,7 @@
       <c r="I611" s="1"/>
       <c r="J611" s="1"/>
       <c r="K611" s="1"/>
-      <c r="L611" s="31"/>
+      <c r="L611" s="32"/>
       <c r="M611" s="11"/>
       <c r="N611" s="21"/>
       <c r="O611" s="1"/>
@@ -47542,7 +47579,7 @@
       <c r="I612" s="1"/>
       <c r="J612" s="1"/>
       <c r="K612" s="1"/>
-      <c r="L612" s="31"/>
+      <c r="L612" s="32"/>
       <c r="M612" s="11"/>
       <c r="N612" s="21"/>
       <c r="O612" s="1"/>
@@ -47569,7 +47606,7 @@
       <c r="I613" s="1"/>
       <c r="J613" s="1"/>
       <c r="K613" s="1"/>
-      <c r="L613" s="31"/>
+      <c r="L613" s="32"/>
       <c r="M613" s="11"/>
       <c r="N613" s="21"/>
       <c r="O613" s="1"/>
@@ -47596,7 +47633,7 @@
       <c r="I614" s="1"/>
       <c r="J614" s="1"/>
       <c r="K614" s="1"/>
-      <c r="L614" s="31"/>
+      <c r="L614" s="32"/>
       <c r="M614" s="11"/>
       <c r="N614" s="21"/>
       <c r="O614" s="1"/>
@@ -47623,7 +47660,7 @@
       <c r="I615" s="1"/>
       <c r="J615" s="1"/>
       <c r="K615" s="1"/>
-      <c r="L615" s="31"/>
+      <c r="L615" s="32"/>
       <c r="M615" s="11"/>
       <c r="N615" s="21"/>
       <c r="O615" s="1"/>
@@ -47650,7 +47687,7 @@
       <c r="I616" s="1"/>
       <c r="J616" s="1"/>
       <c r="K616" s="1"/>
-      <c r="L616" s="31"/>
+      <c r="L616" s="32"/>
       <c r="M616" s="11"/>
       <c r="N616" s="21"/>
       <c r="O616" s="1"/>
@@ -47677,7 +47714,7 @@
       <c r="I617" s="1"/>
       <c r="J617" s="1"/>
       <c r="K617" s="1"/>
-      <c r="L617" s="31"/>
+      <c r="L617" s="32"/>
       <c r="M617" s="11"/>
       <c r="N617" s="21"/>
       <c r="O617" s="1"/>
@@ -47704,7 +47741,7 @@
       <c r="I618" s="1"/>
       <c r="J618" s="1"/>
       <c r="K618" s="1"/>
-      <c r="L618" s="31"/>
+      <c r="L618" s="32"/>
       <c r="M618" s="11"/>
       <c r="N618" s="21"/>
       <c r="O618" s="1"/>
@@ -47731,7 +47768,7 @@
       <c r="I619" s="1"/>
       <c r="J619" s="1"/>
       <c r="K619" s="1"/>
-      <c r="L619" s="31"/>
+      <c r="L619" s="32"/>
       <c r="M619" s="11"/>
       <c r="N619" s="21"/>
       <c r="O619" s="1"/>
@@ -47758,7 +47795,7 @@
       <c r="I620" s="1"/>
       <c r="J620" s="1"/>
       <c r="K620" s="1"/>
-      <c r="L620" s="31"/>
+      <c r="L620" s="32"/>
       <c r="M620" s="11"/>
       <c r="N620" s="21"/>
       <c r="O620" s="1"/>
@@ -47785,7 +47822,7 @@
       <c r="I621" s="1"/>
       <c r="J621" s="1"/>
       <c r="K621" s="1"/>
-      <c r="L621" s="31"/>
+      <c r="L621" s="32"/>
       <c r="M621" s="11"/>
       <c r="N621" s="21"/>
       <c r="O621" s="1"/>
@@ -47812,7 +47849,7 @@
       <c r="I622" s="1"/>
       <c r="J622" s="1"/>
       <c r="K622" s="1"/>
-      <c r="L622" s="31"/>
+      <c r="L622" s="32"/>
       <c r="M622" s="11"/>
       <c r="N622" s="21"/>
       <c r="O622" s="1"/>
@@ -47839,7 +47876,7 @@
       <c r="I623" s="1"/>
       <c r="J623" s="1"/>
       <c r="K623" s="1"/>
-      <c r="L623" s="31"/>
+      <c r="L623" s="32"/>
       <c r="M623" s="11"/>
       <c r="N623" s="21"/>
       <c r="O623" s="1"/>
@@ -47866,7 +47903,7 @@
       <c r="I624" s="1"/>
       <c r="J624" s="1"/>
       <c r="K624" s="1"/>
-      <c r="L624" s="31"/>
+      <c r="L624" s="32"/>
       <c r="M624" s="11"/>
       <c r="N624" s="21"/>
       <c r="O624" s="1"/>
@@ -47893,7 +47930,7 @@
       <c r="I625" s="1"/>
       <c r="J625" s="1"/>
       <c r="K625" s="1"/>
-      <c r="L625" s="31"/>
+      <c r="L625" s="32"/>
       <c r="M625" s="11"/>
       <c r="N625" s="21"/>
       <c r="O625" s="1"/>
@@ -47920,7 +47957,7 @@
       <c r="I626" s="1"/>
       <c r="J626" s="1"/>
       <c r="K626" s="1"/>
-      <c r="L626" s="31"/>
+      <c r="L626" s="32"/>
       <c r="M626" s="11"/>
       <c r="N626" s="21"/>
       <c r="O626" s="1"/>
@@ -47947,7 +47984,7 @@
       <c r="I627" s="1"/>
       <c r="J627" s="1"/>
       <c r="K627" s="1"/>
-      <c r="L627" s="31"/>
+      <c r="L627" s="32"/>
       <c r="M627" s="11"/>
       <c r="N627" s="21"/>
       <c r="O627" s="1"/>
@@ -47974,7 +48011,7 @@
       <c r="I628" s="1"/>
       <c r="J628" s="1"/>
       <c r="K628" s="1"/>
-      <c r="L628" s="31"/>
+      <c r="L628" s="32"/>
       <c r="M628" s="11"/>
       <c r="N628" s="21"/>
       <c r="O628" s="1"/>
@@ -48001,7 +48038,7 @@
       <c r="I629" s="1"/>
       <c r="J629" s="1"/>
       <c r="K629" s="1"/>
-      <c r="L629" s="31"/>
+      <c r="L629" s="32"/>
       <c r="M629" s="11"/>
       <c r="N629" s="21"/>
       <c r="O629" s="1"/>
@@ -48028,7 +48065,7 @@
       <c r="I630" s="1"/>
       <c r="J630" s="1"/>
       <c r="K630" s="1"/>
-      <c r="L630" s="31"/>
+      <c r="L630" s="32"/>
       <c r="M630" s="11"/>
       <c r="N630" s="21"/>
       <c r="O630" s="1"/>
@@ -48055,7 +48092,7 @@
       <c r="I631" s="1"/>
       <c r="J631" s="1"/>
       <c r="K631" s="1"/>
-      <c r="L631" s="31"/>
+      <c r="L631" s="32"/>
       <c r="M631" s="11"/>
       <c r="N631" s="21"/>
       <c r="O631" s="1"/>
@@ -48082,7 +48119,7 @@
       <c r="I632" s="1"/>
       <c r="J632" s="1"/>
       <c r="K632" s="1"/>
-      <c r="L632" s="31"/>
+      <c r="L632" s="32"/>
       <c r="M632" s="11"/>
       <c r="N632" s="21"/>
       <c r="O632" s="1"/>
@@ -48109,7 +48146,7 @@
       <c r="I633" s="1"/>
       <c r="J633" s="1"/>
       <c r="K633" s="1"/>
-      <c r="L633" s="31"/>
+      <c r="L633" s="32"/>
       <c r="M633" s="11"/>
       <c r="N633" s="21"/>
       <c r="O633" s="1"/>
@@ -48136,7 +48173,7 @@
       <c r="I634" s="1"/>
       <c r="J634" s="1"/>
       <c r="K634" s="1"/>
-      <c r="L634" s="31"/>
+      <c r="L634" s="32"/>
       <c r="M634" s="11"/>
       <c r="N634" s="21"/>
       <c r="O634" s="1"/>
@@ -48163,7 +48200,7 @@
       <c r="I635" s="1"/>
       <c r="J635" s="1"/>
       <c r="K635" s="1"/>
-      <c r="L635" s="31"/>
+      <c r="L635" s="32"/>
       <c r="M635" s="11"/>
       <c r="N635" s="21"/>
       <c r="O635" s="1"/>
@@ -48190,7 +48227,7 @@
       <c r="I636" s="1"/>
       <c r="J636" s="1"/>
       <c r="K636" s="1"/>
-      <c r="L636" s="31"/>
+      <c r="L636" s="32"/>
       <c r="M636" s="11"/>
       <c r="N636" s="21"/>
       <c r="O636" s="1"/>
@@ -48217,7 +48254,7 @@
       <c r="I637" s="1"/>
       <c r="J637" s="1"/>
       <c r="K637" s="1"/>
-      <c r="L637" s="31"/>
+      <c r="L637" s="32"/>
       <c r="M637" s="11"/>
       <c r="N637" s="21"/>
       <c r="O637" s="1"/>
@@ -48244,7 +48281,7 @@
       <c r="I638" s="1"/>
       <c r="J638" s="1"/>
       <c r="K638" s="1"/>
-      <c r="L638" s="31"/>
+      <c r="L638" s="32"/>
       <c r="M638" s="11"/>
       <c r="N638" s="21"/>
       <c r="O638" s="1"/>
@@ -48271,7 +48308,7 @@
       <c r="I639" s="1"/>
       <c r="J639" s="1"/>
       <c r="K639" s="1"/>
-      <c r="L639" s="31"/>
+      <c r="L639" s="32"/>
       <c r="M639" s="11"/>
       <c r="N639" s="21"/>
       <c r="O639" s="1"/>
@@ -48298,7 +48335,7 @@
       <c r="I640" s="1"/>
       <c r="J640" s="1"/>
       <c r="K640" s="1"/>
-      <c r="L640" s="31"/>
+      <c r="L640" s="32"/>
       <c r="M640" s="11"/>
       <c r="N640" s="21"/>
       <c r="O640" s="1"/>
@@ -48325,7 +48362,7 @@
       <c r="I641" s="1"/>
       <c r="J641" s="1"/>
       <c r="K641" s="1"/>
-      <c r="L641" s="31"/>
+      <c r="L641" s="32"/>
       <c r="M641" s="11"/>
       <c r="N641" s="21"/>
       <c r="O641" s="1"/>
@@ -48352,7 +48389,7 @@
       <c r="I642" s="1"/>
       <c r="J642" s="1"/>
       <c r="K642" s="1"/>
-      <c r="L642" s="31"/>
+      <c r="L642" s="32"/>
       <c r="M642" s="11"/>
       <c r="N642" s="21"/>
       <c r="O642" s="1"/>
@@ -48379,7 +48416,7 @@
       <c r="I643" s="1"/>
       <c r="J643" s="1"/>
       <c r="K643" s="1"/>
-      <c r="L643" s="31"/>
+      <c r="L643" s="32"/>
       <c r="M643" s="11"/>
       <c r="N643" s="21"/>
       <c r="O643" s="1"/>
@@ -48406,7 +48443,7 @@
       <c r="I644" s="1"/>
       <c r="J644" s="1"/>
       <c r="K644" s="1"/>
-      <c r="L644" s="31"/>
+      <c r="L644" s="32"/>
       <c r="M644" s="11"/>
       <c r="N644" s="21"/>
       <c r="O644" s="1"/>
@@ -48433,7 +48470,7 @@
       <c r="I645" s="1"/>
       <c r="J645" s="1"/>
       <c r="K645" s="1"/>
-      <c r="L645" s="31"/>
+      <c r="L645" s="32"/>
       <c r="M645" s="11"/>
       <c r="N645" s="21"/>
       <c r="O645" s="1"/>
@@ -48460,7 +48497,7 @@
       <c r="I646" s="1"/>
       <c r="J646" s="1"/>
       <c r="K646" s="1"/>
-      <c r="L646" s="31"/>
+      <c r="L646" s="32"/>
       <c r="M646" s="11"/>
       <c r="N646" s="21"/>
       <c r="O646" s="1"/>
@@ -48487,7 +48524,7 @@
       <c r="I647" s="1"/>
       <c r="J647" s="1"/>
       <c r="K647" s="1"/>
-      <c r="L647" s="31"/>
+      <c r="L647" s="32"/>
       <c r="M647" s="11"/>
       <c r="N647" s="21"/>
       <c r="O647" s="1"/>
@@ -48514,7 +48551,7 @@
       <c r="I648" s="1"/>
       <c r="J648" s="1"/>
       <c r="K648" s="1"/>
-      <c r="L648" s="31"/>
+      <c r="L648" s="32"/>
       <c r="M648" s="11"/>
       <c r="N648" s="21"/>
       <c r="O648" s="1"/>
@@ -48541,7 +48578,7 @@
       <c r="I649" s="1"/>
       <c r="J649" s="1"/>
       <c r="K649" s="1"/>
-      <c r="L649" s="31"/>
+      <c r="L649" s="32"/>
       <c r="M649" s="11"/>
       <c r="N649" s="21"/>
       <c r="O649" s="1"/>
@@ -48568,7 +48605,7 @@
       <c r="I650" s="1"/>
       <c r="J650" s="1"/>
       <c r="K650" s="1"/>
-      <c r="L650" s="31"/>
+      <c r="L650" s="32"/>
       <c r="M650" s="11"/>
       <c r="N650" s="21"/>
       <c r="O650" s="1"/>
@@ -48595,7 +48632,7 @@
       <c r="I651" s="1"/>
       <c r="J651" s="1"/>
       <c r="K651" s="1"/>
-      <c r="L651" s="31"/>
+      <c r="L651" s="32"/>
       <c r="M651" s="11"/>
       <c r="N651" s="21"/>
       <c r="O651" s="1"/>
@@ -48622,7 +48659,7 @@
       <c r="I652" s="1"/>
       <c r="J652" s="1"/>
       <c r="K652" s="1"/>
-      <c r="L652" s="31"/>
+      <c r="L652" s="32"/>
       <c r="M652" s="11"/>
       <c r="N652" s="21"/>
       <c r="O652" s="1"/>
@@ -48649,7 +48686,7 @@
       <c r="I653" s="1"/>
       <c r="J653" s="1"/>
       <c r="K653" s="1"/>
-      <c r="L653" s="31"/>
+      <c r="L653" s="32"/>
       <c r="M653" s="11"/>
       <c r="N653" s="21"/>
       <c r="O653" s="1"/>
@@ -48676,7 +48713,7 @@
       <c r="I654" s="1"/>
       <c r="J654" s="1"/>
       <c r="K654" s="1"/>
-      <c r="L654" s="31"/>
+      <c r="L654" s="32"/>
       <c r="M654" s="11"/>
       <c r="N654" s="21"/>
       <c r="O654" s="1"/>
@@ -48703,7 +48740,7 @@
       <c r="I655" s="1"/>
       <c r="J655" s="1"/>
       <c r="K655" s="1"/>
-      <c r="L655" s="31"/>
+      <c r="L655" s="32"/>
       <c r="M655" s="11"/>
       <c r="N655" s="21"/>
       <c r="O655" s="1"/>
@@ -48730,7 +48767,7 @@
       <c r="I656" s="1"/>
       <c r="J656" s="1"/>
       <c r="K656" s="1"/>
-      <c r="L656" s="31"/>
+      <c r="L656" s="32"/>
       <c r="M656" s="11"/>
       <c r="N656" s="21"/>
       <c r="O656" s="1"/>
@@ -48757,7 +48794,7 @@
       <c r="I657" s="1"/>
       <c r="J657" s="1"/>
       <c r="K657" s="1"/>
-      <c r="L657" s="31"/>
+      <c r="L657" s="32"/>
       <c r="M657" s="11"/>
       <c r="N657" s="21"/>
       <c r="O657" s="1"/>
@@ -48784,7 +48821,7 @@
       <c r="I658" s="1"/>
       <c r="J658" s="1"/>
       <c r="K658" s="1"/>
-      <c r="L658" s="31"/>
+      <c r="L658" s="32"/>
       <c r="M658" s="11"/>
       <c r="N658" s="21"/>
       <c r="O658" s="1"/>
@@ -48811,7 +48848,7 @@
       <c r="I659" s="1"/>
       <c r="J659" s="1"/>
       <c r="K659" s="1"/>
-      <c r="L659" s="31"/>
+      <c r="L659" s="32"/>
       <c r="M659" s="11"/>
       <c r="N659" s="21"/>
       <c r="O659" s="1"/>
@@ -48838,7 +48875,7 @@
       <c r="I660" s="1"/>
       <c r="J660" s="1"/>
       <c r="K660" s="1"/>
-      <c r="L660" s="31"/>
+      <c r="L660" s="32"/>
       <c r="M660" s="11"/>
       <c r="N660" s="21"/>
       <c r="O660" s="1"/>
@@ -48865,7 +48902,7 @@
       <c r="I661" s="1"/>
       <c r="J661" s="1"/>
       <c r="K661" s="1"/>
-      <c r="L661" s="31"/>
+      <c r="L661" s="32"/>
       <c r="M661" s="11"/>
       <c r="N661" s="21"/>
       <c r="O661" s="1"/>
@@ -48892,7 +48929,7 @@
       <c r="I662" s="1"/>
       <c r="J662" s="1"/>
       <c r="K662" s="1"/>
-      <c r="L662" s="31"/>
+      <c r="L662" s="32"/>
       <c r="M662" s="11"/>
       <c r="N662" s="21"/>
       <c r="O662" s="1"/>
@@ -48919,7 +48956,7 @@
       <c r="I663" s="1"/>
       <c r="J663" s="1"/>
       <c r="K663" s="1"/>
-      <c r="L663" s="31"/>
+      <c r="L663" s="32"/>
       <c r="M663" s="11"/>
       <c r="N663" s="21"/>
       <c r="O663" s="1"/>
@@ -48946,7 +48983,7 @@
       <c r="I664" s="1"/>
       <c r="J664" s="1"/>
       <c r="K664" s="1"/>
-      <c r="L664" s="31"/>
+      <c r="L664" s="32"/>
       <c r="M664" s="11"/>
       <c r="N664" s="21"/>
       <c r="O664" s="1"/>
@@ -48973,7 +49010,7 @@
       <c r="I665" s="1"/>
       <c r="J665" s="1"/>
       <c r="K665" s="1"/>
-      <c r="L665" s="31"/>
+      <c r="L665" s="32"/>
       <c r="M665" s="11"/>
       <c r="N665" s="21"/>
       <c r="O665" s="1"/>
@@ -49000,7 +49037,7 @@
       <c r="I666" s="1"/>
       <c r="J666" s="1"/>
       <c r="K666" s="1"/>
-      <c r="L666" s="31"/>
+      <c r="L666" s="32"/>
       <c r="M666" s="11"/>
       <c r="N666" s="21"/>
       <c r="O666" s="1"/>
@@ -49027,7 +49064,7 @@
       <c r="I667" s="1"/>
       <c r="J667" s="1"/>
       <c r="K667" s="1"/>
-      <c r="L667" s="31"/>
+      <c r="L667" s="32"/>
       <c r="M667" s="11"/>
       <c r="N667" s="21"/>
       <c r="O667" s="1"/>
@@ -49054,7 +49091,7 @@
       <c r="I668" s="1"/>
       <c r="J668" s="1"/>
       <c r="K668" s="1"/>
-      <c r="L668" s="31"/>
+      <c r="L668" s="32"/>
       <c r="M668" s="11"/>
       <c r="N668" s="21"/>
       <c r="O668" s="1"/>
@@ -49081,7 +49118,7 @@
       <c r="I669" s="1"/>
       <c r="J669" s="1"/>
       <c r="K669" s="1"/>
-      <c r="L669" s="31"/>
+      <c r="L669" s="32"/>
       <c r="M669" s="11"/>
       <c r="N669" s="21"/>
       <c r="O669" s="1"/>
@@ -49108,7 +49145,7 @@
       <c r="I670" s="1"/>
       <c r="J670" s="1"/>
       <c r="K670" s="1"/>
-      <c r="L670" s="31"/>
+      <c r="L670" s="32"/>
       <c r="M670" s="11"/>
       <c r="N670" s="21"/>
       <c r="O670" s="1"/>
@@ -49135,7 +49172,7 @@
       <c r="I671" s="1"/>
       <c r="J671" s="1"/>
       <c r="K671" s="1"/>
-      <c r="L671" s="31"/>
+      <c r="L671" s="32"/>
       <c r="M671" s="11"/>
       <c r="N671" s="21"/>
       <c r="O671" s="1"/>
@@ -49162,7 +49199,7 @@
       <c r="I672" s="1"/>
       <c r="J672" s="1"/>
       <c r="K672" s="1"/>
-      <c r="L672" s="31"/>
+      <c r="L672" s="32"/>
       <c r="M672" s="11"/>
       <c r="N672" s="21"/>
       <c r="O672" s="1"/>
@@ -49189,7 +49226,7 @@
       <c r="I673" s="1"/>
       <c r="J673" s="1"/>
       <c r="K673" s="1"/>
-      <c r="L673" s="31"/>
+      <c r="L673" s="32"/>
       <c r="M673" s="11"/>
       <c r="N673" s="21"/>
       <c r="O673" s="1"/>
@@ -49216,7 +49253,7 @@
       <c r="I674" s="1"/>
       <c r="J674" s="1"/>
       <c r="K674" s="1"/>
-      <c r="L674" s="31"/>
+      <c r="L674" s="32"/>
       <c r="M674" s="11"/>
       <c r="N674" s="21"/>
       <c r="O674" s="1"/>
@@ -49243,7 +49280,7 @@
       <c r="I675" s="1"/>
       <c r="J675" s="1"/>
       <c r="K675" s="1"/>
-      <c r="L675" s="31"/>
+      <c r="L675" s="32"/>
       <c r="M675" s="11"/>
       <c r="N675" s="21"/>
       <c r="O675" s="1"/>
@@ -49270,7 +49307,7 @@
       <c r="I676" s="1"/>
       <c r="J676" s="1"/>
       <c r="K676" s="1"/>
-      <c r="L676" s="31"/>
+      <c r="L676" s="32"/>
       <c r="M676" s="11"/>
       <c r="N676" s="21"/>
       <c r="O676" s="1"/>
@@ -49297,7 +49334,7 @@
       <c r="I677" s="1"/>
       <c r="J677" s="1"/>
       <c r="K677" s="1"/>
-      <c r="L677" s="31"/>
+      <c r="L677" s="32"/>
       <c r="M677" s="11"/>
       <c r="N677" s="21"/>
       <c r="O677" s="1"/>
@@ -49324,7 +49361,7 @@
       <c r="I678" s="1"/>
       <c r="J678" s="1"/>
       <c r="K678" s="1"/>
-      <c r="L678" s="31"/>
+      <c r="L678" s="32"/>
       <c r="M678" s="11"/>
       <c r="N678" s="21"/>
       <c r="O678" s="1"/>
@@ -49351,7 +49388,7 @@
       <c r="I679" s="1"/>
       <c r="J679" s="1"/>
       <c r="K679" s="1"/>
-      <c r="L679" s="31"/>
+      <c r="L679" s="32"/>
       <c r="M679" s="11"/>
       <c r="N679" s="21"/>
       <c r="O679" s="1"/>
@@ -49378,7 +49415,7 @@
       <c r="I680" s="1"/>
       <c r="J680" s="1"/>
       <c r="K680" s="1"/>
-      <c r="L680" s="31"/>
+      <c r="L680" s="32"/>
       <c r="M680" s="11"/>
       <c r="N680" s="21"/>
       <c r="O680" s="1"/>
@@ -49405,7 +49442,7 @@
       <c r="I681" s="1"/>
       <c r="J681" s="1"/>
       <c r="K681" s="1"/>
-      <c r="L681" s="31"/>
+      <c r="L681" s="32"/>
       <c r="M681" s="11"/>
       <c r="N681" s="21"/>
       <c r="O681" s="1"/>
@@ -49432,7 +49469,7 @@
       <c r="I682" s="1"/>
       <c r="J682" s="1"/>
       <c r="K682" s="1"/>
-      <c r="L682" s="31"/>
+      <c r="L682" s="32"/>
       <c r="M682" s="11"/>
       <c r="N682" s="21"/>
       <c r="O682" s="1"/>
@@ -49459,7 +49496,7 @@
       <c r="I683" s="1"/>
       <c r="J683" s="1"/>
       <c r="K683" s="1"/>
-      <c r="L683" s="31"/>
+      <c r="L683" s="32"/>
       <c r="M683" s="11"/>
       <c r="N683" s="21"/>
       <c r="O683" s="1"/>
@@ -49486,7 +49523,7 @@
       <c r="I684" s="1"/>
       <c r="J684" s="1"/>
       <c r="K684" s="1"/>
-      <c r="L684" s="31"/>
+      <c r="L684" s="32"/>
       <c r="M684" s="11"/>
       <c r="N684" s="21"/>
       <c r="O684" s="1"/>
@@ -49513,7 +49550,7 @@
       <c r="I685" s="1"/>
       <c r="J685" s="1"/>
       <c r="K685" s="1"/>
-      <c r="L685" s="31"/>
+      <c r="L685" s="32"/>
       <c r="M685" s="11"/>
       <c r="N685" s="21"/>
       <c r="O685" s="1"/>
@@ -49540,7 +49577,7 @@
       <c r="I686" s="1"/>
       <c r="J686" s="1"/>
       <c r="K686" s="1"/>
-      <c r="L686" s="31"/>
+      <c r="L686" s="32"/>
       <c r="M686" s="11"/>
       <c r="N686" s="21"/>
       <c r="O686" s="1"/>
@@ -49567,7 +49604,7 @@
       <c r="I687" s="1"/>
       <c r="J687" s="1"/>
       <c r="K687" s="1"/>
-      <c r="L687" s="31"/>
+      <c r="L687" s="32"/>
       <c r="M687" s="11"/>
       <c r="N687" s="21"/>
       <c r="O687" s="1"/>
@@ -49594,7 +49631,7 @@
       <c r="I688" s="1"/>
       <c r="J688" s="1"/>
       <c r="K688" s="1"/>
-      <c r="L688" s="31"/>
+      <c r="L688" s="32"/>
       <c r="M688" s="11"/>
       <c r="N688" s="21"/>
       <c r="O688" s="1"/>
@@ -49621,7 +49658,7 @@
       <c r="I689" s="1"/>
       <c r="J689" s="1"/>
       <c r="K689" s="1"/>
-      <c r="L689" s="31"/>
+      <c r="L689" s="32"/>
       <c r="M689" s="11"/>
       <c r="N689" s="21"/>
       <c r="O689" s="1"/>
@@ -49648,7 +49685,7 @@
       <c r="I690" s="1"/>
       <c r="J690" s="1"/>
       <c r="K690" s="1"/>
-      <c r="L690" s="31"/>
+      <c r="L690" s="32"/>
       <c r="M690" s="11"/>
       <c r="N690" s="21"/>
       <c r="O690" s="1"/>
@@ -49675,7 +49712,7 @@
       <c r="I691" s="1"/>
       <c r="J691" s="1"/>
       <c r="K691" s="1"/>
-      <c r="L691" s="31"/>
+      <c r="L691" s="32"/>
       <c r="M691" s="11"/>
       <c r="N691" s="21"/>
       <c r="O691" s="1"/>
@@ -49702,7 +49739,7 @@
       <c r="I692" s="1"/>
       <c r="J692" s="1"/>
       <c r="K692" s="1"/>
-      <c r="L692" s="31"/>
+      <c r="L692" s="32"/>
       <c r="M692" s="11"/>
       <c r="N692" s="21"/>
       <c r="O692" s="1"/>
@@ -49729,7 +49766,7 @@
       <c r="I693" s="1"/>
       <c r="J693" s="1"/>
       <c r="K693" s="1"/>
-      <c r="L693" s="31"/>
+      <c r="L693" s="32"/>
       <c r="M693" s="11"/>
       <c r="N693" s="21"/>
       <c r="O693" s="1"/>
@@ -49756,7 +49793,7 @@
       <c r="I694" s="1"/>
       <c r="J694" s="1"/>
       <c r="K694" s="1"/>
-      <c r="L694" s="31"/>
+      <c r="L694" s="32"/>
       <c r="M694" s="11"/>
       <c r="N694" s="21"/>
       <c r="O694" s="1"/>
@@ -49783,7 +49820,7 @@
       <c r="I695" s="1"/>
       <c r="J695" s="1"/>
       <c r="K695" s="1"/>
-      <c r="L695" s="31"/>
+      <c r="L695" s="32"/>
       <c r="M695" s="11"/>
       <c r="N695" s="21"/>
       <c r="O695" s="1"/>
@@ -49810,7 +49847,7 @@
       <c r="I696" s="1"/>
       <c r="J696" s="1"/>
       <c r="K696" s="1"/>
-      <c r="L696" s="31"/>
+      <c r="L696" s="32"/>
       <c r="M696" s="11"/>
       <c r="N696" s="21"/>
       <c r="O696" s="1"/>
@@ -49837,7 +49874,7 @@
       <c r="I697" s="1"/>
       <c r="J697" s="1"/>
       <c r="K697" s="1"/>
-      <c r="L697" s="31"/>
+      <c r="L697" s="32"/>
       <c r="M697" s="11"/>
       <c r="N697" s="21"/>
       <c r="O697" s="1"/>
@@ -49864,7 +49901,7 @@
       <c r="I698" s="1"/>
       <c r="J698" s="1"/>
       <c r="K698" s="1"/>
-      <c r="L698" s="31"/>
+      <c r="L698" s="32"/>
       <c r="M698" s="11"/>
       <c r="N698" s="21"/>
       <c r="O698" s="1"/>
@@ -49891,7 +49928,7 @@
       <c r="I699" s="1"/>
       <c r="J699" s="1"/>
       <c r="K699" s="1"/>
-      <c r="L699" s="31"/>
+      <c r="L699" s="32"/>
       <c r="M699" s="11"/>
       <c r="N699" s="21"/>
       <c r="O699" s="1"/>
@@ -49918,7 +49955,7 @@
       <c r="I700" s="1"/>
       <c r="J700" s="1"/>
       <c r="K700" s="1"/>
-      <c r="L700" s="31"/>
+      <c r="L700" s="32"/>
       <c r="M700" s="11"/>
       <c r="N700" s="21"/>
       <c r="O700" s="1"/>
@@ -49945,7 +49982,7 @@
       <c r="I701" s="1"/>
       <c r="J701" s="1"/>
       <c r="K701" s="1"/>
-      <c r="L701" s="31"/>
+      <c r="L701" s="32"/>
       <c r="M701" s="11"/>
       <c r="N701" s="21"/>
       <c r="O701" s="1"/>
@@ -49972,7 +50009,7 @@
       <c r="I702" s="1"/>
       <c r="J702" s="1"/>
       <c r="K702" s="1"/>
-      <c r="L702" s="31"/>
+      <c r="L702" s="32"/>
       <c r="M702" s="11"/>
       <c r="N702" s="21"/>
       <c r="O702" s="1"/>
@@ -49999,7 +50036,7 @@
       <c r="I703" s="1"/>
       <c r="J703" s="1"/>
       <c r="K703" s="1"/>
-      <c r="L703" s="31"/>
+      <c r="L703" s="32"/>
       <c r="M703" s="11"/>
       <c r="N703" s="21"/>
       <c r="O703" s="1"/>
@@ -50026,7 +50063,7 @@
       <c r="I704" s="1"/>
       <c r="J704" s="1"/>
       <c r="K704" s="1"/>
-      <c r="L704" s="31"/>
+      <c r="L704" s="32"/>
       <c r="M704" s="11"/>
       <c r="N704" s="21"/>
       <c r="O704" s="1"/>
@@ -50053,7 +50090,7 @@
       <c r="I705" s="1"/>
       <c r="J705" s="1"/>
       <c r="K705" s="1"/>
-      <c r="L705" s="31"/>
+      <c r="L705" s="32"/>
       <c r="M705" s="11"/>
       <c r="N705" s="21"/>
       <c r="O705" s="1"/>
@@ -50080,7 +50117,7 @@
       <c r="I706" s="1"/>
       <c r="J706" s="1"/>
       <c r="K706" s="1"/>
-      <c r="L706" s="31"/>
+      <c r="L706" s="32"/>
       <c r="M706" s="11"/>
       <c r="N706" s="21"/>
       <c r="O706" s="1"/>
@@ -50107,7 +50144,7 @@
       <c r="I707" s="1"/>
       <c r="J707" s="1"/>
       <c r="K707" s="1"/>
-      <c r="L707" s="31"/>
+      <c r="L707" s="32"/>
       <c r="M707" s="11"/>
       <c r="N707" s="21"/>
       <c r="O707" s="1"/>
@@ -50134,7 +50171,7 @@
       <c r="I708" s="1"/>
       <c r="J708" s="1"/>
       <c r="K708" s="1"/>
-      <c r="L708" s="31"/>
+      <c r="L708" s="32"/>
       <c r="M708" s="11"/>
       <c r="N708" s="21"/>
       <c r="O708" s="1"/>
@@ -50161,7 +50198,7 @@
       <c r="I709" s="1"/>
       <c r="J709" s="1"/>
       <c r="K709" s="1"/>
-      <c r="L709" s="31"/>
+      <c r="L709" s="32"/>
       <c r="M709" s="11"/>
       <c r="N709" s="21"/>
       <c r="O709" s="1"/>
@@ -50188,7 +50225,7 @@
       <c r="I710" s="1"/>
       <c r="J710" s="1"/>
       <c r="K710" s="1"/>
-      <c r="L710" s="31"/>
+      <c r="L710" s="32"/>
       <c r="M710" s="11"/>
       <c r="N710" s="21"/>
       <c r="O710" s="1"/>
@@ -50215,7 +50252,7 @@
       <c r="I711" s="1"/>
       <c r="J711" s="1"/>
       <c r="K711" s="1"/>
-      <c r="L711" s="31"/>
+      <c r="L711" s="32"/>
       <c r="M711" s="11"/>
       <c r="N711" s="21"/>
       <c r="O711" s="1"/>
@@ -50242,7 +50279,7 @@
       <c r="I712" s="1"/>
       <c r="J712" s="1"/>
       <c r="K712" s="1"/>
-      <c r="L712" s="31"/>
+      <c r="L712" s="32"/>
       <c r="M712" s="11"/>
       <c r="N712" s="21"/>
       <c r="O712" s="1"/>
@@ -50269,7 +50306,7 @@
       <c r="I713" s="1"/>
       <c r="J713" s="1"/>
       <c r="K713" s="1"/>
-      <c r="L713" s="31"/>
+      <c r="L713" s="32"/>
       <c r="M713" s="11"/>
       <c r="N713" s="21"/>
       <c r="O713" s="1"/>
@@ -50296,7 +50333,7 @@
       <c r="I714" s="1"/>
       <c r="J714" s="1"/>
       <c r="K714" s="1"/>
-      <c r="L714" s="31"/>
+      <c r="L714" s="32"/>
       <c r="M714" s="11"/>
       <c r="N714" s="21"/>
       <c r="O714" s="1"/>
@@ -50323,7 +50360,7 @@
       <c r="I715" s="1"/>
       <c r="J715" s="1"/>
       <c r="K715" s="1"/>
-      <c r="L715" s="31"/>
+      <c r="L715" s="32"/>
       <c r="M715" s="11"/>
       <c r="N715" s="21"/>
       <c r="O715" s="1"/>
@@ -50350,7 +50387,7 @@
       <c r="I716" s="1"/>
       <c r="J716" s="1"/>
       <c r="K716" s="1"/>
-      <c r="L716" s="31"/>
+      <c r="L716" s="32"/>
       <c r="M716" s="11"/>
       <c r="N716" s="21"/>
       <c r="O716" s="1"/>
@@ -50377,7 +50414,7 @@
       <c r="I717" s="1"/>
       <c r="J717" s="1"/>
       <c r="K717" s="1"/>
-      <c r="L717" s="31"/>
+      <c r="L717" s="32"/>
       <c r="M717" s="11"/>
       <c r="N717" s="21"/>
       <c r="O717" s="1"/>
@@ -50404,7 +50441,7 @@
       <c r="I718" s="1"/>
       <c r="J718" s="1"/>
       <c r="K718" s="1"/>
-      <c r="L718" s="31"/>
+      <c r="L718" s="32"/>
       <c r="M718" s="11"/>
       <c r="N718" s="21"/>
       <c r="O718" s="1"/>
@@ -50431,7 +50468,7 @@
       <c r="I719" s="1"/>
       <c r="J719" s="1"/>
       <c r="K719" s="1"/>
-      <c r="L719" s="31"/>
+      <c r="L719" s="32"/>
       <c r="M719" s="11"/>
       <c r="N719" s="21"/>
       <c r="O719" s="1"/>
@@ -50458,7 +50495,7 @@
       <c r="I720" s="1"/>
       <c r="J720" s="1"/>
       <c r="K720" s="1"/>
-      <c r="L720" s="31"/>
+      <c r="L720" s="32"/>
       <c r="M720" s="11"/>
       <c r="N720" s="21"/>
       <c r="O720" s="1"/>
@@ -50485,7 +50522,7 @@
       <c r="I721" s="1"/>
       <c r="J721" s="1"/>
       <c r="K721" s="1"/>
-      <c r="L721" s="31"/>
+      <c r="L721" s="32"/>
       <c r="M721" s="11"/>
       <c r="N721" s="21"/>
       <c r="O721" s="1"/>
@@ -50512,7 +50549,7 @@
       <c r="I722" s="1"/>
       <c r="J722" s="1"/>
       <c r="K722" s="1"/>
-      <c r="L722" s="31"/>
+      <c r="L722" s="32"/>
       <c r="M722" s="11"/>
       <c r="N722" s="21"/>
       <c r="O722" s="1"/>
@@ -50539,7 +50576,7 @@
       <c r="I723" s="1"/>
       <c r="J723" s="1"/>
       <c r="K723" s="1"/>
-      <c r="L723" s="31"/>
+      <c r="L723" s="32"/>
       <c r="M723" s="11"/>
       <c r="N723" s="21"/>
       <c r="O723" s="1"/>
@@ -50566,7 +50603,7 @@
       <c r="I724" s="1"/>
       <c r="J724" s="1"/>
       <c r="K724" s="1"/>
-      <c r="L724" s="31"/>
+      <c r="L724" s="32"/>
       <c r="M724" s="11"/>
       <c r="N724" s="21"/>
       <c r="O724" s="1"/>
@@ -50593,7 +50630,7 @@
       <c r="I725" s="1"/>
       <c r="J725" s="1"/>
       <c r="K725" s="1"/>
-      <c r="L725" s="31"/>
+      <c r="L725" s="32"/>
       <c r="M725" s="11"/>
       <c r="N725" s="21"/>
       <c r="O725" s="1"/>
@@ -50620,7 +50657,7 @@
       <c r="I726" s="1"/>
       <c r="J726" s="1"/>
       <c r="K726" s="1"/>
-      <c r="L726" s="31"/>
+      <c r="L726" s="32"/>
       <c r="M726" s="11"/>
       <c r="N726" s="21"/>
       <c r="O726" s="1"/>
@@ -50647,7 +50684,7 @@
       <c r="I727" s="1"/>
       <c r="J727" s="1"/>
       <c r="K727" s="1"/>
-      <c r="L727" s="31"/>
+      <c r="L727" s="32"/>
       <c r="M727" s="11"/>
       <c r="N727" s="21"/>
       <c r="O727" s="1"/>
@@ -50674,7 +50711,7 @@
       <c r="I728" s="1"/>
       <c r="J728" s="1"/>
       <c r="K728" s="1"/>
-      <c r="L728" s="31"/>
+      <c r="L728" s="32"/>
       <c r="M728" s="11"/>
       <c r="N728" s="21"/>
       <c r="O728" s="1"/>
@@ -50701,7 +50738,7 @@
       <c r="I729" s="1"/>
       <c r="J729" s="1"/>
       <c r="K729" s="1"/>
-      <c r="L729" s="31"/>
+      <c r="L729" s="32"/>
       <c r="M729" s="11"/>
       <c r="N729" s="21"/>
       <c r="O729" s="1"/>
@@ -50728,7 +50765,7 @@
       <c r="I730" s="1"/>
       <c r="J730" s="1"/>
       <c r="K730" s="1"/>
-      <c r="L730" s="31"/>
+      <c r="L730" s="32"/>
       <c r="M730" s="11"/>
       <c r="N730" s="21"/>
       <c r="O730" s="1"/>
@@ -50755,7 +50792,7 @@
       <c r="I731" s="1"/>
       <c r="J731" s="1"/>
       <c r="K731" s="1"/>
-      <c r="L731" s="31"/>
+      <c r="L731" s="32"/>
       <c r="M731" s="11"/>
       <c r="N731" s="21"/>
       <c r="O731" s="1"/>
@@ -50782,7 +50819,7 @@
       <c r="I732" s="1"/>
       <c r="J732" s="1"/>
       <c r="K732" s="1"/>
-      <c r="L732" s="31"/>
+      <c r="L732" s="32"/>
       <c r="M732" s="11"/>
       <c r="N732" s="21"/>
       <c r="O732" s="1"/>
@@ -50809,7 +50846,7 @@
       <c r="I733" s="1"/>
       <c r="J733" s="1"/>
       <c r="K733" s="1"/>
-      <c r="L733" s="31"/>
+      <c r="L733" s="32"/>
       <c r="M733" s="11"/>
       <c r="N733" s="21"/>
       <c r="O733" s="1"/>
@@ -50836,7 +50873,7 @@
       <c r="I734" s="1"/>
       <c r="J734" s="1"/>
       <c r="K734" s="1"/>
-      <c r="L734" s="31"/>
+      <c r="L734" s="32"/>
       <c r="M734" s="11"/>
       <c r="N734" s="21"/>
       <c r="O734" s="1"/>
@@ -50863,7 +50900,7 @@
       <c r="I735" s="1"/>
       <c r="J735" s="1"/>
       <c r="K735" s="1"/>
-      <c r="L735" s="31"/>
+      <c r="L735" s="32"/>
       <c r="M735" s="11"/>
       <c r="N735" s="21"/>
       <c r="O735" s="1"/>
@@ -50890,7 +50927,7 @@
       <c r="I736" s="1"/>
       <c r="J736" s="1"/>
       <c r="K736" s="1"/>
-      <c r="L736" s="31"/>
+      <c r="L736" s="32"/>
       <c r="M736" s="11"/>
       <c r="N736" s="21"/>
       <c r="O736" s="1"/>
@@ -50917,7 +50954,7 @@
       <c r="I737" s="1"/>
       <c r="J737" s="1"/>
       <c r="K737" s="1"/>
-      <c r="L737" s="31"/>
+      <c r="L737" s="32"/>
       <c r="M737" s="11"/>
       <c r="N737" s="21"/>
       <c r="O737" s="1"/>
@@ -50944,7 +50981,7 @@
       <c r="I738" s="1"/>
       <c r="J738" s="1"/>
       <c r="K738" s="1"/>
-      <c r="L738" s="31"/>
+      <c r="L738" s="32"/>
       <c r="M738" s="11"/>
       <c r="N738" s="21"/>
       <c r="O738" s="1"/>
@@ -50971,7 +51008,7 @@
       <c r="I739" s="1"/>
       <c r="J739" s="1"/>
       <c r="K739" s="1"/>
-      <c r="L739" s="31"/>
+      <c r="L739" s="32"/>
       <c r="M739" s="11"/>
       <c r="N739" s="21"/>
       <c r="O739" s="1"/>
@@ -50998,7 +51035,7 @@
       <c r="I740" s="1"/>
       <c r="J740" s="1"/>
       <c r="K740" s="1"/>
-      <c r="L740" s="31"/>
+      <c r="L740" s="32"/>
       <c r="M740" s="11"/>
       <c r="N740" s="21"/>
       <c r="O740" s="1"/>
@@ -51025,7 +51062,7 @@
       <c r="I741" s="1"/>
       <c r="J741" s="1"/>
       <c r="K741" s="1"/>
-      <c r="L741" s="31"/>
+      <c r="L741" s="32"/>
       <c r="M741" s="11"/>
       <c r="N741" s="21"/>
       <c r="O741" s="1"/>
@@ -51052,7 +51089,7 @@
       <c r="I742" s="1"/>
       <c r="J742" s="1"/>
       <c r="K742" s="1"/>
-      <c r="L742" s="31"/>
+      <c r="L742" s="32"/>
       <c r="M742" s="11"/>
       <c r="N742" s="21"/>
       <c r="O742" s="1"/>
@@ -51079,7 +51116,7 @@
       <c r="I743" s="1"/>
       <c r="J743" s="1"/>
       <c r="K743" s="1"/>
-      <c r="L743" s="31"/>
+      <c r="L743" s="32"/>
       <c r="M743" s="11"/>
       <c r="N743" s="21"/>
       <c r="O743" s="1"/>
@@ -51106,7 +51143,7 @@
       <c r="I744" s="1"/>
       <c r="J744" s="1"/>
       <c r="K744" s="1"/>
-      <c r="L744" s="31"/>
+      <c r="L744" s="32"/>
       <c r="M744" s="11"/>
       <c r="N744" s="21"/>
       <c r="O744" s="1"/>
@@ -51133,7 +51170,7 @@
       <c r="I745" s="1"/>
       <c r="J745" s="1"/>
       <c r="K745" s="1"/>
-      <c r="L745" s="31"/>
+      <c r="L745" s="32"/>
       <c r="M745" s="11"/>
       <c r="N745" s="21"/>
       <c r="O745" s="1"/>
@@ -51160,7 +51197,7 @@
       <c r="I746" s="1"/>
       <c r="J746" s="1"/>
       <c r="K746" s="1"/>
-      <c r="L746" s="31"/>
+      <c r="L746" s="32"/>
       <c r="M746" s="11"/>
       <c r="N746" s="21"/>
       <c r="O746" s="1"/>
@@ -51187,7 +51224,7 @@
       <c r="I747" s="1"/>
       <c r="J747" s="1"/>
       <c r="K747" s="1"/>
-      <c r="L747" s="31"/>
+      <c r="L747" s="32"/>
       <c r="M747" s="11"/>
       <c r="N747" s="21"/>
       <c r="O747" s="1"/>
@@ -51214,7 +51251,7 @@
       <c r="I748" s="1"/>
       <c r="J748" s="1"/>
       <c r="K748" s="1"/>
-      <c r="L748" s="31"/>
+      <c r="L748" s="32"/>
       <c r="M748" s="11"/>
       <c r="N748" s="21"/>
       <c r="O748" s="1"/>
@@ -51241,7 +51278,7 @@
       <c r="I749" s="1"/>
       <c r="J749" s="1"/>
       <c r="K749" s="1"/>
-      <c r="L749" s="31"/>
+      <c r="L749" s="32"/>
       <c r="M749" s="11"/>
       <c r="N749" s="21"/>
       <c r="O749" s="1"/>
@@ -51268,7 +51305,7 @@
       <c r="I750" s="1"/>
       <c r="J750" s="1"/>
       <c r="K750" s="1"/>
-      <c r="L750" s="31"/>
+      <c r="L750" s="32"/>
       <c r="M750" s="11"/>
       <c r="N750" s="21"/>
       <c r="O750" s="1"/>
@@ -51295,7 +51332,7 @@
       <c r="I751" s="1"/>
       <c r="J751" s="1"/>
       <c r="K751" s="1"/>
-      <c r="L751" s="31"/>
+      <c r="L751" s="32"/>
       <c r="M751" s="11"/>
       <c r="N751" s="21"/>
       <c r="O751" s="1"/>
@@ -51322,7 +51359,7 @@
       <c r="I752" s="1"/>
       <c r="J752" s="1"/>
       <c r="K752" s="1"/>
-      <c r="L752" s="31"/>
+      <c r="L752" s="32"/>
       <c r="M752" s="11"/>
       <c r="N752" s="21"/>
       <c r="O752" s="1"/>
@@ -51349,7 +51386,7 @@
       <c r="I753" s="1"/>
       <c r="J753" s="1"/>
       <c r="K753" s="1"/>
-      <c r="L753" s="31"/>
+      <c r="L753" s="32"/>
       <c r="M753" s="11"/>
       <c r="N753" s="21"/>
       <c r="O753" s="1"/>
@@ -51376,7 +51413,7 @@
       <c r="I754" s="1"/>
       <c r="J754" s="1"/>
       <c r="K754" s="1"/>
-      <c r="L754" s="31"/>
+      <c r="L754" s="32"/>
       <c r="M754" s="11"/>
       <c r="N754" s="21"/>
       <c r="O754" s="1"/>
@@ -51403,7 +51440,7 @@
       <c r="I755" s="1"/>
       <c r="J755" s="1"/>
       <c r="K755" s="1"/>
-      <c r="L755" s="31"/>
+      <c r="L755" s="32"/>
       <c r="M755" s="11"/>
       <c r="N755" s="21"/>
       <c r="O755" s="1"/>
@@ -51430,7 +51467,7 @@
       <c r="I756" s="1"/>
       <c r="J756" s="1"/>
       <c r="K756" s="1"/>
-      <c r="L756" s="31"/>
+      <c r="L756" s="32"/>
       <c r="M756" s="11"/>
       <c r="N756" s="21"/>
       <c r="O756" s="1"/>
@@ -51457,7 +51494,7 @@
       <c r="I757" s="1"/>
       <c r="J757" s="1"/>
       <c r="K757" s="1"/>
-      <c r="L757" s="31"/>
+      <c r="L757" s="32"/>
       <c r="M757" s="11"/>
       <c r="N757" s="21"/>
       <c r="O757" s="1"/>
@@ -51484,7 +51521,7 @@
       <c r="I758" s="1"/>
       <c r="J758" s="1"/>
       <c r="K758" s="1"/>
-      <c r="L758" s="31"/>
+      <c r="L758" s="32"/>
       <c r="M758" s="11"/>
       <c r="N758" s="21"/>
       <c r="O758" s="1"/>
@@ -51511,7 +51548,7 @@
       <c r="I759" s="1"/>
       <c r="J759" s="1"/>
       <c r="K759" s="1"/>
-      <c r="L759" s="31"/>
+      <c r="L759" s="32"/>
       <c r="M759" s="11"/>
       <c r="N759" s="21"/>
       <c r="O759" s="1"/>
@@ -51538,7 +51575,7 @@
       <c r="I760" s="1"/>
       <c r="J760" s="1"/>
       <c r="K760" s="1"/>
-      <c r="L760" s="31"/>
+      <c r="L760" s="32"/>
       <c r="M760" s="11"/>
       <c r="N760" s="21"/>
       <c r="O760" s="1"/>
@@ -51565,7 +51602,7 @@
       <c r="I761" s="1"/>
       <c r="J761" s="1"/>
       <c r="K761" s="1"/>
-      <c r="L761" s="31"/>
+      <c r="L761" s="32"/>
       <c r="M761" s="11"/>
       <c r="N761" s="21"/>
       <c r="O761" s="1"/>
@@ -51592,7 +51629,7 @@
       <c r="I762" s="1"/>
       <c r="J762" s="1"/>
       <c r="K762" s="1"/>
-      <c r="L762" s="31"/>
+      <c r="L762" s="32"/>
       <c r="M762" s="11"/>
       <c r="N762" s="21"/>
       <c r="O762" s="1"/>
@@ -51619,7 +51656,7 @@
       <c r="I763" s="1"/>
       <c r="J763" s="1"/>
       <c r="K763" s="1"/>
-      <c r="L763" s="31"/>
+      <c r="L763" s="32"/>
       <c r="M763" s="11"/>
       <c r="N763" s="21"/>
       <c r="O763" s="1"/>
@@ -51646,7 +51683,7 @@
       <c r="I764" s="1"/>
       <c r="J764" s="1"/>
       <c r="K764" s="1"/>
-      <c r="L764" s="31"/>
+      <c r="L764" s="32"/>
       <c r="M764" s="11"/>
       <c r="N764" s="21"/>
       <c r="O764" s="1"/>
@@ -51673,7 +51710,7 @@
       <c r="I765" s="1"/>
       <c r="J765" s="1"/>
       <c r="K765" s="1"/>
-      <c r="L765" s="31"/>
+      <c r="L765" s="32"/>
       <c r="M765" s="11"/>
       <c r="N765" s="21"/>
       <c r="O765" s="1"/>
@@ -51700,7 +51737,7 @@
       <c r="I766" s="1"/>
       <c r="J766" s="1"/>
       <c r="K766" s="1"/>
-      <c r="L766" s="31"/>
+      <c r="L766" s="32"/>
       <c r="M766" s="11"/>
       <c r="N766" s="21"/>
       <c r="O766" s="1"/>
@@ -51727,7 +51764,7 @@
       <c r="I767" s="1"/>
       <c r="J767" s="1"/>
       <c r="K767" s="1"/>
-      <c r="L767" s="31"/>
+      <c r="L767" s="32"/>
       <c r="M767" s="11"/>
       <c r="N767" s="21"/>
       <c r="O767" s="1"/>
@@ -51754,7 +51791,7 @@
       <c r="I768" s="1"/>
       <c r="J768" s="1"/>
       <c r="K768" s="1"/>
-      <c r="L768" s="31"/>
+      <c r="L768" s="32"/>
       <c r="M768" s="11"/>
       <c r="N768" s="21"/>
       <c r="O768" s="1"/>
@@ -51781,7 +51818,7 @@
       <c r="I769" s="1"/>
       <c r="J769" s="1"/>
       <c r="K769" s="1"/>
-      <c r="L769" s="31"/>
+      <c r="L769" s="32"/>
       <c r="M769" s="11"/>
       <c r="N769" s="21"/>
       <c r="O769" s="1"/>
@@ -51808,7 +51845,7 @@
       <c r="I770" s="1"/>
       <c r="J770" s="1"/>
       <c r="K770" s="1"/>
-      <c r="L770" s="31"/>
+      <c r="L770" s="32"/>
       <c r="M770" s="11"/>
       <c r="N770" s="21"/>
       <c r="O770" s="1"/>
@@ -51835,7 +51872,7 @@
       <c r="I771" s="1"/>
       <c r="J771" s="1"/>
       <c r="K771" s="1"/>
-      <c r="L771" s="31"/>
+      <c r="L771" s="32"/>
       <c r="M771" s="11"/>
       <c r="N771" s="21"/>
       <c r="O771" s="1"/>
@@ -51862,7 +51899,7 @@
       <c r="I772" s="1"/>
       <c r="J772" s="1"/>
       <c r="K772" s="1"/>
-      <c r="L772" s="31"/>
+      <c r="L772" s="32"/>
       <c r="M772" s="11"/>
       <c r="N772" s="21"/>
       <c r="O772" s="1"/>
@@ -51889,7 +51926,7 @@
       <c r="I773" s="1"/>
       <c r="J773" s="1"/>
       <c r="K773" s="1"/>
-      <c r="L773" s="31"/>
+      <c r="L773" s="32"/>
       <c r="M773" s="11"/>
       <c r="N773" s="21"/>
       <c r="O773" s="1"/>
@@ -51916,7 +51953,7 @@
       <c r="I774" s="1"/>
       <c r="J774" s="1"/>
       <c r="K774" s="1"/>
-      <c r="L774" s="31"/>
+      <c r="L774" s="32"/>
       <c r="M774" s="11"/>
       <c r="N774" s="21"/>
       <c r="O774" s="1"/>
@@ -51943,7 +51980,7 @@
       <c r="I775" s="1"/>
       <c r="J775" s="1"/>
       <c r="K775" s="1"/>
-      <c r="L775" s="31"/>
+      <c r="L775" s="32"/>
       <c r="M775" s="11"/>
       <c r="N775" s="21"/>
       <c r="O775" s="1"/>
@@ -51970,7 +52007,7 @@
       <c r="I776" s="1"/>
       <c r="J776" s="1"/>
       <c r="K776" s="1"/>
-      <c r="L776" s="31"/>
+      <c r="L776" s="32"/>
       <c r="M776" s="11"/>
       <c r="N776" s="21"/>
       <c r="O776" s="1"/>
@@ -51997,7 +52034,7 @@
       <c r="I777" s="1"/>
       <c r="J777" s="1"/>
       <c r="K777" s="1"/>
-      <c r="L777" s="31"/>
+      <c r="L777" s="32"/>
       <c r="M777" s="11"/>
       <c r="N777" s="21"/>
       <c r="O777" s="1"/>
@@ -52024,7 +52061,7 @@
       <c r="I778" s="1"/>
       <c r="J778" s="1"/>
       <c r="K778" s="1"/>
-      <c r="L778" s="31"/>
+      <c r="L778" s="32"/>
       <c r="M778" s="11"/>
       <c r="N778" s="21"/>
       <c r="O778" s="1"/>
@@ -52051,7 +52088,7 @@
       <c r="I779" s="1"/>
       <c r="J779" s="1"/>
       <c r="K779" s="1"/>
-      <c r="L779" s="31"/>
+      <c r="L779" s="32"/>
       <c r="M779" s="11"/>
       <c r="N779" s="21"/>
       <c r="O779" s="1"/>
@@ -52078,7 +52115,7 @@
       <c r="I780" s="1"/>
       <c r="J780" s="1"/>
       <c r="K780" s="1"/>
-      <c r="L780" s="31"/>
+      <c r="L780" s="32"/>
       <c r="M780" s="11"/>
       <c r="N780" s="21"/>
       <c r="O780" s="1"/>
@@ -52105,7 +52142,7 @@
       <c r="I781" s="1"/>
       <c r="J781" s="1"/>
       <c r="K781" s="1"/>
-      <c r="L781" s="31"/>
+      <c r="L781" s="32"/>
       <c r="M781" s="11"/>
       <c r="N781" s="21"/>
       <c r="O781" s="1"/>
@@ -52132,7 +52169,7 @@
       <c r="I782" s="1"/>
       <c r="J782" s="1"/>
       <c r="K782" s="1"/>
-      <c r="L782" s="31"/>
+      <c r="L782" s="32"/>
       <c r="M782" s="11"/>
       <c r="N782" s="21"/>
       <c r="O782" s="1"/>
@@ -52159,7 +52196,7 @@
       <c r="I783" s="1"/>
       <c r="J783" s="1"/>
       <c r="K783" s="1"/>
-      <c r="L783" s="31"/>
+      <c r="L783" s="32"/>
       <c r="M783" s="11"/>
       <c r="N783" s="21"/>
       <c r="O783" s="1"/>
@@ -52186,7 +52223,7 @@
       <c r="I784" s="1"/>
       <c r="J784" s="1"/>
       <c r="K784" s="1"/>
-      <c r="L784" s="31"/>
+      <c r="L784" s="32"/>
       <c r="M784" s="11"/>
       <c r="N784" s="21"/>
       <c r="O784" s="1"/>
@@ -52213,7 +52250,7 @@
       <c r="I785" s="1"/>
       <c r="J785" s="1"/>
       <c r="K785" s="1"/>
-      <c r="L785" s="31"/>
+      <c r="L785" s="32"/>
       <c r="M785" s="11"/>
       <c r="N785" s="21"/>
       <c r="O785" s="1"/>
@@ -52240,7 +52277,7 @@
       <c r="I786" s="1"/>
       <c r="J786" s="1"/>
       <c r="K786" s="1"/>
-      <c r="L786" s="31"/>
+      <c r="L786" s="32"/>
       <c r="M786" s="11"/>
       <c r="N786" s="21"/>
       <c r="O786" s="1"/>
@@ -52267,7 +52304,7 @@
       <c r="I787" s="1"/>
       <c r="J787" s="1"/>
       <c r="K787" s="1"/>
-      <c r="L787" s="31"/>
+      <c r="L787" s="32"/>
       <c r="M787" s="11"/>
       <c r="N787" s="21"/>
       <c r="O787" s="1"/>
@@ -52294,7 +52331,7 @@
       <c r="I788" s="1"/>
       <c r="J788" s="1"/>
       <c r="K788" s="1"/>
-      <c r="L788" s="31"/>
+      <c r="L788" s="32"/>
       <c r="M788" s="11"/>
       <c r="N788" s="21"/>
       <c r="O788" s="1"/>
@@ -52321,7 +52358,7 @@
       <c r="I789" s="1"/>
       <c r="J789" s="1"/>
       <c r="K789" s="1"/>
-      <c r="L789" s="31"/>
+      <c r="L789" s="32"/>
       <c r="M789" s="11"/>
       <c r="N789" s="21"/>
       <c r="O789" s="1"/>
@@ -52348,7 +52385,7 @@
       <c r="I790" s="1"/>
       <c r="J790" s="1"/>
       <c r="K790" s="1"/>
-      <c r="L790" s="31"/>
+      <c r="L790" s="32"/>
       <c r="M790" s="11"/>
       <c r="N790" s="21"/>
       <c r="O790" s="1"/>
@@ -52375,7 +52412,7 @@
       <c r="I791" s="1"/>
       <c r="J791" s="1"/>
       <c r="K791" s="1"/>
-      <c r="L791" s="31"/>
+      <c r="L791" s="32"/>
       <c r="M791" s="11"/>
       <c r="N791" s="21"/>
       <c r="O791" s="1"/>
@@ -52402,7 +52439,7 @@
       <c r="I792" s="1"/>
       <c r="J792" s="1"/>
       <c r="K792" s="1"/>
-      <c r="L792" s="31"/>
+      <c r="L792" s="32"/>
       <c r="M792" s="11"/>
       <c r="N792" s="21"/>
       <c r="O792" s="1"/>
@@ -52429,7 +52466,7 @@
       <c r="I793" s="1"/>
       <c r="J793" s="1"/>
       <c r="K793" s="1"/>
-      <c r="L793" s="31"/>
+      <c r="L793" s="32"/>
       <c r="M793" s="11"/>
       <c r="N793" s="21"/>
       <c r="O793" s="1"/>
@@ -52456,7 +52493,7 @@
       <c r="I794" s="1"/>
       <c r="J794" s="1"/>
       <c r="K794" s="1"/>
-      <c r="L794" s="31"/>
+      <c r="L794" s="32"/>
       <c r="M794" s="11"/>
       <c r="N794" s="21"/>
       <c r="O794" s="1"/>
@@ -52483,7 +52520,7 @@
       <c r="I795" s="1"/>
       <c r="J795" s="1"/>
       <c r="K795" s="1"/>
-      <c r="L795" s="31"/>
+      <c r="L795" s="32"/>
       <c r="M795" s="11"/>
       <c r="N795" s="21"/>
       <c r="O795" s="1"/>
@@ -52510,7 +52547,7 @@
       <c r="I796" s="1"/>
       <c r="J796" s="1"/>
       <c r="K796" s="1"/>
-      <c r="L796" s="31"/>
+      <c r="L796" s="32"/>
       <c r="M796" s="11"/>
       <c r="N796" s="21"/>
       <c r="O796" s="1"/>
@@ -52537,7 +52574,7 @@
       <c r="I797" s="1"/>
       <c r="J797" s="1"/>
       <c r="K797" s="1"/>
-      <c r="L797" s="31"/>
+      <c r="L797" s="32"/>
       <c r="M797" s="11"/>
       <c r="N797" s="21"/>
       <c r="O797" s="1"/>
@@ -52564,7 +52601,7 @@
       <c r="I798" s="1"/>
       <c r="J798" s="1"/>
       <c r="K798" s="1"/>
-      <c r="L798" s="31"/>
+      <c r="L798" s="32"/>
       <c r="M798" s="11"/>
       <c r="N798" s="21"/>
       <c r="O798" s="1"/>
@@ -52591,7 +52628,7 @@
       <c r="I799" s="1"/>
       <c r="J799" s="1"/>
       <c r="K799" s="1"/>
-      <c r="L799" s="31"/>
+      <c r="L799" s="32"/>
       <c r="M799" s="11"/>
       <c r="N799" s="21"/>
       <c r="O799" s="1"/>
@@ -52618,7 +52655,7 @@
       <c r="I800" s="1"/>
       <c r="J800" s="1"/>
       <c r="K800" s="1"/>
-      <c r="L800" s="31"/>
+      <c r="L800" s="32"/>
       <c r="M800" s="11"/>
       <c r="N800" s="21"/>
       <c r="O800" s="1"/>
@@ -52645,7 +52682,7 @@
       <c r="I801" s="1"/>
       <c r="J801" s="1"/>
       <c r="K801" s="1"/>
-      <c r="L801" s="31"/>
+      <c r="L801" s="32"/>
       <c r="M801" s="11"/>
       <c r="N801" s="21"/>
       <c r="O801" s="1"/>
@@ -52672,7 +52709,7 @@
       <c r="I802" s="1"/>
       <c r="J802" s="1"/>
       <c r="K802" s="1"/>
-      <c r="L802" s="31"/>
+      <c r="L802" s="32"/>
       <c r="M802" s="11"/>
       <c r="N802" s="21"/>
       <c r="O802" s="1"/>
@@ -52699,7 +52736,7 @@
       <c r="I803" s="1"/>
       <c r="J803" s="1"/>
       <c r="K803" s="1"/>
-      <c r="L803" s="31"/>
+      <c r="L803" s="32"/>
       <c r="M803" s="11"/>
       <c r="N803" s="21"/>
       <c r="O803" s="1"/>
@@ -52726,7 +52763,7 @@
       <c r="I804" s="1"/>
       <c r="J804" s="1"/>
       <c r="K804" s="1"/>
-      <c r="L804" s="31"/>
+      <c r="L804" s="32"/>
       <c r="M804" s="11"/>
       <c r="N804" s="21"/>
       <c r="O804" s="1"/>
@@ -52753,7 +52790,7 @@
       <c r="I805" s="1"/>
       <c r="J805" s="1"/>
       <c r="K805" s="1"/>
-      <c r="L805" s="31"/>
+      <c r="L805" s="32"/>
       <c r="M805" s="11"/>
       <c r="N805" s="21"/>
       <c r="O805" s="1"/>
@@ -52780,7 +52817,7 @@
       <c r="I806" s="1"/>
       <c r="J806" s="1"/>
       <c r="K806" s="1"/>
-      <c r="L806" s="31"/>
+      <c r="L806" s="32"/>
       <c r="M806" s="11"/>
       <c r="N806" s="21"/>
       <c r="O806" s="1"/>
@@ -52807,7 +52844,7 @@
       <c r="I807" s="1"/>
       <c r="J807" s="1"/>
       <c r="K807" s="1"/>
-      <c r="L807" s="31"/>
+      <c r="L807" s="32"/>
       <c r="M807" s="11"/>
       <c r="N807" s="21"/>
       <c r="O807" s="1"/>
@@ -52834,7 +52871,7 @@
       <c r="I808" s="1"/>
       <c r="J808" s="1"/>
       <c r="K808" s="1"/>
-      <c r="L808" s="31"/>
+      <c r="L808" s="32"/>
       <c r="M808" s="11"/>
       <c r="N808" s="21"/>
       <c r="O808" s="1"/>
@@ -52861,7 +52898,7 @@
       <c r="I809" s="1"/>
       <c r="J809" s="1"/>
       <c r="K809" s="1"/>
-      <c r="L809" s="31"/>
+      <c r="L809" s="32"/>
       <c r="M809" s="11"/>
       <c r="N809" s="21"/>
       <c r="O809" s="1"/>
@@ -52888,7 +52925,7 @@
       <c r="I810" s="1"/>
       <c r="J810" s="1"/>
       <c r="K810" s="1"/>
-      <c r="L810" s="31"/>
+      <c r="L810" s="32"/>
       <c r="M810" s="11"/>
       <c r="N810" s="21"/>
       <c r="O810" s="1"/>
@@ -52915,7 +52952,7 @@
       <c r="I811" s="1"/>
       <c r="J811" s="1"/>
       <c r="K811" s="1"/>
-      <c r="L811" s="31"/>
+      <c r="L811" s="32"/>
       <c r="M811" s="11"/>
       <c r="N811" s="21"/>
       <c r="O811" s="1"/>
@@ -52942,7 +52979,7 @@
       <c r="I812" s="1"/>
       <c r="J812" s="1"/>
       <c r="K812" s="1"/>
-      <c r="L812" s="31"/>
+      <c r="L812" s="32"/>
       <c r="M812" s="11"/>
       <c r="N812" s="21"/>
       <c r="O812" s="1"/>
@@ -52969,7 +53006,7 @@
       <c r="I813" s="1"/>
       <c r="J813" s="1"/>
       <c r="K813" s="1"/>
-      <c r="L813" s="31"/>
+      <c r="L813" s="32"/>
       <c r="M813" s="11"/>
       <c r="N813" s="21"/>
       <c r="O813" s="1"/>
@@ -52996,7 +53033,7 @@
       <c r="I814" s="1"/>
       <c r="J814" s="1"/>
       <c r="K814" s="1"/>
-      <c r="L814" s="31"/>
+      <c r="L814" s="32"/>
       <c r="M814" s="11"/>
       <c r="N814" s="21"/>
       <c r="O814" s="1"/>
@@ -53023,7 +53060,7 @@
       <c r="I815" s="1"/>
       <c r="J815" s="1"/>
       <c r="K815" s="1"/>
-      <c r="L815" s="31"/>
+      <c r="L815" s="32"/>
       <c r="M815" s="11"/>
       <c r="N815" s="21"/>
       <c r="O815" s="1"/>
@@ -53050,7 +53087,7 @@
       <c r="I816" s="1"/>
       <c r="J816" s="1"/>
       <c r="K816" s="1"/>
-      <c r="L816" s="31"/>
+      <c r="L816" s="32"/>
       <c r="M816" s="11"/>
       <c r="N816" s="21"/>
       <c r="O816" s="1"/>
@@ -53077,7 +53114,7 @@
       <c r="I817" s="1"/>
       <c r="J817" s="1"/>
       <c r="K817" s="1"/>
-      <c r="L817" s="31"/>
+      <c r="L817" s="32"/>
       <c r="M817" s="11"/>
       <c r="N817" s="21"/>
       <c r="O817" s="1"/>
@@ -53104,7 +53141,7 @@
       <c r="I818" s="1"/>
       <c r="J818" s="1"/>
       <c r="K818" s="1"/>
-      <c r="L818" s="31"/>
+      <c r="L818" s="32"/>
       <c r="M818" s="11"/>
       <c r="N818" s="21"/>
       <c r="O818" s="1"/>
@@ -53131,7 +53168,7 @@
       <c r="I819" s="1"/>
       <c r="J819" s="1"/>
       <c r="K819" s="1"/>
-      <c r="L819" s="31"/>
+      <c r="L819" s="32"/>
       <c r="M819" s="11"/>
       <c r="N819" s="21"/>
       <c r="O819" s="1"/>
@@ -53158,7 +53195,7 @@
       <c r="I820" s="1"/>
       <c r="J820" s="1"/>
       <c r="K820" s="1"/>
-      <c r="L820" s="31"/>
+      <c r="L820" s="32"/>
       <c r="M820" s="11"/>
       <c r="N820" s="21"/>
       <c r="O820" s="1"/>
@@ -53185,7 +53222,7 @@
       <c r="I821" s="1"/>
       <c r="J821" s="1"/>
       <c r="K821" s="1"/>
-      <c r="L821" s="31"/>
+      <c r="L821" s="32"/>
       <c r="M821" s="11"/>
       <c r="N821" s="21"/>
       <c r="O821" s="1"/>
@@ -53212,7 +53249,7 @@
       <c r="I822" s="1"/>
       <c r="J822" s="1"/>
       <c r="K822" s="1"/>
-      <c r="L822" s="31"/>
+      <c r="L822" s="32"/>
       <c r="M822" s="11"/>
       <c r="N822" s="21"/>
       <c r="O822" s="1"/>
@@ -53239,7 +53276,7 @@
       <c r="I823" s="1"/>
       <c r="J823" s="1"/>
       <c r="K823" s="1"/>
-      <c r="L823" s="31"/>
+      <c r="L823" s="32"/>
       <c r="M823" s="11"/>
       <c r="N823" s="21"/>
       <c r="O823" s="1"/>
@@ -53266,7 +53303,7 @@
       <c r="I824" s="1"/>
       <c r="J824" s="1"/>
       <c r="K824" s="1"/>
-      <c r="L824" s="31"/>
+      <c r="L824" s="32"/>
       <c r="M824" s="11"/>
       <c r="N824" s="21"/>
       <c r="O824" s="1"/>
@@ -53293,7 +53330,7 @@
       <c r="I825" s="1"/>
       <c r="J825" s="1"/>
       <c r="K825" s="1"/>
-      <c r="L825" s="31"/>
+      <c r="L825" s="32"/>
       <c r="M825" s="11"/>
       <c r="N825" s="21"/>
       <c r="O825" s="1"/>
@@ -53320,7 +53357,7 @@
       <c r="I826" s="1"/>
       <c r="J826" s="1"/>
       <c r="K826" s="1"/>
-      <c r="L826" s="31"/>
+      <c r="L826" s="32"/>
       <c r="M826" s="11"/>
       <c r="N826" s="21"/>
       <c r="O826" s="1"/>
@@ -53347,7 +53384,7 @@
       <c r="I827" s="1"/>
       <c r="J827" s="1"/>
       <c r="K827" s="1"/>
-      <c r="L827" s="31"/>
+      <c r="L827" s="32"/>
       <c r="M827" s="11"/>
       <c r="N827" s="21"/>
       <c r="O827" s="1"/>
@@ -53374,7 +53411,7 @@
       <c r="I828" s="1"/>
       <c r="J828" s="1"/>
       <c r="K828" s="1"/>
-      <c r="L828" s="31"/>
+      <c r="L828" s="32"/>
       <c r="M828" s="11"/>
       <c r="N828" s="21"/>
       <c r="O828" s="1"/>
@@ -53401,7 +53438,7 @@
       <c r="I829" s="1"/>
       <c r="J829" s="1"/>
       <c r="K829" s="1"/>
-      <c r="L829" s="31"/>
+      <c r="L829" s="32"/>
       <c r="M829" s="11"/>
       <c r="N829" s="21"/>
       <c r="O829" s="1"/>
@@ -53428,7 +53465,7 @@
       <c r="I830" s="1"/>
       <c r="J830" s="1"/>
       <c r="K830" s="1"/>
-      <c r="L830" s="31"/>
+      <c r="L830" s="32"/>
       <c r="M830" s="11"/>
       <c r="N830" s="21"/>
       <c r="O830" s="1"/>
@@ -53455,7 +53492,7 @@
       <c r="I831" s="1"/>
       <c r="J831" s="1"/>
       <c r="K831" s="1"/>
-      <c r="L831" s="31"/>
+      <c r="L831" s="32"/>
       <c r="M831" s="11"/>
       <c r="N831" s="21"/>
       <c r="O831" s="1"/>
@@ -53482,7 +53519,7 @@
       <c r="I832" s="1"/>
       <c r="J832" s="1"/>
       <c r="K832" s="1"/>
-      <c r="L832" s="31"/>
+      <c r="L832" s="32"/>
       <c r="M832" s="11"/>
       <c r="N832" s="21"/>
       <c r="O832" s="1"/>
@@ -53509,7 +53546,7 @@
       <c r="I833" s="1"/>
       <c r="J833" s="1"/>
       <c r="K833" s="1"/>
-      <c r="L833" s="31"/>
+      <c r="L833" s="32"/>
       <c r="M833" s="11"/>
       <c r="N833" s="21"/>
       <c r="O833" s="1"/>
@@ -53536,7 +53573,7 @@
       <c r="I834" s="1"/>
       <c r="J834" s="1"/>
       <c r="K834" s="1"/>
-      <c r="L834" s="31"/>
+      <c r="L834" s="32"/>
       <c r="M834" s="11"/>
       <c r="N834" s="21"/>
       <c r="O834" s="1"/>
@@ -53563,7 +53600,7 @@
       <c r="I835" s="1"/>
       <c r="J835" s="1"/>
       <c r="K835" s="1"/>
-      <c r="L835" s="31"/>
+      <c r="L835" s="32"/>
       <c r="M835" s="11"/>
       <c r="N835" s="21"/>
       <c r="O835" s="1"/>
@@ -53590,7 +53627,7 @@
       <c r="I836" s="1"/>
       <c r="J836" s="1"/>
       <c r="K836" s="1"/>
-      <c r="L836" s="31"/>
+      <c r="L836" s="32"/>
       <c r="M836" s="11"/>
       <c r="N836" s="21"/>
       <c r="O836" s="1"/>
@@ -53617,7 +53654,7 @@
       <c r="I837" s="1"/>
       <c r="J837" s="1"/>
       <c r="K837" s="1"/>
-      <c r="L837" s="31"/>
+      <c r="L837" s="32"/>
       <c r="M837" s="11"/>
       <c r="N837" s="21"/>
       <c r="O837" s="1"/>
@@ -53644,7 +53681,7 @@
       <c r="I838" s="1"/>
       <c r="J838" s="1"/>
       <c r="K838" s="1"/>
-      <c r="L838" s="31"/>
+      <c r="L838" s="32"/>
       <c r="M838" s="11"/>
       <c r="N838" s="21"/>
       <c r="O838" s="1"/>
@@ -53671,7 +53708,7 @@
       <c r="I839" s="1"/>
       <c r="J839" s="1"/>
       <c r="K839" s="1"/>
-      <c r="L839" s="31"/>
+      <c r="L839" s="32"/>
       <c r="M839" s="11"/>
       <c r="N839" s="21"/>
       <c r="O839" s="1"/>
@@ -53698,7 +53735,7 @@
       <c r="I840" s="1"/>
       <c r="J840" s="1"/>
       <c r="K840" s="1"/>
-      <c r="L840" s="31"/>
+      <c r="L840" s="32"/>
       <c r="M840" s="11"/>
       <c r="N840" s="21"/>
       <c r="O840" s="1"/>
@@ -53725,7 +53762,7 @@
       <c r="I841" s="1"/>
       <c r="J841" s="1"/>
       <c r="K841" s="1"/>
-      <c r="L841" s="31"/>
+      <c r="L841" s="32"/>
       <c r="M841" s="11"/>
       <c r="N841" s="21"/>
       <c r="O841" s="1"/>
@@ -53752,7 +53789,7 @@
       <c r="I842" s="1"/>
       <c r="J842" s="1"/>
       <c r="K842" s="1"/>
-      <c r="L842" s="31"/>
+      <c r="L842" s="32"/>
       <c r="M842" s="11"/>
       <c r="N842" s="21"/>
       <c r="O842" s="1"/>
@@ -53779,7 +53816,7 @@
       <c r="I843" s="1"/>
       <c r="J843" s="1"/>
       <c r="K843" s="1"/>
-      <c r="L843" s="31"/>
+      <c r="L843" s="32"/>
       <c r="M843" s="11"/>
       <c r="N843" s="21"/>
       <c r="O843" s="1"/>
@@ -53806,7 +53843,7 @@
       <c r="I844" s="1"/>
       <c r="J844" s="1"/>
       <c r="K844" s="1"/>
-      <c r="L844" s="31"/>
+      <c r="L844" s="32"/>
       <c r="M844" s="11"/>
       <c r="N844" s="21"/>
       <c r="O844" s="1"/>
@@ -53833,7 +53870,7 @@
       <c r="I845" s="1"/>
       <c r="J845" s="1"/>
       <c r="K845" s="1"/>
-      <c r="L845" s="31"/>
+      <c r="L845" s="32"/>
       <c r="M845" s="11"/>
       <c r="N845" s="21"/>
       <c r="O845" s="1"/>
@@ -53860,7 +53897,7 @@
       <c r="I846" s="1"/>
       <c r="J846" s="1"/>
       <c r="K846" s="1"/>
-      <c r="L846" s="31"/>
+      <c r="L846" s="32"/>
       <c r="M846" s="11"/>
       <c r="N846" s="21"/>
       <c r="O846" s="1"/>
@@ -53887,7 +53924,7 @@
       <c r="I847" s="1"/>
       <c r="J847" s="1"/>
       <c r="K847" s="1"/>
-      <c r="L847" s="31"/>
+      <c r="L847" s="32"/>
       <c r="M847" s="11"/>
       <c r="N847" s="21"/>
       <c r="O847" s="1"/>
@@ -53914,7 +53951,7 @@
       <c r="I848" s="1"/>
       <c r="J848" s="1"/>
       <c r="K848" s="1"/>
-      <c r="L848" s="31"/>
+      <c r="L848" s="32"/>
       <c r="M848" s="11"/>
       <c r="N848" s="21"/>
       <c r="O848" s="1"/>
@@ -53941,7 +53978,7 @@
       <c r="I849" s="1"/>
       <c r="J849" s="1"/>
       <c r="K849" s="1"/>
-      <c r="L849" s="31"/>
+      <c r="L849" s="32"/>
       <c r="M849" s="11"/>
       <c r="N849" s="21"/>
       <c r="O849" s="1"/>
@@ -53968,7 +54005,7 @@
       <c r="I850" s="1"/>
       <c r="J850" s="1"/>
       <c r="K850" s="1"/>
-      <c r="L850" s="31"/>
+      <c r="L850" s="32"/>
       <c r="M850" s="11"/>
       <c r="N850" s="21"/>
       <c r="O850" s="1"/>
@@ -53995,7 +54032,7 @@
       <c r="I851" s="1"/>
       <c r="J851" s="1"/>
       <c r="K851" s="1"/>
-      <c r="L851" s="31"/>
+      <c r="L851" s="32"/>
       <c r="M851" s="11"/>
       <c r="N851" s="21"/>
       <c r="O851" s="1"/>
@@ -54022,7 +54059,7 @@
       <c r="I852" s="1"/>
       <c r="J852" s="1"/>
       <c r="K852" s="1"/>
-      <c r="L852" s="31"/>
+      <c r="L852" s="32"/>
       <c r="M852" s="11"/>
       <c r="N852" s="21"/>
       <c r="O852" s="1"/>
@@ -54049,7 +54086,7 @@
       <c r="I853" s="1"/>
       <c r="J853" s="1"/>
       <c r="K853" s="1"/>
-      <c r="L853" s="31"/>
+      <c r="L853" s="32"/>
       <c r="M853" s="11"/>
       <c r="N853" s="21"/>
       <c r="O853" s="1"/>
@@ -54076,7 +54113,7 @@
       <c r="I854" s="1"/>
       <c r="J854" s="1"/>
       <c r="K854" s="1"/>
-      <c r="L854" s="31"/>
+      <c r="L854" s="32"/>
       <c r="M854" s="11"/>
       <c r="N854" s="21"/>
       <c r="O854" s="1"/>
@@ -54103,7 +54140,7 @@
       <c r="I855" s="1"/>
       <c r="J855" s="1"/>
       <c r="K855" s="1"/>
-      <c r="L855" s="31"/>
+      <c r="L855" s="32"/>
       <c r="M855" s="11"/>
       <c r="N855" s="21"/>
       <c r="O855" s="1"/>
@@ -54130,7 +54167,7 @@
       <c r="I856" s="1"/>
       <c r="J856" s="1"/>
       <c r="K856" s="1"/>
-      <c r="L856" s="31"/>
+      <c r="L856" s="32"/>
       <c r="M856" s="11"/>
       <c r="N856" s="21"/>
       <c r="O856" s="1"/>
@@ -54157,7 +54194,7 @@
       <c r="I857" s="1"/>
       <c r="J857" s="1"/>
       <c r="K857" s="1"/>
-      <c r="L857" s="31"/>
+      <c r="L857" s="32"/>
       <c r="M857" s="11"/>
       <c r="N857" s="21"/>
       <c r="O857" s="1"/>
@@ -54184,7 +54221,7 @@
       <c r="I858" s="1"/>
       <c r="J858" s="1"/>
       <c r="K858" s="1"/>
-      <c r="L858" s="31"/>
+      <c r="L858" s="32"/>
       <c r="M858" s="11"/>
       <c r="N858" s="21"/>
       <c r="O858" s="1"/>
@@ -54211,7 +54248,7 @@
       <c r="I859" s="1"/>
       <c r="J859" s="1"/>
       <c r="K859" s="1"/>
-      <c r="L859" s="31"/>
+      <c r="L859" s="32"/>
       <c r="M859" s="11"/>
       <c r="N859" s="21"/>
       <c r="O859" s="1"/>
@@ -54238,7 +54275,7 @@
       <c r="I860" s="1"/>
       <c r="J860" s="1"/>
       <c r="K860" s="1"/>
-      <c r="L860" s="31"/>
+      <c r="L860" s="32"/>
       <c r="M860" s="11"/>
       <c r="N860" s="21"/>
       <c r="O860" s="1"/>
@@ -54265,7 +54302,7 @@
       <c r="I861" s="1"/>
       <c r="J861" s="1"/>
       <c r="K861" s="1"/>
-      <c r="L861" s="31"/>
+      <c r="L861" s="32"/>
       <c r="M861" s="11"/>
       <c r="N861" s="21"/>
       <c r="O861" s="1"/>
@@ -54292,7 +54329,7 @@
       <c r="I862" s="1"/>
       <c r="J862" s="1"/>
       <c r="K862" s="1"/>
-      <c r="L862" s="31"/>
+      <c r="L862" s="32"/>
       <c r="M862" s="11"/>
       <c r="N862" s="21"/>
       <c r="O862" s="1"/>
@@ -54319,7 +54356,7 @@
       <c r="I863" s="1"/>
       <c r="J863" s="1"/>
       <c r="K863" s="1"/>
-      <c r="L863" s="31"/>
+      <c r="L863" s="32"/>
       <c r="M863" s="11"/>
       <c r="N863" s="21"/>
       <c r="O863" s="1"/>
@@ -54346,7 +54383,7 @@
       <c r="I864" s="1"/>
       <c r="J864" s="1"/>
       <c r="K864" s="1"/>
-      <c r="L864" s="31"/>
+      <c r="L864" s="32"/>
       <c r="M864" s="11"/>
       <c r="N864" s="21"/>
       <c r="O864" s="1"/>
@@ -54373,7 +54410,7 @@
       <c r="I865" s="1"/>
       <c r="J865" s="1"/>
       <c r="K865" s="1"/>
-      <c r="L865" s="31"/>
+      <c r="L865" s="32"/>
       <c r="M865" s="11"/>
       <c r="N865" s="21"/>
       <c r="O865" s="1"/>
@@ -54400,7 +54437,7 @@
       <c r="I866" s="1"/>
       <c r="J866" s="1"/>
       <c r="K866" s="1"/>
-      <c r="L866" s="31"/>
+      <c r="L866" s="32"/>
       <c r="M866" s="11"/>
       <c r="N866" s="21"/>
       <c r="O866" s="1"/>
@@ -54427,7 +54464,7 @@
       <c r="I867" s="1"/>
       <c r="J867" s="1"/>
       <c r="K867" s="1"/>
-      <c r="L867" s="31"/>
+      <c r="L867" s="32"/>
       <c r="M867" s="11"/>
       <c r="N867" s="21"/>
       <c r="O867" s="1"/>
@@ -54454,7 +54491,7 @@
       <c r="I868" s="1"/>
       <c r="J868" s="1"/>
       <c r="K868" s="1"/>
-      <c r="L868" s="31"/>
+      <c r="L868" s="32"/>
       <c r="M868" s="11"/>
       <c r="N868" s="21"/>
       <c r="O868" s="1"/>
@@ -54481,7 +54518,7 @@
       <c r="I869" s="1"/>
       <c r="J869" s="1"/>
       <c r="K869" s="1"/>
-      <c r="L869" s="31"/>
+      <c r="L869" s="32"/>
       <c r="M869" s="11"/>
       <c r="N869" s="21"/>
       <c r="O869" s="1"/>
@@ -54508,7 +54545,7 @@
       <c r="I870" s="1"/>
       <c r="J870" s="1"/>
       <c r="K870" s="1"/>
-      <c r="L870" s="31"/>
+      <c r="L870" s="32"/>
       <c r="M870" s="11"/>
       <c r="N870" s="21"/>
       <c r="O870" s="1"/>
@@ -54535,7 +54572,7 @@
       <c r="I871" s="1"/>
       <c r="J871" s="1"/>
       <c r="K871" s="1"/>
-      <c r="L871" s="31"/>
+      <c r="L871" s="32"/>
       <c r="M871" s="11"/>
       <c r="N871" s="21"/>
       <c r="O871" s="1"/>
@@ -54562,7 +54599,7 @@
       <c r="I872" s="1"/>
       <c r="J872" s="1"/>
       <c r="K872" s="1"/>
-      <c r="L872" s="31"/>
+      <c r="L872" s="32"/>
       <c r="M872" s="11"/>
       <c r="N872" s="21"/>
       <c r="O872" s="1"/>
@@ -54589,7 +54626,7 @@
       <c r="I873" s="1"/>
       <c r="J873" s="1"/>
       <c r="K873" s="1"/>
-      <c r="L873" s="31"/>
+      <c r="L873" s="32"/>
       <c r="M873" s="11"/>
       <c r="N873" s="21"/>
       <c r="O873" s="1"/>
@@ -54616,7 +54653,7 @@
       <c r="I874" s="1"/>
       <c r="J874" s="1"/>
       <c r="K874" s="1"/>
-      <c r="L874" s="31"/>
+      <c r="L874" s="32"/>
       <c r="M874" s="11"/>
       <c r="N874" s="21"/>
       <c r="O874" s="1"/>
@@ -54643,7 +54680,7 @@
       <c r="I875" s="1"/>
       <c r="J875" s="1"/>
       <c r="K875" s="1"/>
-      <c r="L875" s="31"/>
+      <c r="L875" s="32"/>
       <c r="M875" s="11"/>
       <c r="N875" s="21"/>
       <c r="O875" s="1"/>
@@ -54670,7 +54707,7 @@
       <c r="I876" s="1"/>
       <c r="J876" s="1"/>
       <c r="K876" s="1"/>
-      <c r="L876" s="31"/>
+      <c r="L876" s="32"/>
       <c r="M876" s="11"/>
       <c r="N876" s="21"/>
       <c r="O876" s="1"/>
@@ -54697,7 +54734,7 @@
       <c r="I877" s="1"/>
       <c r="J877" s="1"/>
       <c r="K877" s="1"/>
-      <c r="L877" s="31"/>
+      <c r="L877" s="32"/>
       <c r="M877" s="11"/>
       <c r="N877" s="21"/>
       <c r="O877" s="1"/>
@@ -54724,7 +54761,7 @@
       <c r="I878" s="1"/>
       <c r="J878" s="1"/>
       <c r="K878" s="1"/>
-      <c r="L878" s="31"/>
+      <c r="L878" s="32"/>
       <c r="M878" s="11"/>
       <c r="N878" s="21"/>
       <c r="O878" s="1"/>
@@ -54751,7 +54788,7 @@
       <c r="I879" s="1"/>
       <c r="J879" s="1"/>
       <c r="K879" s="1"/>
-      <c r="L879" s="31"/>
+      <c r="L879" s="32"/>
       <c r="M879" s="11"/>
       <c r="N879" s="21"/>
       <c r="O879" s="1"/>
@@ -54778,7 +54815,7 @@
       <c r="I880" s="1"/>
       <c r="J880" s="1"/>
       <c r="K880" s="1"/>
-      <c r="L880" s="31"/>
+      <c r="L880" s="32"/>
       <c r="M880" s="11"/>
       <c r="N880" s="21"/>
       <c r="O880" s="1"/>
@@ -54805,7 +54842,7 @@
       <c r="I881" s="1"/>
       <c r="J881" s="1"/>
       <c r="K881" s="1"/>
-      <c r="L881" s="31"/>
+      <c r="L881" s="32"/>
       <c r="M881" s="11"/>
       <c r="N881" s="21"/>
       <c r="O881" s="1"/>
@@ -54832,7 +54869,7 @@
       <c r="I882" s="1"/>
       <c r="J882" s="1"/>
       <c r="K882" s="1"/>
-      <c r="L882" s="31"/>
+      <c r="L882" s="32"/>
       <c r="M882" s="11"/>
       <c r="N882" s="21"/>
       <c r="O882" s="1"/>
@@ -54859,7 +54896,7 @@
       <c r="I883" s="1"/>
       <c r="J883" s="1"/>
       <c r="K883" s="1"/>
-      <c r="L883" s="31"/>
+      <c r="L883" s="32"/>
       <c r="M883" s="11"/>
       <c r="N883" s="21"/>
       <c r="O883" s="1"/>
@@ -54886,7 +54923,7 @@
       <c r="I884" s="1"/>
       <c r="J884" s="1"/>
       <c r="K884" s="1"/>
-      <c r="L884" s="31"/>
+      <c r="L884" s="32"/>
       <c r="M884" s="11"/>
       <c r="N884" s="21"/>
       <c r="O884" s="1"/>
@@ -54913,7 +54950,7 @@
       <c r="I885" s="1"/>
       <c r="J885" s="1"/>
       <c r="K885" s="1"/>
-      <c r="L885" s="31"/>
+      <c r="L885" s="32"/>
       <c r="M885" s="11"/>
       <c r="N885" s="21"/>
       <c r="O885" s="1"/>
@@ -54940,7 +54977,7 @@
       <c r="I886" s="1"/>
       <c r="J886" s="1"/>
       <c r="K886" s="1"/>
-      <c r="L886" s="31"/>
+      <c r="L886" s="32"/>
       <c r="M886" s="11"/>
       <c r="N886" s="21"/>
       <c r="O886" s="1"/>
@@ -54967,7 +55004,7 @@
       <c r="I887" s="1"/>
       <c r="J887" s="1"/>
       <c r="K887" s="1"/>
-      <c r="L887" s="31"/>
+      <c r="L887" s="32"/>
       <c r="M887" s="11"/>
       <c r="N887" s="21"/>
       <c r="O887" s="1"/>
@@ -54994,7 +55031,7 @@
       <c r="I888" s="1"/>
       <c r="J888" s="1"/>
       <c r="K888" s="1"/>
-      <c r="L888" s="31"/>
+      <c r="L888" s="32"/>
       <c r="M888" s="11"/>
       <c r="N888" s="21"/>
       <c r="O888" s="1"/>
@@ -55021,7 +55058,7 @@
       <c r="I889" s="1"/>
       <c r="J889" s="1"/>
       <c r="K889" s="1"/>
-      <c r="L889" s="31"/>
+      <c r="L889" s="32"/>
       <c r="M889" s="11"/>
       <c r="N889" s="21"/>
       <c r="O889" s="1"/>
@@ -55048,7 +55085,7 @@
       <c r="I890" s="1"/>
       <c r="J890" s="1"/>
       <c r="K890" s="1"/>
-      <c r="L890" s="31"/>
+      <c r="L890" s="32"/>
       <c r="M890" s="11"/>
       <c r="N890" s="21"/>
       <c r="O890" s="1"/>
@@ -55075,7 +55112,7 @@
       <c r="I891" s="1"/>
       <c r="J891" s="1"/>
       <c r="K891" s="1"/>
-      <c r="L891" s="31"/>
+      <c r="L891" s="32"/>
       <c r="M891" s="11"/>
       <c r="N891" s="21"/>
       <c r="O891" s="1"/>
@@ -55102,7 +55139,7 @@
       <c r="I892" s="1"/>
       <c r="J892" s="1"/>
       <c r="K892" s="1"/>
-      <c r="L892" s="31"/>
+      <c r="L892" s="32"/>
       <c r="M892" s="11"/>
       <c r="N892" s="21"/>
       <c r="O892" s="1"/>
@@ -55129,7 +55166,7 @@
       <c r="I893" s="1"/>
       <c r="J893" s="1"/>
       <c r="K893" s="1"/>
-      <c r="L893" s="31"/>
+      <c r="L893" s="32"/>
       <c r="M893" s="11"/>
       <c r="N893" s="21"/>
       <c r="O893" s="1"/>
@@ -55156,7 +55193,7 @@
       <c r="I894" s="1"/>
       <c r="J894" s="1"/>
       <c r="K894" s="1"/>
-      <c r="L894" s="31"/>
+      <c r="L894" s="32"/>
       <c r="M894" s="11"/>
       <c r="N894" s="21"/>
       <c r="O894" s="1"/>
@@ -55183,7 +55220,7 @@
       <c r="I895" s="1"/>
       <c r="J895" s="1"/>
       <c r="K895" s="1"/>
-      <c r="L895" s="31"/>
+      <c r="L895" s="32"/>
       <c r="M895" s="11"/>
       <c r="N895" s="21"/>
       <c r="O895" s="1"/>
@@ -55210,7 +55247,7 @@
       <c r="I896" s="1"/>
       <c r="J896" s="1"/>
       <c r="K896" s="1"/>
-      <c r="L896" s="31"/>
+      <c r="L896" s="32"/>
       <c r="M896" s="11"/>
       <c r="N896" s="21"/>
       <c r="O896" s="1"/>
@@ -55237,7 +55274,7 @@
       <c r="I897" s="1"/>
       <c r="J897" s="1"/>
       <c r="K897" s="1"/>
-      <c r="L897" s="31"/>
+      <c r="L897" s="32"/>
       <c r="M897" s="11"/>
       <c r="N897" s="21"/>
       <c r="O897" s="1"/>
@@ -55264,7 +55301,7 @@
       <c r="I898" s="1"/>
       <c r="J898" s="1"/>
       <c r="K898" s="1"/>
-      <c r="L898" s="31"/>
+      <c r="L898" s="32"/>
       <c r="M898" s="11"/>
       <c r="N898" s="21"/>
       <c r="O898" s="1"/>
@@ -55291,7 +55328,7 @@
       <c r="I899" s="1"/>
       <c r="J899" s="1"/>
       <c r="K899" s="1"/>
-      <c r="L899" s="31"/>
+      <c r="L899" s="32"/>
       <c r="M899" s="11"/>
       <c r="N899" s="21"/>
       <c r="O899" s="1"/>
@@ -55318,7 +55355,7 @@
       <c r="I900" s="1"/>
       <c r="J900" s="1"/>
       <c r="K900" s="1"/>
-      <c r="L900" s="31"/>
+      <c r="L900" s="32"/>
       <c r="M900" s="11"/>
       <c r="N900" s="21"/>
       <c r="O900" s="1"/>
@@ -55345,7 +55382,7 @@
       <c r="I901" s="1"/>
       <c r="J901" s="1"/>
       <c r="K901" s="1"/>
-      <c r="L901" s="31"/>
+      <c r="L901" s="32"/>
       <c r="M901" s="11"/>
       <c r="N901" s="21"/>
       <c r="O901" s="1"/>
@@ -55372,7 +55409,7 @@
       <c r="I902" s="1"/>
       <c r="J902" s="1"/>
       <c r="K902" s="1"/>
-      <c r="L902" s="31"/>
+      <c r="L902" s="32"/>
       <c r="M902" s="11"/>
       <c r="N902" s="21"/>
       <c r="O902" s="1"/>
@@ -55399,7 +55436,7 @@
       <c r="I903" s="1"/>
       <c r="J903" s="1"/>
       <c r="K903" s="1"/>
-      <c r="L903" s="31"/>
+      <c r="L903" s="32"/>
       <c r="M903" s="11"/>
       <c r="N903" s="21"/>
       <c r="O903" s="1"/>
@@ -55426,7 +55463,7 @@
       <c r="I904" s="1"/>
       <c r="J904" s="1"/>
       <c r="K904" s="1"/>
-      <c r="L904" s="31"/>
+      <c r="L904" s="32"/>
       <c r="M904" s="11"/>
       <c r="N904" s="21"/>
       <c r="O904" s="1"/>
@@ -55453,7 +55490,7 @@
       <c r="I905" s="1"/>
       <c r="J905" s="1"/>
       <c r="K905" s="1"/>
-      <c r="L905" s="31"/>
+      <c r="L905" s="32"/>
       <c r="M905" s="11"/>
       <c r="N905" s="21"/>
       <c r="O905" s="1"/>
@@ -55480,7 +55517,7 @@
       <c r="I906" s="1"/>
       <c r="J906" s="1"/>
       <c r="K906" s="1"/>
-      <c r="L906" s="31"/>
+      <c r="L906" s="32"/>
       <c r="M906" s="11"/>
       <c r="N906" s="21"/>
       <c r="O906" s="1"/>
@@ -55507,7 +55544,7 @@
       <c r="I907" s="1"/>
       <c r="J907" s="1"/>
       <c r="K907" s="1"/>
-      <c r="L907" s="31"/>
+      <c r="L907" s="32"/>
       <c r="M907" s="11"/>
       <c r="N907" s="21"/>
       <c r="O907" s="1"/>
@@ -55534,7 +55571,7 @@
       <c r="I908" s="1"/>
       <c r="J908" s="1"/>
       <c r="K908" s="1"/>
-      <c r="L908" s="31"/>
+      <c r="L908" s="32"/>
       <c r="M908" s="11"/>
       <c r="N908" s="21"/>
       <c r="O908" s="1"/>
@@ -55561,7 +55598,7 @@
       <c r="I909" s="1"/>
       <c r="J909" s="1"/>
       <c r="K909" s="1"/>
-      <c r="L909" s="31"/>
+      <c r="L909" s="32"/>
       <c r="M909" s="11"/>
       <c r="N909" s="21"/>
       <c r="O909" s="1"/>
@@ -55588,7 +55625,7 @@
       <c r="I910" s="1"/>
       <c r="J910" s="1"/>
       <c r="K910" s="1"/>
-      <c r="L910" s="31"/>
+      <c r="L910" s="32"/>
       <c r="M910" s="11"/>
       <c r="N910" s="21"/>
       <c r="O910" s="1"/>
@@ -55615,7 +55652,7 @@
       <c r="I911" s="1"/>
       <c r="J911" s="1"/>
       <c r="K911" s="1"/>
-      <c r="L911" s="31"/>
+      <c r="L911" s="32"/>
       <c r="M911" s="11"/>
       <c r="N911" s="21"/>
       <c r="O911" s="1"/>
@@ -55642,7 +55679,7 @@
       <c r="I912" s="1"/>
       <c r="J912" s="1"/>
       <c r="K912" s="1"/>
-      <c r="L912" s="31"/>
+      <c r="L912" s="32"/>
       <c r="M912" s="11"/>
       <c r="N912" s="21"/>
       <c r="O912" s="1"/>
@@ -55669,7 +55706,7 @@
       <c r="I913" s="1"/>
       <c r="J913" s="1"/>
       <c r="K913" s="1"/>
-      <c r="L913" s="31"/>
+      <c r="L913" s="32"/>
       <c r="M913" s="11"/>
       <c r="N913" s="21"/>
       <c r="O913" s="1"/>
@@ -55696,7 +55733,7 @@
       <c r="I914" s="1"/>
       <c r="J914" s="1"/>
       <c r="K914" s="1"/>
-      <c r="L914" s="31"/>
+      <c r="L914" s="32"/>
       <c r="M914" s="11"/>
       <c r="N914" s="21"/>
       <c r="O914" s="1"/>
@@ -55723,7 +55760,7 @@
       <c r="I915" s="1"/>
       <c r="J915" s="1"/>
       <c r="K915" s="1"/>
-      <c r="L915" s="31"/>
+      <c r="L915" s="32"/>
       <c r="M915" s="11"/>
       <c r="N915" s="21"/>
       <c r="O915" s="1"/>
@@ -55750,7 +55787,7 @@
       <c r="I916" s="1"/>
       <c r="J916" s="1"/>
       <c r="K916" s="1"/>
-      <c r="L916" s="31"/>
+      <c r="L916" s="32"/>
       <c r="M916" s="11"/>
       <c r="N916" s="21"/>
       <c r="O916" s="1"/>
@@ -55777,7 +55814,7 @@
       <c r="I917" s="1"/>
       <c r="J917" s="1"/>
       <c r="K917" s="1"/>
-      <c r="L917" s="31"/>
+      <c r="L917" s="32"/>
       <c r="M917" s="11"/>
       <c r="N917" s="21"/>
       <c r="O917" s="1"/>
@@ -55804,7 +55841,7 @@
       <c r="I918" s="1"/>
       <c r="J918" s="1"/>
       <c r="K918" s="1"/>
-      <c r="L918" s="31"/>
+      <c r="L918" s="32"/>
       <c r="M918" s="11"/>
       <c r="N918" s="21"/>
       <c r="O918" s="1"/>
@@ -55831,7 +55868,7 @@
       <c r="I919" s="1"/>
       <c r="J919" s="1"/>
       <c r="K919" s="1"/>
-      <c r="L919" s="31"/>
+      <c r="L919" s="32"/>
       <c r="M919" s="11"/>
       <c r="N919" s="21"/>
       <c r="O919" s="1"/>
@@ -55858,7 +55895,7 @@
       <c r="I920" s="1"/>
       <c r="J920" s="1"/>
       <c r="K920" s="1"/>
-      <c r="L920" s="31"/>
+      <c r="L920" s="32"/>
       <c r="M920" s="11"/>
       <c r="N920" s="21"/>
       <c r="O920" s="1"/>
@@ -55885,7 +55922,7 @@
       <c r="I921" s="1"/>
       <c r="J921" s="1"/>
       <c r="K921" s="1"/>
-      <c r="L921" s="31"/>
+      <c r="L921" s="32"/>
       <c r="M921" s="11"/>
       <c r="N921" s="21"/>
       <c r="O921" s="1"/>
@@ -55912,7 +55949,7 @@
       <c r="I922" s="1"/>
       <c r="J922" s="1"/>
       <c r="K922" s="1"/>
-      <c r="L922" s="31"/>
+      <c r="L922" s="32"/>
       <c r="M922" s="11"/>
       <c r="N922" s="21"/>
       <c r="O922" s="1"/>
@@ -55939,7 +55976,7 @@
       <c r="I923" s="1"/>
       <c r="J923" s="1"/>
       <c r="K923" s="1"/>
-      <c r="L923" s="31"/>
+      <c r="L923" s="32"/>
       <c r="M923" s="11"/>
       <c r="N923" s="21"/>
       <c r="O923" s="1"/>
@@ -55966,7 +56003,7 @@
       <c r="I924" s="1"/>
       <c r="J924" s="1"/>
       <c r="K924" s="1"/>
-      <c r="L924" s="31"/>
+      <c r="L924" s="32"/>
       <c r="M924" s="11"/>
       <c r="N924" s="21"/>
       <c r="O924" s="1"/>
@@ -55993,7 +56030,7 @@
       <c r="I925" s="1"/>
       <c r="J925" s="1"/>
       <c r="K925" s="1"/>
-      <c r="L925" s="31"/>
+      <c r="L925" s="32"/>
       <c r="M925" s="11"/>
       <c r="N925" s="21"/>
       <c r="O925" s="1"/>
@@ -56020,7 +56057,7 @@
       <c r="I926" s="1"/>
       <c r="J926" s="1"/>
       <c r="K926" s="1"/>
-      <c r="L926" s="31"/>
+      <c r="L926" s="32"/>
       <c r="M926" s="11"/>
       <c r="N926" s="21"/>
       <c r="O926" s="1"/>
@@ -56047,7 +56084,7 @@
       <c r="I927" s="1"/>
       <c r="J927" s="1"/>
       <c r="K927" s="1"/>
-      <c r="L927" s="31"/>
+      <c r="L927" s="32"/>
       <c r="M927" s="11"/>
       <c r="N927" s="21"/>
       <c r="O927" s="1"/>
@@ -56074,7 +56111,7 @@
       <c r="I928" s="1"/>
       <c r="J928" s="1"/>
       <c r="K928" s="1"/>
-      <c r="L928" s="31"/>
+      <c r="L928" s="32"/>
       <c r="M928" s="11"/>
       <c r="N928" s="21"/>
       <c r="O928" s="1"/>
@@ -56101,7 +56138,7 @@
       <c r="I929" s="1"/>
       <c r="J929" s="1"/>
       <c r="K929" s="1"/>
-      <c r="L929" s="31"/>
+      <c r="L929" s="32"/>
       <c r="M929" s="11"/>
       <c r="N929" s="21"/>
       <c r="O929" s="1"/>
@@ -56128,7 +56165,7 @@
       <c r="I930" s="1"/>
       <c r="J930" s="1"/>
       <c r="K930" s="1"/>
-      <c r="L930" s="31"/>
+      <c r="L930" s="32"/>
       <c r="M930" s="11"/>
       <c r="N930" s="21"/>
       <c r="O930" s="1"/>
@@ -56155,7 +56192,7 @@
       <c r="I931" s="1"/>
       <c r="J931" s="1"/>
       <c r="K931" s="1"/>
-      <c r="L931" s="31"/>
+      <c r="L931" s="32"/>
       <c r="M931" s="11"/>
       <c r="N931" s="21"/>
       <c r="O931" s="1"/>
@@ -56182,7 +56219,7 @@
       <c r="I932" s="1"/>
       <c r="J932" s="1"/>
       <c r="K932" s="1"/>
-      <c r="L932" s="31"/>
+      <c r="L932" s="32"/>
       <c r="M932" s="11"/>
       <c r="N932" s="21"/>
       <c r="O932" s="1"/>
@@ -56209,7 +56246,7 @@
       <c r="I933" s="1"/>
       <c r="J933" s="1"/>
       <c r="K933" s="1"/>
-      <c r="L933" s="31"/>
+      <c r="L933" s="32"/>
       <c r="M933" s="11"/>
       <c r="N933" s="21"/>
       <c r="O933" s="1"/>
@@ -56236,7 +56273,7 @@
       <c r="I934" s="1"/>
       <c r="J934" s="1"/>
       <c r="K934" s="1"/>
-      <c r="L934" s="31"/>
+      <c r="L934" s="32"/>
       <c r="M934" s="11"/>
       <c r="N934" s="21"/>
       <c r="O934" s="1"/>
@@ -56263,7 +56300,7 @@
       <c r="I935" s="1"/>
       <c r="J935" s="1"/>
       <c r="K935" s="1"/>
-      <c r="L935" s="31"/>
+      <c r="L935" s="32"/>
       <c r="M935" s="11"/>
       <c r="N935" s="21"/>
       <c r="O935" s="1"/>
@@ -56290,7 +56327,7 @@
       <c r="I936" s="1"/>
       <c r="J936" s="1"/>
       <c r="K936" s="1"/>
-      <c r="L936" s="31"/>
+      <c r="L936" s="32"/>
       <c r="M936" s="11"/>
       <c r="N936" s="21"/>
       <c r="O936" s="1"/>
@@ -56317,7 +56354,7 @@
       <c r="I937" s="1"/>
       <c r="J937" s="1"/>
       <c r="K937" s="1"/>
-      <c r="L937" s="31"/>
+      <c r="L937" s="32"/>
       <c r="M937" s="11"/>
       <c r="N937" s="21"/>
       <c r="O937" s="1"/>
@@ -56344,7 +56381,7 @@
       <c r="I938" s="1"/>
       <c r="J938" s="1"/>
       <c r="K938" s="1"/>
-      <c r="L938" s="31"/>
+      <c r="L938" s="32"/>
       <c r="M938" s="11"/>
       <c r="N938" s="21"/>
       <c r="O938" s="1"/>
@@ -56371,7 +56408,7 @@
       <c r="I939" s="1"/>
       <c r="J939" s="1"/>
       <c r="K939" s="1"/>
-      <c r="L939" s="31"/>
+      <c r="L939" s="32"/>
       <c r="M939" s="11"/>
       <c r="N939" s="21"/>
       <c r="O939" s="1"/>
@@ -56398,7 +56435,7 @@
       <c r="I940" s="1"/>
       <c r="J940" s="1"/>
       <c r="K940" s="1"/>
-      <c r="L940" s="31"/>
+      <c r="L940" s="32"/>
       <c r="M940" s="11"/>
       <c r="N940" s="21"/>
       <c r="O940" s="1"/>
@@ -56425,7 +56462,7 @@
       <c r="I941" s="1"/>
       <c r="J941" s="1"/>
       <c r="K941" s="1"/>
-      <c r="L941" s="31"/>
+      <c r="L941" s="32"/>
       <c r="M941" s="11"/>
       <c r="N941" s="21"/>
       <c r="O941" s="1"/>
@@ -56452,7 +56489,7 @@
       <c r="I942" s="1"/>
       <c r="J942" s="1"/>
       <c r="K942" s="1"/>
-      <c r="L942" s="31"/>
+      <c r="L942" s="32"/>
       <c r="M942" s="11"/>
       <c r="N942" s="21"/>
       <c r="O942" s="1"/>
@@ -56479,7 +56516,7 @@
       <c r="I943" s="1"/>
       <c r="J943" s="1"/>
       <c r="K943" s="1"/>
-      <c r="L943" s="31"/>
+      <c r="L943" s="32"/>
       <c r="M943" s="11"/>
       <c r="N943" s="21"/>
       <c r="O943" s="1"/>
@@ -56506,7 +56543,7 @@
       <c r="I944" s="1"/>
       <c r="J944" s="1"/>
       <c r="K944" s="1"/>
-      <c r="L944" s="31"/>
+      <c r="L944" s="32"/>
       <c r="M944" s="11"/>
       <c r="N944" s="21"/>
       <c r="O944" s="1"/>
@@ -56533,7 +56570,7 @@
       <c r="I945" s="1"/>
       <c r="J945" s="1"/>
       <c r="K945" s="1"/>
-      <c r="L945" s="31"/>
+      <c r="L945" s="32"/>
       <c r="M945" s="11"/>
       <c r="N945" s="21"/>
       <c r="O945" s="1"/>
@@ -56560,7 +56597,7 @@
       <c r="I946" s="1"/>
       <c r="J946" s="1"/>
       <c r="K946" s="1"/>
-      <c r="L946" s="31"/>
+      <c r="L946" s="32"/>
       <c r="M946" s="11"/>
       <c r="N946" s="21"/>
       <c r="O946" s="1"/>
@@ -56587,7 +56624,7 @@
       <c r="I947" s="1"/>
       <c r="J947" s="1"/>
       <c r="K947" s="1"/>
-      <c r="L947" s="31"/>
+      <c r="L947" s="32"/>
       <c r="M947" s="11"/>
       <c r="N947" s="21"/>
       <c r="O947" s="1"/>
@@ -56614,7 +56651,7 @@
       <c r="I948" s="1"/>
       <c r="J948" s="1"/>
       <c r="K948" s="1"/>
-      <c r="L948" s="31"/>
+      <c r="L948" s="32"/>
       <c r="M948" s="11"/>
       <c r="N948" s="21"/>
       <c r="O948" s="1"/>
@@ -56641,7 +56678,7 @@
       <c r="I949" s="1"/>
       <c r="J949" s="1"/>
       <c r="K949" s="1"/>
-      <c r="L949" s="31"/>
+      <c r="L949" s="32"/>
       <c r="M949" s="11"/>
       <c r="N949" s="21"/>
       <c r="O949" s="1"/>
@@ -56668,7 +56705,7 @@
       <c r="I950" s="1"/>
       <c r="J950" s="1"/>
       <c r="K950" s="1"/>
-      <c r="L950" s="31"/>
+      <c r="L950" s="32"/>
       <c r="M950" s="11"/>
       <c r="N950" s="21"/>
       <c r="O950" s="1"/>
@@ -56695,7 +56732,7 @@
       <c r="I951" s="1"/>
       <c r="J951" s="1"/>
       <c r="K951" s="1"/>
-      <c r="L951" s="31"/>
+      <c r="L951" s="32"/>
       <c r="M951" s="11"/>
       <c r="N951" s="21"/>
       <c r="O951" s="1"/>
@@ -56722,7 +56759,7 @@
       <c r="I952" s="1"/>
       <c r="J952" s="1"/>
       <c r="K952" s="1"/>
-      <c r="L952" s="31"/>
+      <c r="L952" s="32"/>
       <c r="M952" s="11"/>
       <c r="N952" s="21"/>
       <c r="O952" s="1"/>
@@ -56749,7 +56786,7 @@
       <c r="I953" s="1"/>
       <c r="J953" s="1"/>
       <c r="K953" s="1"/>
-      <c r="L953" s="31"/>
+      <c r="L953" s="32"/>
       <c r="M953" s="11"/>
       <c r="N953" s="21"/>
       <c r="O953" s="1"/>
@@ -56776,7 +56813,7 @@
       <c r="I954" s="1"/>
       <c r="J954" s="1"/>
       <c r="K954" s="1"/>
-      <c r="L954" s="31"/>
+      <c r="L954" s="32"/>
       <c r="M954" s="11"/>
       <c r="N954" s="21"/>
       <c r="O954" s="1"/>
@@ -56803,7 +56840,7 @@
       <c r="I955" s="1"/>
       <c r="J955" s="1"/>
       <c r="K955" s="1"/>
-      <c r="L955" s="31"/>
+      <c r="L955" s="32"/>
       <c r="M955" s="11"/>
       <c r="N955" s="21"/>
       <c r="O955" s="1"/>
@@ -56830,7 +56867,7 @@
       <c r="I956" s="1"/>
       <c r="J956" s="1"/>
       <c r="K956" s="1"/>
-      <c r="L956" s="31"/>
+      <c r="L956" s="32"/>
       <c r="M956" s="11"/>
       <c r="N956" s="21"/>
       <c r="O956" s="1"/>
@@ -56857,7 +56894,7 @@
       <c r="I957" s="1"/>
       <c r="J957" s="1"/>
       <c r="K957" s="1"/>
-      <c r="L957" s="31"/>
+      <c r="L957" s="32"/>
       <c r="M957" s="11"/>
       <c r="N957" s="21"/>
       <c r="O957" s="1"/>
@@ -56884,7 +56921,7 @@
       <c r="I958" s="1"/>
       <c r="J958" s="1"/>
       <c r="K958" s="1"/>
-      <c r="L958" s="31"/>
+      <c r="L958" s="32"/>
       <c r="M958" s="11"/>
       <c r="N958" s="21"/>
       <c r="O958" s="1"/>
@@ -56911,7 +56948,7 @@
       <c r="I959" s="1"/>
       <c r="J959" s="1"/>
       <c r="K959" s="1"/>
-      <c r="L959" s="31"/>
+      <c r="L959" s="32"/>
       <c r="M959" s="11"/>
       <c r="N959" s="21"/>
       <c r="O959" s="1"/>
@@ -56938,7 +56975,7 @@
       <c r="I960" s="1"/>
       <c r="J960" s="1"/>
       <c r="K960" s="1"/>
-      <c r="L960" s="31"/>
+      <c r="L960" s="32"/>
       <c r="M960" s="11"/>
       <c r="N960" s="21"/>
       <c r="O960" s="1"/>
@@ -56965,7 +57002,7 @@
       <c r="I961" s="1"/>
       <c r="J961" s="1"/>
       <c r="K961" s="1"/>
-      <c r="L961" s="31"/>
+      <c r="L961" s="32"/>
       <c r="M961" s="11"/>
       <c r="N961" s="21"/>
       <c r="O961" s="1"/>
@@ -56992,7 +57029,7 @@
       <c r="I962" s="1"/>
       <c r="J962" s="1"/>
       <c r="K962" s="1"/>
-      <c r="L962" s="31"/>
+      <c r="L962" s="32"/>
       <c r="M962" s="11"/>
       <c r="N962" s="21"/>
       <c r="O962" s="1"/>
@@ -57019,7 +57056,7 @@
       <c r="I963" s="1"/>
       <c r="J963" s="1"/>
       <c r="K963" s="1"/>
-      <c r="L963" s="31"/>
+      <c r="L963" s="32"/>
       <c r="M963" s="11"/>
       <c r="N963" s="21"/>
       <c r="O963" s="1"/>
@@ -57046,7 +57083,7 @@
       <c r="I964" s="1"/>
       <c r="J964" s="1"/>
       <c r="K964" s="1"/>
-      <c r="L964" s="31"/>
+      <c r="L964" s="32"/>
       <c r="M964" s="11"/>
       <c r="N964" s="21"/>
       <c r="O964" s="1"/>
@@ -57073,7 +57110,7 @@
       <c r="I965" s="1"/>
       <c r="J965" s="1"/>
       <c r="K965" s="1"/>
-      <c r="L965" s="31"/>
+      <c r="L965" s="32"/>
       <c r="M965" s="11"/>
       <c r="N965" s="21"/>
       <c r="O965" s="1"/>
@@ -57100,7 +57137,7 @@
       <c r="I966" s="1"/>
       <c r="J966" s="1"/>
       <c r="K966" s="1"/>
-      <c r="L966" s="31"/>
+      <c r="L966" s="32"/>
       <c r="M966" s="11"/>
       <c r="N966" s="21"/>
       <c r="O966" s="1"/>
@@ -57127,7 +57164,7 @@
       <c r="I967" s="1"/>
       <c r="J967" s="1"/>
       <c r="K967" s="1"/>
-      <c r="L967" s="31"/>
+      <c r="L967" s="32"/>
       <c r="M967" s="11"/>
       <c r="N967" s="21"/>
       <c r="O967" s="1"/>
@@ -57154,7 +57191,7 @@
       <c r="I968" s="1"/>
       <c r="J968" s="1"/>
       <c r="K968" s="1"/>
-      <c r="L968" s="31"/>
+      <c r="L968" s="32"/>
       <c r="M968" s="11"/>
       <c r="N968" s="21"/>
       <c r="O968" s="1"/>
@@ -57181,7 +57218,7 @@
       <c r="I969" s="1"/>
       <c r="J969" s="1"/>
       <c r="K969" s="1"/>
-      <c r="L969" s="31"/>
+      <c r="L969" s="32"/>
       <c r="M969" s="11"/>
       <c r="N969" s="21"/>
       <c r="O969" s="1"/>
@@ -57208,7 +57245,7 @@
       <c r="I970" s="1"/>
       <c r="J970" s="1"/>
       <c r="K970" s="1"/>
-      <c r="L970" s="31"/>
+      <c r="L970" s="32"/>
       <c r="M970" s="11"/>
       <c r="N970" s="21"/>
       <c r="O970" s="1"/>
@@ -57235,7 +57272,7 @@
       <c r="I971" s="1"/>
       <c r="J971" s="1"/>
       <c r="K971" s="1"/>
-      <c r="L971" s="31"/>
+      <c r="L971" s="32"/>
       <c r="M971" s="11"/>
       <c r="N971" s="21"/>
       <c r="O971" s="1"/>
@@ -57262,7 +57299,7 @@
       <c r="I972" s="1"/>
       <c r="J972" s="1"/>
       <c r="K972" s="1"/>
-      <c r="L972" s="31"/>
+      <c r="L972" s="32"/>
       <c r="M972" s="11"/>
       <c r="N972" s="21"/>
       <c r="O972" s="1"/>
@@ -57289,7 +57326,7 @@
       <c r="I973" s="1"/>
       <c r="J973" s="1"/>
       <c r="K973" s="1"/>
-      <c r="L973" s="31"/>
+      <c r="L973" s="32"/>
       <c r="M973" s="11"/>
       <c r="N973" s="21"/>
       <c r="O973" s="1"/>
@@ -57316,7 +57353,7 @@
       <c r="I974" s="1"/>
       <c r="J974" s="1"/>
       <c r="K974" s="1"/>
-      <c r="L974" s="31"/>
+      <c r="L974" s="32"/>
       <c r="M974" s="11"/>
       <c r="N974" s="21"/>
       <c r="O974" s="1"/>
@@ -57343,7 +57380,7 @@
       <c r="I975" s="1"/>
       <c r="J975" s="1"/>
       <c r="K975" s="1"/>
-      <c r="L975" s="31"/>
+      <c r="L975" s="32"/>
       <c r="M975" s="11"/>
       <c r="N975" s="21"/>
       <c r="O975" s="1"/>
@@ -57370,7 +57407,7 @@
       <c r="I976" s="1"/>
       <c r="J976" s="1"/>
       <c r="K976" s="1"/>
-      <c r="L976" s="31"/>
+      <c r="L976" s="32"/>
       <c r="M976" s="11"/>
       <c r="N976" s="21"/>
       <c r="O976" s="1"/>
@@ -57397,7 +57434,7 @@
       <c r="I977" s="1"/>
       <c r="J977" s="1"/>
       <c r="K977" s="1"/>
-      <c r="L977" s="31"/>
+      <c r="L977" s="32"/>
       <c r="M977" s="11"/>
       <c r="N977" s="21"/>
       <c r="O977" s="1"/>
@@ -57424,7 +57461,7 @@
       <c r="I978" s="1"/>
       <c r="J978" s="1"/>
       <c r="K978" s="1"/>
-      <c r="L978" s="31"/>
+      <c r="L978" s="32"/>
       <c r="M978" s="11"/>
       <c r="N978" s="21"/>
       <c r="O978" s="1"/>
@@ -57451,7 +57488,7 @@
       <c r="I979" s="1"/>
       <c r="J979" s="1"/>
       <c r="K979" s="1"/>
-      <c r="L979" s="31"/>
+      <c r="L979" s="32"/>
       <c r="M979" s="11"/>
       <c r="N979" s="21"/>
       <c r="O979" s="1"/>
@@ -57478,7 +57515,7 @@
       <c r="I980" s="1"/>
       <c r="J980" s="1"/>
       <c r="K980" s="1"/>
-      <c r="L980" s="31"/>
+      <c r="L980" s="32"/>
       <c r="M980" s="11"/>
       <c r="N980" s="21"/>
       <c r="O980" s="1"/>
@@ -57505,7 +57542,7 @@
       <c r="I981" s="1"/>
       <c r="J981" s="1"/>
       <c r="K981" s="1"/>
-      <c r="L981" s="31"/>
+      <c r="L981" s="32"/>
       <c r="M981" s="11"/>
       <c r="N981" s="21"/>
       <c r="O981" s="1"/>
@@ -57532,7 +57569,7 @@
       <c r="I982" s="1"/>
       <c r="J982" s="1"/>
       <c r="K982" s="1"/>
-      <c r="L982" s="31"/>
+      <c r="L982" s="32"/>
       <c r="M982" s="11"/>
       <c r="N982" s="21"/>
       <c r="O982" s="1"/>
@@ -57559,7 +57596,7 @@
       <c r="I983" s="1"/>
       <c r="J983" s="1"/>
       <c r="K983" s="1"/>
-      <c r="L983" s="31"/>
+      <c r="L983" s="32"/>
       <c r="M983" s="11"/>
       <c r="N983" s="21"/>
       <c r="O983" s="1"/>
@@ -57586,7 +57623,7 @@
       <c r="I984" s="1"/>
       <c r="J984" s="1"/>
       <c r="K984" s="1"/>
-      <c r="L984" s="31"/>
+      <c r="L984" s="32"/>
       <c r="M984" s="11"/>
       <c r="N984" s="21"/>
       <c r="O984" s="1"/>
@@ -57613,7 +57650,7 @@
       <c r="I985" s="1"/>
       <c r="J985" s="1"/>
       <c r="K985" s="1"/>
-      <c r="L985" s="31"/>
+      <c r="L985" s="32"/>
       <c r="M985" s="11"/>
       <c r="N985" s="21"/>
       <c r="O985" s="1"/>
@@ -57640,7 +57677,7 @@
       <c r="I986" s="1"/>
       <c r="J986" s="1"/>
       <c r="K986" s="1"/>
-      <c r="L986" s="31"/>
+      <c r="L986" s="32"/>
       <c r="M986" s="11"/>
       <c r="N986" s="21"/>
       <c r="O986" s="1"/>
@@ -57656,43 +57693,43 @@
       <c r="Y986" s="1"/>
     </row>
     <row r="987" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L987" s="31"/>
+      <c r="L987" s="32"/>
     </row>
     <row r="988" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L988" s="31"/>
+      <c r="L988" s="32"/>
     </row>
     <row r="989" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L989" s="31"/>
+      <c r="L989" s="32"/>
     </row>
     <row r="990" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L990" s="31"/>
+      <c r="L990" s="32"/>
     </row>
     <row r="991" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L991" s="31"/>
+      <c r="L991" s="32"/>
     </row>
     <row r="992" spans="1:25" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L992" s="31"/>
+      <c r="L992" s="32"/>
     </row>
     <row r="993" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L993" s="31"/>
+      <c r="L993" s="32"/>
     </row>
     <row r="994" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L994" s="31"/>
+      <c r="L994" s="32"/>
     </row>
     <row r="995" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L995" s="31"/>
+      <c r="L995" s="32"/>
     </row>
     <row r="996" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L996" s="31"/>
+      <c r="L996" s="32"/>
     </row>
     <row r="997" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L997" s="31"/>
+      <c r="L997" s="32"/>
     </row>
     <row r="998" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L998" s="31"/>
+      <c r="L998" s="32"/>
     </row>
     <row r="999" spans="12:12" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="L999" s="31"/>
+      <c r="L999" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
